--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0A514-16C7-4947-A86F-48EEA34FD849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB57231-14BB-4EF9-A610-5A4CB2E12814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="52">
   <si>
     <t>Te_cal</t>
   </si>
@@ -188,12 +190,15 @@
   <si>
     <t>test10 col</t>
   </si>
+  <si>
+    <t>test11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +217,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -238,9 +251,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,13 +576,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC436"/>
+  <dimension ref="A1:AC437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E436" sqref="E436"/>
+      <selection pane="bottomRight" activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31896,56 +31910,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="427" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="2">
         <v>15</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="2">
         <v>66.2</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="2">
         <v>58.6</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="2">
         <v>24.6</v>
       </c>
-      <c r="H427">
-        <v>100</v>
-      </c>
-      <c r="I427">
+      <c r="H427" s="2">
+        <v>100</v>
+      </c>
+      <c r="I427" s="2">
         <v>42.8</v>
       </c>
-      <c r="T427">
+      <c r="T427" s="2">
         <v>43</v>
       </c>
-      <c r="U427">
+      <c r="U427" s="2">
         <v>99</v>
       </c>
-      <c r="V427">
+      <c r="V427" s="2">
         <v>42.5</v>
       </c>
-      <c r="W427">
+      <c r="W427" s="2">
         <v>41</v>
       </c>
-      <c r="X427">
+      <c r="X427" s="2">
         <v>45.3</v>
       </c>
-      <c r="Y427">
+      <c r="Y427" s="2">
         <v>15</v>
       </c>
-      <c r="Z427">
+      <c r="Z427" s="2">
         <v>29.3</v>
       </c>
-      <c r="AA427">
+      <c r="AA427" s="2">
         <v>11</v>
       </c>
     </row>
@@ -32367,18 +32381,182 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+    <row r="436" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="2">
         <v>15</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E436" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="F436" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="G436" s="2">
+        <v>95.6</v>
+      </c>
+      <c r="H436" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="I436" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="J436" s="2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K436" s="2">
+        <v>10</v>
+      </c>
+      <c r="L436" s="2">
+        <v>64</v>
+      </c>
+      <c r="M436" s="2">
+        <v>30</v>
+      </c>
+      <c r="N436" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="O436" s="2">
+        <v>25</v>
+      </c>
+      <c r="P436" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Q436" s="2">
+        <v>11</v>
+      </c>
+      <c r="R436" s="2">
+        <v>80</v>
+      </c>
+      <c r="S436" s="2">
+        <v>10</v>
+      </c>
+      <c r="T436" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U436" s="2">
+        <v>10</v>
+      </c>
+      <c r="V436" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="W436" s="2">
+        <v>10</v>
+      </c>
+      <c r="X436" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="Y436" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z436" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="AA436" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB436" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC436" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C437" s="2">
+        <v>15</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E437">
+        <v>100</v>
+      </c>
+      <c r="F437">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G437">
+        <v>98.5</v>
+      </c>
+      <c r="H437">
+        <v>100</v>
+      </c>
+      <c r="I437">
+        <v>100</v>
+      </c>
+      <c r="J437">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="K437">
+        <v>53</v>
+      </c>
+      <c r="L437">
+        <v>83.4</v>
+      </c>
+      <c r="M437">
+        <v>33</v>
+      </c>
+      <c r="N437">
+        <v>88.1</v>
+      </c>
+      <c r="O437">
+        <v>15</v>
+      </c>
+      <c r="P437">
+        <v>88.6</v>
+      </c>
+      <c r="Q437">
+        <v>10</v>
+      </c>
+      <c r="R437">
+        <v>92.6</v>
+      </c>
+      <c r="S437">
+        <v>10</v>
+      </c>
+      <c r="T437">
+        <v>42.3</v>
+      </c>
+      <c r="U437">
+        <v>31</v>
+      </c>
+      <c r="V437">
+        <v>47.6</v>
+      </c>
+      <c r="W437">
+        <v>20</v>
+      </c>
+      <c r="X437">
+        <v>52</v>
+      </c>
+      <c r="Y437">
+        <v>11</v>
+      </c>
+      <c r="Z437">
+        <v>49</v>
+      </c>
+      <c r="AA437">
+        <v>10</v>
+      </c>
+      <c r="AB437">
+        <v>44.4</v>
+      </c>
+      <c r="AC437">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB57231-14BB-4EF9-A610-5A4CB2E12814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB616706-C958-4084-897A-ACADFE3178DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="54">
   <si>
     <t>Te_cal</t>
   </si>
@@ -193,12 +193,18 @@
   <si>
     <t>test11</t>
   </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +236,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,10 +264,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,13 +590,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC437"/>
+  <dimension ref="A1:AC494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E403" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A386" sqref="A386:XFD386"/>
+      <selection pane="bottomRight" activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32557,6 +32571,2385 @@
       </c>
       <c r="AC437">
         <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>52</v>
+      </c>
+      <c r="B438" t="s">
+        <v>28</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>26</v>
+      </c>
+      <c r="E438">
+        <v>100</v>
+      </c>
+      <c r="F438">
+        <v>67</v>
+      </c>
+      <c r="G438">
+        <v>99</v>
+      </c>
+      <c r="H438">
+        <v>99.9</v>
+      </c>
+      <c r="I438">
+        <v>100</v>
+      </c>
+      <c r="J438">
+        <v>81.7</v>
+      </c>
+      <c r="K438">
+        <v>15</v>
+      </c>
+      <c r="L438">
+        <v>81.7</v>
+      </c>
+      <c r="M438">
+        <v>27</v>
+      </c>
+      <c r="N438">
+        <v>80.5</v>
+      </c>
+      <c r="O438">
+        <v>14</v>
+      </c>
+      <c r="P438">
+        <v>79</v>
+      </c>
+      <c r="Q438">
+        <v>10</v>
+      </c>
+      <c r="R438">
+        <v>79.8</v>
+      </c>
+      <c r="S438">
+        <v>26</v>
+      </c>
+      <c r="T438">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="U438">
+        <v>16</v>
+      </c>
+      <c r="V438">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="W438">
+        <v>32</v>
+      </c>
+      <c r="X438">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Y438">
+        <v>17</v>
+      </c>
+      <c r="Z438">
+        <v>38</v>
+      </c>
+      <c r="AA438">
+        <v>15</v>
+      </c>
+      <c r="AB438">
+        <v>36.9</v>
+      </c>
+      <c r="AC438">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>52</v>
+      </c>
+      <c r="B439" t="s">
+        <v>28</v>
+      </c>
+      <c r="C439">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>29</v>
+      </c>
+      <c r="E439">
+        <v>99.4</v>
+      </c>
+      <c r="F439">
+        <v>68.2</v>
+      </c>
+      <c r="G439">
+        <v>41.8</v>
+      </c>
+      <c r="H439">
+        <v>99.1</v>
+      </c>
+      <c r="I439">
+        <v>99.6</v>
+      </c>
+      <c r="J439">
+        <v>74</v>
+      </c>
+      <c r="K439">
+        <v>78</v>
+      </c>
+      <c r="L439">
+        <v>77.8</v>
+      </c>
+      <c r="M439">
+        <v>23</v>
+      </c>
+      <c r="N439">
+        <v>82.6</v>
+      </c>
+      <c r="O439">
+        <v>20</v>
+      </c>
+      <c r="P439">
+        <v>83.1</v>
+      </c>
+      <c r="Q439">
+        <v>16</v>
+      </c>
+      <c r="T439">
+        <v>37.6</v>
+      </c>
+      <c r="U439">
+        <v>22</v>
+      </c>
+      <c r="V439">
+        <v>24</v>
+      </c>
+      <c r="W439">
+        <v>26</v>
+      </c>
+      <c r="X439">
+        <v>14.7</v>
+      </c>
+      <c r="Y439">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>52</v>
+      </c>
+      <c r="B440" t="s">
+        <v>28</v>
+      </c>
+      <c r="C440">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s">
+        <v>30</v>
+      </c>
+      <c r="E440">
+        <v>90.9</v>
+      </c>
+      <c r="F440">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G440">
+        <v>94.4</v>
+      </c>
+      <c r="H440">
+        <v>99.8</v>
+      </c>
+      <c r="I440">
+        <v>100</v>
+      </c>
+      <c r="J440">
+        <v>83.8</v>
+      </c>
+      <c r="K440">
+        <v>13</v>
+      </c>
+      <c r="L440">
+        <v>79.7</v>
+      </c>
+      <c r="M440">
+        <v>16</v>
+      </c>
+      <c r="N440">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="O440">
+        <v>15</v>
+      </c>
+      <c r="P440">
+        <v>82.7</v>
+      </c>
+      <c r="Q440">
+        <v>10</v>
+      </c>
+      <c r="R440">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="S440">
+        <v>77</v>
+      </c>
+      <c r="T440">
+        <v>38.6</v>
+      </c>
+      <c r="U440">
+        <v>14</v>
+      </c>
+      <c r="V440">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="W440">
+        <v>15</v>
+      </c>
+      <c r="X440">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y440">
+        <v>13</v>
+      </c>
+      <c r="Z440">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA440">
+        <v>21</v>
+      </c>
+      <c r="AB440">
+        <v>33</v>
+      </c>
+      <c r="AC440">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>52</v>
+      </c>
+      <c r="B441" t="s">
+        <v>28</v>
+      </c>
+      <c r="C441">
+        <v>15</v>
+      </c>
+      <c r="D441" t="s">
+        <v>26</v>
+      </c>
+      <c r="E441">
+        <v>100</v>
+      </c>
+      <c r="F441">
+        <v>71.7</v>
+      </c>
+      <c r="G441">
+        <v>100</v>
+      </c>
+      <c r="H441">
+        <v>100</v>
+      </c>
+      <c r="I441">
+        <v>100</v>
+      </c>
+      <c r="J441">
+        <v>77.7</v>
+      </c>
+      <c r="K441">
+        <v>47</v>
+      </c>
+      <c r="L441">
+        <v>77.3</v>
+      </c>
+      <c r="M441">
+        <v>34</v>
+      </c>
+      <c r="N441">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="O441">
+        <v>63</v>
+      </c>
+      <c r="P441">
+        <v>76.5</v>
+      </c>
+      <c r="Q441">
+        <v>39</v>
+      </c>
+      <c r="R441">
+        <v>77</v>
+      </c>
+      <c r="S441">
+        <v>15</v>
+      </c>
+      <c r="T441">
+        <v>40.6</v>
+      </c>
+      <c r="U441">
+        <v>12</v>
+      </c>
+      <c r="V441">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="W441">
+        <v>10</v>
+      </c>
+      <c r="X441">
+        <v>34.5</v>
+      </c>
+      <c r="Y441">
+        <v>11</v>
+      </c>
+      <c r="Z441">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AA441">
+        <v>16</v>
+      </c>
+      <c r="AB441">
+        <v>33</v>
+      </c>
+      <c r="AC441">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>52</v>
+      </c>
+      <c r="B442" t="s">
+        <v>28</v>
+      </c>
+      <c r="C442">
+        <v>15</v>
+      </c>
+      <c r="D442" t="s">
+        <v>29</v>
+      </c>
+      <c r="E442">
+        <v>100</v>
+      </c>
+      <c r="F442">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G442">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H442">
+        <v>100</v>
+      </c>
+      <c r="I442">
+        <v>100</v>
+      </c>
+      <c r="J442">
+        <v>72</v>
+      </c>
+      <c r="K442">
+        <v>97</v>
+      </c>
+      <c r="L442">
+        <v>72.8</v>
+      </c>
+      <c r="M442">
+        <v>75</v>
+      </c>
+      <c r="N442">
+        <v>76.8</v>
+      </c>
+      <c r="O442">
+        <v>38</v>
+      </c>
+      <c r="P442">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Q442">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>52</v>
+      </c>
+      <c r="B443" t="s">
+        <v>28</v>
+      </c>
+      <c r="C443">
+        <v>15</v>
+      </c>
+      <c r="D443" t="s">
+        <v>30</v>
+      </c>
+      <c r="E443">
+        <v>100</v>
+      </c>
+      <c r="F443">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G443">
+        <v>98.5</v>
+      </c>
+      <c r="H443">
+        <v>100</v>
+      </c>
+      <c r="I443">
+        <v>100</v>
+      </c>
+      <c r="J443">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K443">
+        <v>63</v>
+      </c>
+      <c r="L443">
+        <v>84.8</v>
+      </c>
+      <c r="M443">
+        <v>12</v>
+      </c>
+      <c r="N443">
+        <v>77.3</v>
+      </c>
+      <c r="O443">
+        <v>39</v>
+      </c>
+      <c r="P443">
+        <v>84.1</v>
+      </c>
+      <c r="Q443">
+        <v>14</v>
+      </c>
+      <c r="R443">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="S443">
+        <v>25</v>
+      </c>
+      <c r="T443">
+        <v>44.1</v>
+      </c>
+      <c r="U443">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>52</v>
+      </c>
+      <c r="B444" t="s">
+        <v>28</v>
+      </c>
+      <c r="C444">
+        <v>25</v>
+      </c>
+      <c r="D444" t="s">
+        <v>26</v>
+      </c>
+      <c r="E444">
+        <v>100</v>
+      </c>
+      <c r="F444">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G444">
+        <v>100</v>
+      </c>
+      <c r="H444">
+        <v>100</v>
+      </c>
+      <c r="I444">
+        <v>100</v>
+      </c>
+      <c r="J444">
+        <v>72.8</v>
+      </c>
+      <c r="K444">
+        <v>92</v>
+      </c>
+      <c r="L444">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M444">
+        <v>91</v>
+      </c>
+      <c r="N444">
+        <v>72.7</v>
+      </c>
+      <c r="O444">
+        <v>90</v>
+      </c>
+      <c r="P444">
+        <v>72.8</v>
+      </c>
+      <c r="Q444">
+        <v>65</v>
+      </c>
+      <c r="R444">
+        <v>73.2</v>
+      </c>
+      <c r="S444">
+        <v>59</v>
+      </c>
+      <c r="T444">
+        <v>33</v>
+      </c>
+      <c r="U444">
+        <v>12</v>
+      </c>
+      <c r="V444">
+        <v>36.1</v>
+      </c>
+      <c r="W444">
+        <v>11</v>
+      </c>
+      <c r="X444">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Y444">
+        <v>10</v>
+      </c>
+      <c r="Z444">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AA444">
+        <v>24</v>
+      </c>
+      <c r="AB444">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AC444">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>52</v>
+      </c>
+      <c r="B445" t="s">
+        <v>28</v>
+      </c>
+      <c r="C445">
+        <v>25</v>
+      </c>
+      <c r="D445" t="s">
+        <v>29</v>
+      </c>
+      <c r="E445">
+        <v>100</v>
+      </c>
+      <c r="F445">
+        <v>72</v>
+      </c>
+      <c r="G445">
+        <v>80.2</v>
+      </c>
+      <c r="H445">
+        <v>100</v>
+      </c>
+      <c r="I445">
+        <v>100</v>
+      </c>
+      <c r="J445">
+        <v>72</v>
+      </c>
+      <c r="K445">
+        <v>99</v>
+      </c>
+      <c r="L445">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M445">
+        <v>56</v>
+      </c>
+      <c r="N445">
+        <v>81.5</v>
+      </c>
+      <c r="O445">
+        <v>10</v>
+      </c>
+      <c r="P445">
+        <v>81.2</v>
+      </c>
+      <c r="Q445">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>52</v>
+      </c>
+      <c r="B446" t="s">
+        <v>28</v>
+      </c>
+      <c r="C446">
+        <v>25</v>
+      </c>
+      <c r="D446" t="s">
+        <v>30</v>
+      </c>
+      <c r="E446">
+        <v>100</v>
+      </c>
+      <c r="F446">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G446">
+        <v>99.2</v>
+      </c>
+      <c r="H446">
+        <v>100</v>
+      </c>
+      <c r="I446">
+        <v>100</v>
+      </c>
+      <c r="J446">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K446">
+        <v>54</v>
+      </c>
+      <c r="L446">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="M446">
+        <v>52</v>
+      </c>
+      <c r="N446">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="O446">
+        <v>12</v>
+      </c>
+      <c r="P446">
+        <v>75.2</v>
+      </c>
+      <c r="Q446">
+        <v>39</v>
+      </c>
+      <c r="R446">
+        <v>83</v>
+      </c>
+      <c r="S446">
+        <v>12</v>
+      </c>
+      <c r="T446">
+        <v>46.1</v>
+      </c>
+      <c r="U446">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>52</v>
+      </c>
+      <c r="B447" t="s">
+        <v>33</v>
+      </c>
+      <c r="C447">
+        <v>5</v>
+      </c>
+      <c r="D447" t="s">
+        <v>26</v>
+      </c>
+      <c r="E447">
+        <v>83.3</v>
+      </c>
+      <c r="F447">
+        <v>71.5</v>
+      </c>
+      <c r="G447">
+        <v>89.2</v>
+      </c>
+      <c r="H447">
+        <v>80.8</v>
+      </c>
+      <c r="I447">
+        <v>85.9</v>
+      </c>
+      <c r="J447">
+        <v>80</v>
+      </c>
+      <c r="K447">
+        <v>39</v>
+      </c>
+      <c r="L447">
+        <v>90.8</v>
+      </c>
+      <c r="M447">
+        <v>12</v>
+      </c>
+      <c r="N447">
+        <v>91.5</v>
+      </c>
+      <c r="O447">
+        <v>10</v>
+      </c>
+      <c r="P447">
+        <v>90.8</v>
+      </c>
+      <c r="Q447">
+        <v>12</v>
+      </c>
+      <c r="R447">
+        <v>89.7</v>
+      </c>
+      <c r="S447">
+        <v>11</v>
+      </c>
+      <c r="T447">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="U447">
+        <v>15</v>
+      </c>
+      <c r="V447">
+        <v>45</v>
+      </c>
+      <c r="W447">
+        <v>10</v>
+      </c>
+      <c r="X447">
+        <v>46.1</v>
+      </c>
+      <c r="Y447">
+        <v>11</v>
+      </c>
+      <c r="Z447">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AA447">
+        <v>10</v>
+      </c>
+      <c r="AB447">
+        <v>37.6</v>
+      </c>
+      <c r="AC447">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>52</v>
+      </c>
+      <c r="B448" t="s">
+        <v>33</v>
+      </c>
+      <c r="C448">
+        <v>5</v>
+      </c>
+      <c r="D448" t="s">
+        <v>29</v>
+      </c>
+      <c r="E448">
+        <v>98.2</v>
+      </c>
+      <c r="F448">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G448">
+        <v>42.2</v>
+      </c>
+      <c r="H448">
+        <v>98</v>
+      </c>
+      <c r="I448">
+        <v>98.6</v>
+      </c>
+      <c r="J448">
+        <v>77.8</v>
+      </c>
+      <c r="K448">
+        <v>46</v>
+      </c>
+      <c r="L448">
+        <v>86.4</v>
+      </c>
+      <c r="M448">
+        <v>24</v>
+      </c>
+      <c r="N448">
+        <v>90.1</v>
+      </c>
+      <c r="O448">
+        <v>17</v>
+      </c>
+      <c r="P448">
+        <v>88.5</v>
+      </c>
+      <c r="Q448">
+        <v>13</v>
+      </c>
+      <c r="T448">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="U448">
+        <v>28</v>
+      </c>
+      <c r="V448">
+        <v>32.6</v>
+      </c>
+      <c r="W448">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>52</v>
+      </c>
+      <c r="B449" t="s">
+        <v>33</v>
+      </c>
+      <c r="C449">
+        <v>5</v>
+      </c>
+      <c r="D449" t="s">
+        <v>30</v>
+      </c>
+      <c r="E449">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F449">
+        <v>71.5</v>
+      </c>
+      <c r="G449">
+        <v>70.2</v>
+      </c>
+      <c r="H449">
+        <v>100</v>
+      </c>
+      <c r="I449">
+        <v>98.5</v>
+      </c>
+      <c r="J449">
+        <v>83.1</v>
+      </c>
+      <c r="K449">
+        <v>23</v>
+      </c>
+      <c r="L449">
+        <v>91.6</v>
+      </c>
+      <c r="M449">
+        <v>12</v>
+      </c>
+      <c r="N449">
+        <v>93.3</v>
+      </c>
+      <c r="O449">
+        <v>10</v>
+      </c>
+      <c r="P449">
+        <v>91.1</v>
+      </c>
+      <c r="Q449">
+        <v>10</v>
+      </c>
+      <c r="R449">
+        <v>87.2</v>
+      </c>
+      <c r="S449">
+        <v>14</v>
+      </c>
+      <c r="T449">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="U449">
+        <v>21</v>
+      </c>
+      <c r="V449">
+        <v>32.6</v>
+      </c>
+      <c r="W449">
+        <v>40</v>
+      </c>
+      <c r="X449">
+        <v>31.3</v>
+      </c>
+      <c r="Y449">
+        <v>30</v>
+      </c>
+      <c r="Z449">
+        <v>26.6</v>
+      </c>
+      <c r="AA449">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>52</v>
+      </c>
+      <c r="B450" t="s">
+        <v>33</v>
+      </c>
+      <c r="C450">
+        <v>15</v>
+      </c>
+      <c r="D450" t="s">
+        <v>26</v>
+      </c>
+      <c r="E450">
+        <v>85.3</v>
+      </c>
+      <c r="F450">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G450">
+        <v>81.7</v>
+      </c>
+      <c r="H450">
+        <v>93.1</v>
+      </c>
+      <c r="I450">
+        <v>82.4</v>
+      </c>
+      <c r="J450">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="K450">
+        <v>76</v>
+      </c>
+      <c r="L450">
+        <v>78.3</v>
+      </c>
+      <c r="M450">
+        <v>33</v>
+      </c>
+      <c r="N450">
+        <v>83.3</v>
+      </c>
+      <c r="O450">
+        <v>13</v>
+      </c>
+      <c r="P450">
+        <v>88.7</v>
+      </c>
+      <c r="Q450">
+        <v>12</v>
+      </c>
+      <c r="R450">
+        <v>90.4</v>
+      </c>
+      <c r="S450">
+        <v>11</v>
+      </c>
+      <c r="T450">
+        <v>42.1</v>
+      </c>
+      <c r="U450">
+        <v>12</v>
+      </c>
+      <c r="V450">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="W450">
+        <v>10</v>
+      </c>
+      <c r="X450">
+        <v>30.9</v>
+      </c>
+      <c r="Y450">
+        <v>10</v>
+      </c>
+      <c r="Z450">
+        <v>26.2</v>
+      </c>
+      <c r="AA450">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>52</v>
+      </c>
+      <c r="B451" t="s">
+        <v>33</v>
+      </c>
+      <c r="C451">
+        <v>15</v>
+      </c>
+      <c r="D451" t="s">
+        <v>29</v>
+      </c>
+      <c r="E451">
+        <v>99.9</v>
+      </c>
+      <c r="F451">
+        <v>69.5</v>
+      </c>
+      <c r="G451">
+        <v>52.9</v>
+      </c>
+      <c r="H451">
+        <v>100</v>
+      </c>
+      <c r="I451">
+        <v>99.9</v>
+      </c>
+      <c r="J451">
+        <v>73.2</v>
+      </c>
+      <c r="K451">
+        <v>71</v>
+      </c>
+      <c r="L451">
+        <v>84.6</v>
+      </c>
+      <c r="M451">
+        <v>25</v>
+      </c>
+      <c r="N451">
+        <v>88.3</v>
+      </c>
+      <c r="O451">
+        <v>21</v>
+      </c>
+      <c r="P451">
+        <v>86.2</v>
+      </c>
+      <c r="Q451">
+        <v>14</v>
+      </c>
+      <c r="T451">
+        <v>40.4</v>
+      </c>
+      <c r="U451">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>52</v>
+      </c>
+      <c r="B452" t="s">
+        <v>33</v>
+      </c>
+      <c r="C452">
+        <v>15</v>
+      </c>
+      <c r="D452" t="s">
+        <v>30</v>
+      </c>
+      <c r="E452">
+        <v>99.3</v>
+      </c>
+      <c r="F452">
+        <v>71.5</v>
+      </c>
+      <c r="G452">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="H452">
+        <v>100</v>
+      </c>
+      <c r="I452">
+        <v>99.5</v>
+      </c>
+      <c r="J452">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="K452">
+        <v>30</v>
+      </c>
+      <c r="L452">
+        <v>86.8</v>
+      </c>
+      <c r="M452">
+        <v>13</v>
+      </c>
+      <c r="N452">
+        <v>79.3</v>
+      </c>
+      <c r="O452">
+        <v>17</v>
+      </c>
+      <c r="P452">
+        <v>89</v>
+      </c>
+      <c r="Q452">
+        <v>10</v>
+      </c>
+      <c r="R452">
+        <v>84.4</v>
+      </c>
+      <c r="S452">
+        <v>10</v>
+      </c>
+      <c r="T452">
+        <v>34.9</v>
+      </c>
+      <c r="U452">
+        <v>19</v>
+      </c>
+      <c r="V452">
+        <v>35.5</v>
+      </c>
+      <c r="W452">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>52</v>
+      </c>
+      <c r="B453" t="s">
+        <v>33</v>
+      </c>
+      <c r="C453">
+        <v>25</v>
+      </c>
+      <c r="D453" t="s">
+        <v>26</v>
+      </c>
+      <c r="E453">
+        <v>92</v>
+      </c>
+      <c r="F453">
+        <v>70.5</v>
+      </c>
+      <c r="G453">
+        <v>89.6</v>
+      </c>
+      <c r="H453">
+        <v>94.1</v>
+      </c>
+      <c r="I453">
+        <v>91.4</v>
+      </c>
+      <c r="J453">
+        <v>74.2</v>
+      </c>
+      <c r="K453">
+        <v>65</v>
+      </c>
+      <c r="L453">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M453">
+        <v>45</v>
+      </c>
+      <c r="N453">
+        <v>80.8</v>
+      </c>
+      <c r="O453">
+        <v>19</v>
+      </c>
+      <c r="P453">
+        <v>86.7</v>
+      </c>
+      <c r="Q453">
+        <v>13</v>
+      </c>
+      <c r="R453">
+        <v>90.4</v>
+      </c>
+      <c r="S453">
+        <v>11</v>
+      </c>
+      <c r="T453">
+        <v>40.5</v>
+      </c>
+      <c r="U453">
+        <v>10</v>
+      </c>
+      <c r="V453">
+        <v>41.8</v>
+      </c>
+      <c r="W453">
+        <v>12</v>
+      </c>
+      <c r="X453">
+        <v>40.6</v>
+      </c>
+      <c r="Y453">
+        <v>13</v>
+      </c>
+      <c r="Z453">
+        <v>43.4</v>
+      </c>
+      <c r="AA453">
+        <v>13</v>
+      </c>
+      <c r="AB453">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AC453">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>52</v>
+      </c>
+      <c r="B454" t="s">
+        <v>33</v>
+      </c>
+      <c r="C454">
+        <v>25</v>
+      </c>
+      <c r="D454" t="s">
+        <v>29</v>
+      </c>
+      <c r="E454">
+        <v>100</v>
+      </c>
+      <c r="F454">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G454">
+        <v>45.8</v>
+      </c>
+      <c r="H454">
+        <v>100</v>
+      </c>
+      <c r="I454">
+        <v>100</v>
+      </c>
+      <c r="J454">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K454">
+        <v>74</v>
+      </c>
+      <c r="L454">
+        <v>84.2</v>
+      </c>
+      <c r="M454">
+        <v>26</v>
+      </c>
+      <c r="N454">
+        <v>88.5</v>
+      </c>
+      <c r="O454">
+        <v>20</v>
+      </c>
+      <c r="P454">
+        <v>89.3</v>
+      </c>
+      <c r="Q454">
+        <v>10</v>
+      </c>
+      <c r="T454">
+        <v>38.5</v>
+      </c>
+      <c r="U454">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>52</v>
+      </c>
+      <c r="B455" t="s">
+        <v>33</v>
+      </c>
+      <c r="C455">
+        <v>25</v>
+      </c>
+      <c r="D455" t="s">
+        <v>30</v>
+      </c>
+      <c r="E455">
+        <v>100</v>
+      </c>
+      <c r="F455">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G455">
+        <v>84.5</v>
+      </c>
+      <c r="H455">
+        <v>100</v>
+      </c>
+      <c r="I455">
+        <v>100</v>
+      </c>
+      <c r="J455">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="K455">
+        <v>37</v>
+      </c>
+      <c r="L455">
+        <v>84.4</v>
+      </c>
+      <c r="M455">
+        <v>11</v>
+      </c>
+      <c r="N455">
+        <v>80.8</v>
+      </c>
+      <c r="O455">
+        <v>46</v>
+      </c>
+      <c r="P455">
+        <v>86.1</v>
+      </c>
+      <c r="Q455">
+        <v>24</v>
+      </c>
+      <c r="R455">
+        <v>87.4</v>
+      </c>
+      <c r="S455">
+        <v>12</v>
+      </c>
+      <c r="T455">
+        <v>43.8</v>
+      </c>
+      <c r="U455">
+        <v>14</v>
+      </c>
+      <c r="V455">
+        <v>40</v>
+      </c>
+      <c r="W455">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>52</v>
+      </c>
+      <c r="B456" t="s">
+        <v>34</v>
+      </c>
+      <c r="C456">
+        <v>5</v>
+      </c>
+      <c r="D456" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>52</v>
+      </c>
+      <c r="B457" t="s">
+        <v>34</v>
+      </c>
+      <c r="C457">
+        <v>5</v>
+      </c>
+      <c r="D457" t="s">
+        <v>29</v>
+      </c>
+      <c r="E457">
+        <v>97.4</v>
+      </c>
+      <c r="F457">
+        <v>62.5</v>
+      </c>
+      <c r="G457">
+        <v>42.5</v>
+      </c>
+      <c r="H457">
+        <v>97.8</v>
+      </c>
+      <c r="I457">
+        <v>97.1</v>
+      </c>
+      <c r="J457">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K457">
+        <v>51</v>
+      </c>
+      <c r="L457">
+        <v>87.5</v>
+      </c>
+      <c r="M457">
+        <v>28</v>
+      </c>
+      <c r="N457">
+        <v>89.3</v>
+      </c>
+      <c r="O457">
+        <v>17</v>
+      </c>
+      <c r="P457">
+        <v>90.9</v>
+      </c>
+      <c r="Q457">
+        <v>10</v>
+      </c>
+      <c r="T457">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="U457">
+        <v>42</v>
+      </c>
+      <c r="V457">
+        <v>44.7</v>
+      </c>
+      <c r="W457">
+        <v>23</v>
+      </c>
+      <c r="X457">
+        <v>49.4</v>
+      </c>
+      <c r="Y457">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>52</v>
+      </c>
+      <c r="B458" t="s">
+        <v>34</v>
+      </c>
+      <c r="C458">
+        <v>5</v>
+      </c>
+      <c r="D458" t="s">
+        <v>30</v>
+      </c>
+      <c r="E458">
+        <v>74</v>
+      </c>
+      <c r="F458">
+        <v>71</v>
+      </c>
+      <c r="G458">
+        <v>24.5</v>
+      </c>
+      <c r="H458">
+        <v>99.5</v>
+      </c>
+      <c r="I458">
+        <v>99.1</v>
+      </c>
+      <c r="J458">
+        <v>82.7</v>
+      </c>
+      <c r="K458">
+        <v>23</v>
+      </c>
+      <c r="L458">
+        <v>86.8</v>
+      </c>
+      <c r="M458">
+        <v>13</v>
+      </c>
+      <c r="N458">
+        <v>87.7</v>
+      </c>
+      <c r="O458">
+        <v>16</v>
+      </c>
+      <c r="P458">
+        <v>80.8</v>
+      </c>
+      <c r="Q458">
+        <v>10</v>
+      </c>
+      <c r="T458">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U458">
+        <v>49</v>
+      </c>
+      <c r="V458">
+        <v>40.5</v>
+      </c>
+      <c r="W458">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>52</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C459" s="3">
+        <v>15</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E459">
+        <v>99.9</v>
+      </c>
+      <c r="F459">
+        <v>69.5</v>
+      </c>
+      <c r="G459">
+        <v>97.2</v>
+      </c>
+      <c r="H459">
+        <v>99.8</v>
+      </c>
+      <c r="I459">
+        <v>99.9</v>
+      </c>
+      <c r="J459">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K459">
+        <v>63</v>
+      </c>
+      <c r="L459">
+        <v>77.2</v>
+      </c>
+      <c r="M459">
+        <v>62</v>
+      </c>
+      <c r="N459">
+        <v>78</v>
+      </c>
+      <c r="O459">
+        <v>47</v>
+      </c>
+      <c r="P459">
+        <v>80.3</v>
+      </c>
+      <c r="Q459">
+        <v>30</v>
+      </c>
+      <c r="R459">
+        <v>82.7</v>
+      </c>
+      <c r="S459">
+        <v>10</v>
+      </c>
+      <c r="T459">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="U459">
+        <v>37</v>
+      </c>
+      <c r="V459">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="W459">
+        <v>37</v>
+      </c>
+      <c r="X459">
+        <v>38.9</v>
+      </c>
+      <c r="Y459">
+        <v>14</v>
+      </c>
+      <c r="Z459">
+        <v>41.2</v>
+      </c>
+      <c r="AA459">
+        <v>13</v>
+      </c>
+      <c r="AB459">
+        <v>41.4</v>
+      </c>
+      <c r="AC459">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>52</v>
+      </c>
+      <c r="B460" t="s">
+        <v>34</v>
+      </c>
+      <c r="C460">
+        <v>15</v>
+      </c>
+      <c r="D460" t="s">
+        <v>29</v>
+      </c>
+      <c r="E460">
+        <v>100</v>
+      </c>
+      <c r="F460">
+        <v>59.8</v>
+      </c>
+      <c r="G460">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H460">
+        <v>100</v>
+      </c>
+      <c r="I460">
+        <v>100</v>
+      </c>
+      <c r="J460">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K460">
+        <v>49</v>
+      </c>
+      <c r="L460">
+        <v>85.3</v>
+      </c>
+      <c r="M460">
+        <v>27</v>
+      </c>
+      <c r="N460">
+        <v>89.6</v>
+      </c>
+      <c r="O460">
+        <v>16</v>
+      </c>
+      <c r="T460">
+        <v>33.6</v>
+      </c>
+      <c r="U460">
+        <v>36</v>
+      </c>
+      <c r="V460">
+        <v>40.1</v>
+      </c>
+      <c r="W460">
+        <v>22</v>
+      </c>
+      <c r="X460">
+        <v>40.4</v>
+      </c>
+      <c r="Y460">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>52</v>
+      </c>
+      <c r="B461" t="s">
+        <v>34</v>
+      </c>
+      <c r="C461">
+        <v>15</v>
+      </c>
+      <c r="D461" t="s">
+        <v>30</v>
+      </c>
+      <c r="E461">
+        <v>100</v>
+      </c>
+      <c r="F461">
+        <v>71.5</v>
+      </c>
+      <c r="G461">
+        <v>83.5</v>
+      </c>
+      <c r="H461">
+        <v>100</v>
+      </c>
+      <c r="I461">
+        <v>100</v>
+      </c>
+      <c r="J461">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K461">
+        <v>56</v>
+      </c>
+      <c r="L461">
+        <v>77</v>
+      </c>
+      <c r="M461">
+        <v>47</v>
+      </c>
+      <c r="N461">
+        <v>79.7</v>
+      </c>
+      <c r="O461">
+        <v>29</v>
+      </c>
+      <c r="P461">
+        <v>80</v>
+      </c>
+      <c r="Q461">
+        <v>20</v>
+      </c>
+      <c r="R461">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S461">
+        <v>13</v>
+      </c>
+      <c r="T461">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="U461">
+        <v>14</v>
+      </c>
+      <c r="V461">
+        <v>33.9</v>
+      </c>
+      <c r="W461">
+        <v>24</v>
+      </c>
+      <c r="X461">
+        <v>36</v>
+      </c>
+      <c r="Y461">
+        <v>17</v>
+      </c>
+      <c r="Z461">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA461">
+        <v>11</v>
+      </c>
+      <c r="AB461">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AC461">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>52</v>
+      </c>
+      <c r="B462" t="s">
+        <v>34</v>
+      </c>
+      <c r="C462">
+        <v>25</v>
+      </c>
+      <c r="D462" t="s">
+        <v>26</v>
+      </c>
+      <c r="E462">
+        <v>100</v>
+      </c>
+      <c r="F462">
+        <v>62.9</v>
+      </c>
+      <c r="G462">
+        <v>99.6</v>
+      </c>
+      <c r="H462">
+        <v>100</v>
+      </c>
+      <c r="I462">
+        <v>100</v>
+      </c>
+      <c r="J462">
+        <v>90.5</v>
+      </c>
+      <c r="K462">
+        <v>12</v>
+      </c>
+      <c r="L462">
+        <v>88.9</v>
+      </c>
+      <c r="M462">
+        <v>10</v>
+      </c>
+      <c r="N462">
+        <v>85.7</v>
+      </c>
+      <c r="O462">
+        <v>10</v>
+      </c>
+      <c r="P462">
+        <v>82.8</v>
+      </c>
+      <c r="Q462">
+        <v>17</v>
+      </c>
+      <c r="R462">
+        <v>88.5</v>
+      </c>
+      <c r="S462">
+        <v>12</v>
+      </c>
+      <c r="T462">
+        <v>32.4</v>
+      </c>
+      <c r="U462">
+        <v>48</v>
+      </c>
+      <c r="V462">
+        <v>33.5</v>
+      </c>
+      <c r="W462">
+        <v>44</v>
+      </c>
+      <c r="X462">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Y462">
+        <v>40</v>
+      </c>
+      <c r="Z462">
+        <v>39</v>
+      </c>
+      <c r="AA462">
+        <v>21</v>
+      </c>
+      <c r="AB462">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AC462">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>52</v>
+      </c>
+      <c r="B463" t="s">
+        <v>34</v>
+      </c>
+      <c r="C463">
+        <v>25</v>
+      </c>
+      <c r="D463" t="s">
+        <v>29</v>
+      </c>
+      <c r="E463">
+        <v>100</v>
+      </c>
+      <c r="F463">
+        <v>60.7</v>
+      </c>
+      <c r="G463">
+        <v>31.8</v>
+      </c>
+      <c r="H463">
+        <v>100</v>
+      </c>
+      <c r="I463">
+        <v>100</v>
+      </c>
+      <c r="J463">
+        <v>83.1</v>
+      </c>
+      <c r="K463">
+        <v>34</v>
+      </c>
+      <c r="L463">
+        <v>85.9</v>
+      </c>
+      <c r="M463">
+        <v>23</v>
+      </c>
+      <c r="N463">
+        <v>88.9</v>
+      </c>
+      <c r="O463">
+        <v>16</v>
+      </c>
+      <c r="T463">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U463">
+        <v>41</v>
+      </c>
+      <c r="V463">
+        <v>40.1</v>
+      </c>
+      <c r="W463">
+        <v>19</v>
+      </c>
+      <c r="X463">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Y463">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>52</v>
+      </c>
+      <c r="B464" t="s">
+        <v>34</v>
+      </c>
+      <c r="C464">
+        <v>25</v>
+      </c>
+      <c r="D464" t="s">
+        <v>30</v>
+      </c>
+      <c r="E464">
+        <v>100</v>
+      </c>
+      <c r="F464">
+        <v>71.5</v>
+      </c>
+      <c r="G464">
+        <v>98.4</v>
+      </c>
+      <c r="H464">
+        <v>100</v>
+      </c>
+      <c r="I464">
+        <v>100</v>
+      </c>
+      <c r="J464">
+        <v>88.8</v>
+      </c>
+      <c r="K464">
+        <v>18</v>
+      </c>
+      <c r="L464">
+        <v>90.9</v>
+      </c>
+      <c r="M464">
+        <v>14</v>
+      </c>
+      <c r="N464">
+        <v>88.6</v>
+      </c>
+      <c r="O464">
+        <v>10</v>
+      </c>
+      <c r="P464">
+        <v>81</v>
+      </c>
+      <c r="Q464">
+        <v>10</v>
+      </c>
+      <c r="R464">
+        <v>78.7</v>
+      </c>
+      <c r="S464">
+        <v>21</v>
+      </c>
+      <c r="T464">
+        <v>34.5</v>
+      </c>
+      <c r="U464">
+        <v>56</v>
+      </c>
+      <c r="V464">
+        <v>35.9</v>
+      </c>
+      <c r="W464">
+        <v>33</v>
+      </c>
+      <c r="X464">
+        <v>36.9</v>
+      </c>
+      <c r="Y464">
+        <v>32</v>
+      </c>
+      <c r="Z464">
+        <v>39.5</v>
+      </c>
+      <c r="AA464">
+        <v>16</v>
+      </c>
+      <c r="AB464">
+        <v>40.4</v>
+      </c>
+      <c r="AC464">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>53</v>
+      </c>
+      <c r="B465" t="s">
+        <v>28</v>
+      </c>
+      <c r="C465">
+        <v>5</v>
+      </c>
+      <c r="D465" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>53</v>
+      </c>
+      <c r="B466" t="s">
+        <v>28</v>
+      </c>
+      <c r="C466">
+        <v>5</v>
+      </c>
+      <c r="D466" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>53</v>
+      </c>
+      <c r="B467" t="s">
+        <v>28</v>
+      </c>
+      <c r="C467">
+        <v>5</v>
+      </c>
+      <c r="D467" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>53</v>
+      </c>
+      <c r="B468" t="s">
+        <v>28</v>
+      </c>
+      <c r="C468">
+        <v>15</v>
+      </c>
+      <c r="D468" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>53</v>
+      </c>
+      <c r="B469" t="s">
+        <v>28</v>
+      </c>
+      <c r="C469">
+        <v>15</v>
+      </c>
+      <c r="D469" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>53</v>
+      </c>
+      <c r="B470" t="s">
+        <v>28</v>
+      </c>
+      <c r="C470">
+        <v>15</v>
+      </c>
+      <c r="D470" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>53</v>
+      </c>
+      <c r="B471" t="s">
+        <v>28</v>
+      </c>
+      <c r="C471">
+        <v>25</v>
+      </c>
+      <c r="D471" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>53</v>
+      </c>
+      <c r="B472" t="s">
+        <v>28</v>
+      </c>
+      <c r="C472">
+        <v>25</v>
+      </c>
+      <c r="D472" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>53</v>
+      </c>
+      <c r="B473" t="s">
+        <v>28</v>
+      </c>
+      <c r="C473">
+        <v>25</v>
+      </c>
+      <c r="D473" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>53</v>
+      </c>
+      <c r="B474" t="s">
+        <v>33</v>
+      </c>
+      <c r="C474">
+        <v>5</v>
+      </c>
+      <c r="D474" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>53</v>
+      </c>
+      <c r="B475" t="s">
+        <v>33</v>
+      </c>
+      <c r="C475">
+        <v>5</v>
+      </c>
+      <c r="D475" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>53</v>
+      </c>
+      <c r="B476" t="s">
+        <v>33</v>
+      </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+      <c r="D476" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>53</v>
+      </c>
+      <c r="B477" t="s">
+        <v>33</v>
+      </c>
+      <c r="C477">
+        <v>15</v>
+      </c>
+      <c r="D477" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>53</v>
+      </c>
+      <c r="B478" t="s">
+        <v>33</v>
+      </c>
+      <c r="C478">
+        <v>15</v>
+      </c>
+      <c r="D478" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>53</v>
+      </c>
+      <c r="B479" t="s">
+        <v>33</v>
+      </c>
+      <c r="C479">
+        <v>15</v>
+      </c>
+      <c r="D479" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>53</v>
+      </c>
+      <c r="B480" t="s">
+        <v>33</v>
+      </c>
+      <c r="C480">
+        <v>25</v>
+      </c>
+      <c r="D480" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>53</v>
+      </c>
+      <c r="B481" t="s">
+        <v>33</v>
+      </c>
+      <c r="C481">
+        <v>25</v>
+      </c>
+      <c r="D481" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>53</v>
+      </c>
+      <c r="B482" t="s">
+        <v>33</v>
+      </c>
+      <c r="C482">
+        <v>25</v>
+      </c>
+      <c r="D482" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>53</v>
+      </c>
+      <c r="B483" t="s">
+        <v>34</v>
+      </c>
+      <c r="C483">
+        <v>5</v>
+      </c>
+      <c r="D483" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>53</v>
+      </c>
+      <c r="B484" t="s">
+        <v>34</v>
+      </c>
+      <c r="C484">
+        <v>5</v>
+      </c>
+      <c r="D484" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>53</v>
+      </c>
+      <c r="B485" t="s">
+        <v>34</v>
+      </c>
+      <c r="C485">
+        <v>5</v>
+      </c>
+      <c r="D485" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>53</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C486" s="3">
+        <v>15</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>53</v>
+      </c>
+      <c r="B487" t="s">
+        <v>34</v>
+      </c>
+      <c r="C487">
+        <v>15</v>
+      </c>
+      <c r="D487" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>53</v>
+      </c>
+      <c r="B488" t="s">
+        <v>34</v>
+      </c>
+      <c r="C488">
+        <v>15</v>
+      </c>
+      <c r="D488" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>53</v>
+      </c>
+      <c r="B489" t="s">
+        <v>34</v>
+      </c>
+      <c r="C489">
+        <v>25</v>
+      </c>
+      <c r="D489" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>53</v>
+      </c>
+      <c r="B490" t="s">
+        <v>34</v>
+      </c>
+      <c r="C490">
+        <v>25</v>
+      </c>
+      <c r="D490" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>53</v>
+      </c>
+      <c r="B491" t="s">
+        <v>34</v>
+      </c>
+      <c r="C491">
+        <v>25</v>
+      </c>
+      <c r="D491" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>53</v>
+      </c>
+      <c r="B492" t="s">
+        <v>25</v>
+      </c>
+      <c r="D492" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>53</v>
+      </c>
+      <c r="B493" t="s">
+        <v>25</v>
+      </c>
+      <c r="D493" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>53</v>
+      </c>
+      <c r="B494" t="s">
+        <v>25</v>
+      </c>
+      <c r="D494" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB616706-C958-4084-897A-ACADFE3178DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B1EA3-0303-4AE2-AE14-049D566BCCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="55">
   <si>
     <t>Te_cal</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>test12</t>
+  </si>
+  <si>
+    <t>test12_5</t>
   </si>
   <si>
     <t>test13</t>
@@ -590,13 +593,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC494"/>
+  <dimension ref="A1:AC521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E454" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E465" sqref="E465"/>
+      <selection pane="bottomRight" activeCell="S499" sqref="S499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34541,7 +34544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>53</v>
       </c>
@@ -34554,8 +34557,83 @@
       <c r="D465" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465">
+        <v>100</v>
+      </c>
+      <c r="F465">
+        <v>67</v>
+      </c>
+      <c r="G465">
+        <v>99</v>
+      </c>
+      <c r="H465">
+        <v>99.9</v>
+      </c>
+      <c r="I465">
+        <v>100</v>
+      </c>
+      <c r="J465">
+        <v>81.7</v>
+      </c>
+      <c r="K465">
+        <v>15</v>
+      </c>
+      <c r="L465">
+        <v>90.5</v>
+      </c>
+      <c r="M465">
+        <v>5</v>
+      </c>
+      <c r="N465">
+        <v>83.7</v>
+      </c>
+      <c r="O465">
+        <v>6</v>
+      </c>
+      <c r="P465">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Q465">
+        <v>5</v>
+      </c>
+      <c r="R465">
+        <v>79.8</v>
+      </c>
+      <c r="S465">
+        <v>26</v>
+      </c>
+      <c r="T465">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="U465">
+        <v>16</v>
+      </c>
+      <c r="V465">
+        <v>45.9</v>
+      </c>
+      <c r="W465">
+        <v>5</v>
+      </c>
+      <c r="X465">
+        <v>39.1</v>
+      </c>
+      <c r="Y465">
+        <v>8</v>
+      </c>
+      <c r="Z465">
+        <v>38.9</v>
+      </c>
+      <c r="AA465">
+        <v>7</v>
+      </c>
+      <c r="AB465">
+        <v>41.3</v>
+      </c>
+      <c r="AC465">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>53</v>
       </c>
@@ -34568,8 +34646,71 @@
       <c r="D466" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466">
+        <v>99.4</v>
+      </c>
+      <c r="F466">
+        <v>68.2</v>
+      </c>
+      <c r="G466">
+        <v>41.8</v>
+      </c>
+      <c r="H466">
+        <v>99.1</v>
+      </c>
+      <c r="I466">
+        <v>99.6</v>
+      </c>
+      <c r="J466">
+        <v>74</v>
+      </c>
+      <c r="K466">
+        <v>78</v>
+      </c>
+      <c r="L466">
+        <v>77.8</v>
+      </c>
+      <c r="M466">
+        <v>23</v>
+      </c>
+      <c r="N466">
+        <v>85.7</v>
+      </c>
+      <c r="O466">
+        <v>7</v>
+      </c>
+      <c r="P466">
+        <v>85.7</v>
+      </c>
+      <c r="Q466">
+        <v>5</v>
+      </c>
+      <c r="R466">
+        <v>91.1</v>
+      </c>
+      <c r="S466">
+        <v>6</v>
+      </c>
+      <c r="T466">
+        <v>37.6</v>
+      </c>
+      <c r="U466">
+        <v>22</v>
+      </c>
+      <c r="V466">
+        <v>24</v>
+      </c>
+      <c r="W466">
+        <v>26</v>
+      </c>
+      <c r="X466">
+        <v>14.9</v>
+      </c>
+      <c r="Y466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>53</v>
       </c>
@@ -34582,8 +34723,83 @@
       <c r="D467" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467">
+        <v>90.9</v>
+      </c>
+      <c r="F467">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G467">
+        <v>94.4</v>
+      </c>
+      <c r="H467">
+        <v>99.8</v>
+      </c>
+      <c r="I467">
+        <v>100</v>
+      </c>
+      <c r="J467">
+        <v>97.6</v>
+      </c>
+      <c r="K467">
+        <v>5</v>
+      </c>
+      <c r="L467">
+        <v>84.1</v>
+      </c>
+      <c r="M467">
+        <v>9</v>
+      </c>
+      <c r="N467">
+        <v>86.4</v>
+      </c>
+      <c r="O467">
+        <v>7</v>
+      </c>
+      <c r="P467">
+        <v>82.7</v>
+      </c>
+      <c r="Q467">
+        <v>10</v>
+      </c>
+      <c r="R467">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="S467">
+        <v>7</v>
+      </c>
+      <c r="T467">
+        <v>38.6</v>
+      </c>
+      <c r="U467">
+        <v>14</v>
+      </c>
+      <c r="V467">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="W467">
+        <v>6</v>
+      </c>
+      <c r="X467">
+        <v>41</v>
+      </c>
+      <c r="Y467">
+        <v>5</v>
+      </c>
+      <c r="Z467">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AA467">
+        <v>21</v>
+      </c>
+      <c r="AB467">
+        <v>34.1</v>
+      </c>
+      <c r="AC467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>53</v>
       </c>
@@ -34596,8 +34812,83 @@
       <c r="D468" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468">
+        <v>100</v>
+      </c>
+      <c r="F468">
+        <v>71.7</v>
+      </c>
+      <c r="G468">
+        <v>100</v>
+      </c>
+      <c r="H468">
+        <v>100</v>
+      </c>
+      <c r="I468">
+        <v>100</v>
+      </c>
+      <c r="J468">
+        <v>77.7</v>
+      </c>
+      <c r="K468">
+        <v>47</v>
+      </c>
+      <c r="L468">
+        <v>77.3</v>
+      </c>
+      <c r="M468">
+        <v>34</v>
+      </c>
+      <c r="N468">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="O468">
+        <v>63</v>
+      </c>
+      <c r="P468">
+        <v>76.5</v>
+      </c>
+      <c r="Q468">
+        <v>39</v>
+      </c>
+      <c r="R468">
+        <v>77</v>
+      </c>
+      <c r="S468">
+        <v>15</v>
+      </c>
+      <c r="T468">
+        <v>52.5</v>
+      </c>
+      <c r="U468">
+        <v>5</v>
+      </c>
+      <c r="V468">
+        <v>40</v>
+      </c>
+      <c r="W468">
+        <v>7</v>
+      </c>
+      <c r="X468">
+        <v>50</v>
+      </c>
+      <c r="Y468">
+        <v>5</v>
+      </c>
+      <c r="Z468">
+        <v>39</v>
+      </c>
+      <c r="AA468">
+        <v>7</v>
+      </c>
+      <c r="AB468">
+        <v>43.6</v>
+      </c>
+      <c r="AC468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>53</v>
       </c>
@@ -34610,8 +34901,53 @@
       <c r="D469" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469">
+        <v>100</v>
+      </c>
+      <c r="F469">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G469">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H469">
+        <v>100</v>
+      </c>
+      <c r="I469">
+        <v>100</v>
+      </c>
+      <c r="J469">
+        <v>72</v>
+      </c>
+      <c r="K469">
+        <v>97</v>
+      </c>
+      <c r="L469">
+        <v>72.8</v>
+      </c>
+      <c r="M469">
+        <v>75</v>
+      </c>
+      <c r="N469">
+        <v>82.5</v>
+      </c>
+      <c r="O469">
+        <v>5</v>
+      </c>
+      <c r="P469">
+        <v>79.7</v>
+      </c>
+      <c r="Q469">
+        <v>8</v>
+      </c>
+      <c r="R469">
+        <v>72.2</v>
+      </c>
+      <c r="S469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>53</v>
       </c>
@@ -34624,8 +34960,71 @@
       <c r="D470" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470">
+        <v>100</v>
+      </c>
+      <c r="F470">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G470">
+        <v>98.5</v>
+      </c>
+      <c r="H470">
+        <v>100</v>
+      </c>
+      <c r="I470">
+        <v>100</v>
+      </c>
+      <c r="J470">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K470">
+        <v>63</v>
+      </c>
+      <c r="L470">
+        <v>84.8</v>
+      </c>
+      <c r="M470">
+        <v>12</v>
+      </c>
+      <c r="N470">
+        <v>82</v>
+      </c>
+      <c r="O470">
+        <v>8</v>
+      </c>
+      <c r="P470">
+        <v>84.1</v>
+      </c>
+      <c r="Q470">
+        <v>14</v>
+      </c>
+      <c r="R470">
+        <v>85</v>
+      </c>
+      <c r="S470">
+        <v>8</v>
+      </c>
+      <c r="T470">
+        <v>44.1</v>
+      </c>
+      <c r="U470">
+        <v>15</v>
+      </c>
+      <c r="V470">
+        <v>53.7</v>
+      </c>
+      <c r="W470">
+        <v>5</v>
+      </c>
+      <c r="X470">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>53</v>
       </c>
@@ -34638,8 +35037,83 @@
       <c r="D471" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471">
+        <v>100</v>
+      </c>
+      <c r="F471">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G471">
+        <v>100</v>
+      </c>
+      <c r="H471">
+        <v>100</v>
+      </c>
+      <c r="I471">
+        <v>100</v>
+      </c>
+      <c r="J471">
+        <v>72.8</v>
+      </c>
+      <c r="K471">
+        <v>92</v>
+      </c>
+      <c r="L471">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M471">
+        <v>91</v>
+      </c>
+      <c r="N471">
+        <v>72.7</v>
+      </c>
+      <c r="O471">
+        <v>90</v>
+      </c>
+      <c r="P471">
+        <v>72.8</v>
+      </c>
+      <c r="Q471">
+        <v>65</v>
+      </c>
+      <c r="R471">
+        <v>73.2</v>
+      </c>
+      <c r="S471">
+        <v>59</v>
+      </c>
+      <c r="T471">
+        <v>42.4</v>
+      </c>
+      <c r="U471">
+        <v>8</v>
+      </c>
+      <c r="V471">
+        <v>44.1</v>
+      </c>
+      <c r="W471">
+        <v>7</v>
+      </c>
+      <c r="X471">
+        <v>44.8</v>
+      </c>
+      <c r="Y471">
+        <v>7</v>
+      </c>
+      <c r="Z471">
+        <v>48</v>
+      </c>
+      <c r="AA471">
+        <v>6</v>
+      </c>
+      <c r="AB471">
+        <v>48.6</v>
+      </c>
+      <c r="AC471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -34652,8 +35126,53 @@
       <c r="D472" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472">
+        <v>100</v>
+      </c>
+      <c r="F472">
+        <v>72</v>
+      </c>
+      <c r="G472">
+        <v>80.2</v>
+      </c>
+      <c r="H472">
+        <v>100</v>
+      </c>
+      <c r="I472">
+        <v>100</v>
+      </c>
+      <c r="J472">
+        <v>72</v>
+      </c>
+      <c r="K472">
+        <v>99</v>
+      </c>
+      <c r="L472">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M472">
+        <v>56</v>
+      </c>
+      <c r="N472">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="O472">
+        <v>9</v>
+      </c>
+      <c r="P472">
+        <v>81.2</v>
+      </c>
+      <c r="Q472">
+        <v>15</v>
+      </c>
+      <c r="R472">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="S472">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>53</v>
       </c>
@@ -34666,8 +35185,71 @@
       <c r="D473" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473">
+        <v>100</v>
+      </c>
+      <c r="F473">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G473">
+        <v>99.2</v>
+      </c>
+      <c r="H473">
+        <v>100</v>
+      </c>
+      <c r="I473">
+        <v>100</v>
+      </c>
+      <c r="J473">
+        <v>82.5</v>
+      </c>
+      <c r="K473">
+        <v>5</v>
+      </c>
+      <c r="L473">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="M473">
+        <v>52</v>
+      </c>
+      <c r="N473">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="O473">
+        <v>12</v>
+      </c>
+      <c r="P473">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="Q473">
+        <v>9</v>
+      </c>
+      <c r="R473">
+        <v>83</v>
+      </c>
+      <c r="S473">
+        <v>12</v>
+      </c>
+      <c r="T473">
+        <v>49</v>
+      </c>
+      <c r="U473">
+        <v>6</v>
+      </c>
+      <c r="V473">
+        <v>54.5</v>
+      </c>
+      <c r="W473">
+        <v>6</v>
+      </c>
+      <c r="X473">
+        <v>27</v>
+      </c>
+      <c r="Y473">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>53</v>
       </c>
@@ -34680,8 +35262,83 @@
       <c r="D474" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474">
+        <v>83.3</v>
+      </c>
+      <c r="F474">
+        <v>71.5</v>
+      </c>
+      <c r="G474">
+        <v>89.2</v>
+      </c>
+      <c r="H474">
+        <v>80.8</v>
+      </c>
+      <c r="I474">
+        <v>85.9</v>
+      </c>
+      <c r="J474">
+        <v>80</v>
+      </c>
+      <c r="K474">
+        <v>39</v>
+      </c>
+      <c r="L474">
+        <v>90.8</v>
+      </c>
+      <c r="M474">
+        <v>12</v>
+      </c>
+      <c r="N474">
+        <v>93.8</v>
+      </c>
+      <c r="O474">
+        <v>8</v>
+      </c>
+      <c r="P474">
+        <v>97.8</v>
+      </c>
+      <c r="Q474">
+        <v>6</v>
+      </c>
+      <c r="R474">
+        <v>95.3</v>
+      </c>
+      <c r="S474">
+        <v>5</v>
+      </c>
+      <c r="T474">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="U474">
+        <v>15</v>
+      </c>
+      <c r="V474">
+        <v>48.9</v>
+      </c>
+      <c r="W474">
+        <v>6</v>
+      </c>
+      <c r="X474">
+        <v>51.1</v>
+      </c>
+      <c r="Y474">
+        <v>6</v>
+      </c>
+      <c r="Z474">
+        <v>46.3</v>
+      </c>
+      <c r="AA474">
+        <v>5</v>
+      </c>
+      <c r="AB474">
+        <v>37.6</v>
+      </c>
+      <c r="AC474">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>53</v>
       </c>
@@ -34694,8 +35351,71 @@
       <c r="D475" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475">
+        <v>98.2</v>
+      </c>
+      <c r="F475">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G475">
+        <v>42.2</v>
+      </c>
+      <c r="H475">
+        <v>98</v>
+      </c>
+      <c r="I475">
+        <v>98.6</v>
+      </c>
+      <c r="J475">
+        <v>77.8</v>
+      </c>
+      <c r="K475">
+        <v>46</v>
+      </c>
+      <c r="L475">
+        <v>86.4</v>
+      </c>
+      <c r="M475">
+        <v>24</v>
+      </c>
+      <c r="N475">
+        <v>90.1</v>
+      </c>
+      <c r="O475">
+        <v>17</v>
+      </c>
+      <c r="P475">
+        <v>88.5</v>
+      </c>
+      <c r="Q475">
+        <v>13</v>
+      </c>
+      <c r="R475">
+        <v>91.1</v>
+      </c>
+      <c r="S475">
+        <v>7</v>
+      </c>
+      <c r="T475">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="U475">
+        <v>28</v>
+      </c>
+      <c r="V475">
+        <v>44.9</v>
+      </c>
+      <c r="W475">
+        <v>9</v>
+      </c>
+      <c r="X475">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Y475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>53</v>
       </c>
@@ -34708,8 +35428,77 @@
       <c r="D476" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F476">
+        <v>71.5</v>
+      </c>
+      <c r="G476">
+        <v>70.2</v>
+      </c>
+      <c r="H476">
+        <v>100</v>
+      </c>
+      <c r="I476">
+        <v>98.5</v>
+      </c>
+      <c r="J476">
+        <v>83.1</v>
+      </c>
+      <c r="K476">
+        <v>23</v>
+      </c>
+      <c r="L476">
+        <v>93.4</v>
+      </c>
+      <c r="M476">
+        <v>8</v>
+      </c>
+      <c r="N476">
+        <v>93.3</v>
+      </c>
+      <c r="O476">
+        <v>10</v>
+      </c>
+      <c r="P476">
+        <v>94.9</v>
+      </c>
+      <c r="Q476">
+        <v>5</v>
+      </c>
+      <c r="R476">
+        <v>92.9</v>
+      </c>
+      <c r="S476">
+        <v>5</v>
+      </c>
+      <c r="T476">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="U476">
+        <v>21</v>
+      </c>
+      <c r="V476">
+        <v>43.5</v>
+      </c>
+      <c r="W476">
+        <v>6</v>
+      </c>
+      <c r="X476">
+        <v>31.3</v>
+      </c>
+      <c r="Y476">
+        <v>30</v>
+      </c>
+      <c r="Z476">
+        <v>26.6</v>
+      </c>
+      <c r="AA476">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>53</v>
       </c>
@@ -34722,8 +35511,77 @@
       <c r="D477" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477">
+        <v>85.3</v>
+      </c>
+      <c r="F477">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G477">
+        <v>81.7</v>
+      </c>
+      <c r="H477">
+        <v>93.1</v>
+      </c>
+      <c r="I477">
+        <v>82.4</v>
+      </c>
+      <c r="J477">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="K477">
+        <v>76</v>
+      </c>
+      <c r="L477">
+        <v>78.3</v>
+      </c>
+      <c r="M477">
+        <v>33</v>
+      </c>
+      <c r="N477">
+        <v>83.3</v>
+      </c>
+      <c r="O477">
+        <v>13</v>
+      </c>
+      <c r="P477">
+        <v>90.7</v>
+      </c>
+      <c r="Q477">
+        <v>7</v>
+      </c>
+      <c r="R477">
+        <v>97.4</v>
+      </c>
+      <c r="S477">
+        <v>5</v>
+      </c>
+      <c r="T477">
+        <v>42.1</v>
+      </c>
+      <c r="U477">
+        <v>12</v>
+      </c>
+      <c r="V477">
+        <v>38.9</v>
+      </c>
+      <c r="W477">
+        <v>7</v>
+      </c>
+      <c r="X477">
+        <v>35.6</v>
+      </c>
+      <c r="Y477">
+        <v>6</v>
+      </c>
+      <c r="Z477">
+        <v>30.6</v>
+      </c>
+      <c r="AA477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>53</v>
       </c>
@@ -34736,8 +35594,53 @@
       <c r="D478" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478">
+        <v>99.9</v>
+      </c>
+      <c r="F478">
+        <v>69.5</v>
+      </c>
+      <c r="G478">
+        <v>52.9</v>
+      </c>
+      <c r="H478">
+        <v>100</v>
+      </c>
+      <c r="I478">
+        <v>99.9</v>
+      </c>
+      <c r="J478">
+        <v>73.2</v>
+      </c>
+      <c r="K478">
+        <v>71</v>
+      </c>
+      <c r="L478">
+        <v>84.6</v>
+      </c>
+      <c r="M478">
+        <v>25</v>
+      </c>
+      <c r="N478">
+        <v>88.3</v>
+      </c>
+      <c r="O478">
+        <v>21</v>
+      </c>
+      <c r="P478">
+        <v>87.3</v>
+      </c>
+      <c r="Q478">
+        <v>8</v>
+      </c>
+      <c r="T478">
+        <v>40.4</v>
+      </c>
+      <c r="U478">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>53</v>
       </c>
@@ -34750,8 +35653,71 @@
       <c r="D479" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479">
+        <v>99.3</v>
+      </c>
+      <c r="F479">
+        <v>71.5</v>
+      </c>
+      <c r="G479">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="H479">
+        <v>100</v>
+      </c>
+      <c r="I479">
+        <v>99.5</v>
+      </c>
+      <c r="J479">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="K479">
+        <v>30</v>
+      </c>
+      <c r="L479">
+        <v>92.1</v>
+      </c>
+      <c r="M479">
+        <v>5</v>
+      </c>
+      <c r="N479">
+        <v>87.9</v>
+      </c>
+      <c r="O479">
+        <v>7</v>
+      </c>
+      <c r="P479">
+        <v>92.5</v>
+      </c>
+      <c r="Q479">
+        <v>5</v>
+      </c>
+      <c r="R479">
+        <v>92.3</v>
+      </c>
+      <c r="S479">
+        <v>5</v>
+      </c>
+      <c r="T479">
+        <v>43.2</v>
+      </c>
+      <c r="U479">
+        <v>5</v>
+      </c>
+      <c r="V479">
+        <v>35.5</v>
+      </c>
+      <c r="W479">
+        <v>14</v>
+      </c>
+      <c r="X479">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>53</v>
       </c>
@@ -34764,8 +35730,83 @@
       <c r="D480" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480">
+        <v>92</v>
+      </c>
+      <c r="F480">
+        <v>70.5</v>
+      </c>
+      <c r="G480">
+        <v>89.6</v>
+      </c>
+      <c r="H480">
+        <v>94.1</v>
+      </c>
+      <c r="I480">
+        <v>91.4</v>
+      </c>
+      <c r="J480">
+        <v>74.2</v>
+      </c>
+      <c r="K480">
+        <v>65</v>
+      </c>
+      <c r="L480">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M480">
+        <v>45</v>
+      </c>
+      <c r="N480">
+        <v>80.8</v>
+      </c>
+      <c r="O480">
+        <v>19</v>
+      </c>
+      <c r="P480">
+        <v>89.5</v>
+      </c>
+      <c r="Q480">
+        <v>5</v>
+      </c>
+      <c r="R480">
+        <v>90.4</v>
+      </c>
+      <c r="S480">
+        <v>11</v>
+      </c>
+      <c r="T480">
+        <v>42.9</v>
+      </c>
+      <c r="U480">
+        <v>8</v>
+      </c>
+      <c r="V480">
+        <v>51.2</v>
+      </c>
+      <c r="W480">
+        <v>5</v>
+      </c>
+      <c r="X480">
+        <v>48.9</v>
+      </c>
+      <c r="Y480">
+        <v>6</v>
+      </c>
+      <c r="Z480">
+        <v>54.1</v>
+      </c>
+      <c r="AA480">
+        <v>5</v>
+      </c>
+      <c r="AB480">
+        <v>50</v>
+      </c>
+      <c r="AC480">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>53</v>
       </c>
@@ -34778,8 +35819,53 @@
       <c r="D481" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481">
+        <v>100</v>
+      </c>
+      <c r="F481">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G481">
+        <v>45.8</v>
+      </c>
+      <c r="H481">
+        <v>100</v>
+      </c>
+      <c r="I481">
+        <v>100</v>
+      </c>
+      <c r="J481">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K481">
+        <v>74</v>
+      </c>
+      <c r="L481">
+        <v>84.2</v>
+      </c>
+      <c r="M481">
+        <v>26</v>
+      </c>
+      <c r="N481">
+        <v>88.5</v>
+      </c>
+      <c r="O481">
+        <v>20</v>
+      </c>
+      <c r="P481">
+        <v>89.3</v>
+      </c>
+      <c r="Q481">
+        <v>10</v>
+      </c>
+      <c r="T481">
+        <v>46.8</v>
+      </c>
+      <c r="U481">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>53</v>
       </c>
@@ -34792,8 +35878,77 @@
       <c r="D482" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482">
+        <v>100</v>
+      </c>
+      <c r="F482">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G482">
+        <v>84.5</v>
+      </c>
+      <c r="H482">
+        <v>100</v>
+      </c>
+      <c r="I482">
+        <v>100</v>
+      </c>
+      <c r="J482">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="K482">
+        <v>37</v>
+      </c>
+      <c r="L482">
+        <v>84.4</v>
+      </c>
+      <c r="M482">
+        <v>11</v>
+      </c>
+      <c r="N482">
+        <v>87.9</v>
+      </c>
+      <c r="O482">
+        <v>8</v>
+      </c>
+      <c r="P482">
+        <v>86.1</v>
+      </c>
+      <c r="Q482">
+        <v>24</v>
+      </c>
+      <c r="R482">
+        <v>93.5</v>
+      </c>
+      <c r="S482">
+        <v>6</v>
+      </c>
+      <c r="T482">
+        <v>49</v>
+      </c>
+      <c r="U482">
+        <v>6</v>
+      </c>
+      <c r="V482">
+        <v>46.3</v>
+      </c>
+      <c r="W482">
+        <v>5</v>
+      </c>
+      <c r="X482">
+        <v>48.6</v>
+      </c>
+      <c r="Y482">
+        <v>5</v>
+      </c>
+      <c r="Z482">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA482">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>53</v>
       </c>
@@ -34807,7 +35962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>53</v>
       </c>
@@ -34820,8 +35975,65 @@
       <c r="D484" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484">
+        <v>97.4</v>
+      </c>
+      <c r="F484">
+        <v>62.5</v>
+      </c>
+      <c r="G484">
+        <v>42.5</v>
+      </c>
+      <c r="H484">
+        <v>97.8</v>
+      </c>
+      <c r="I484">
+        <v>97.1</v>
+      </c>
+      <c r="J484">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K484">
+        <v>51</v>
+      </c>
+      <c r="L484">
+        <v>87.5</v>
+      </c>
+      <c r="M484">
+        <v>28</v>
+      </c>
+      <c r="N484">
+        <v>89.3</v>
+      </c>
+      <c r="O484">
+        <v>17</v>
+      </c>
+      <c r="P484">
+        <v>97.4</v>
+      </c>
+      <c r="Q484">
+        <v>5</v>
+      </c>
+      <c r="T484">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="U484">
+        <v>42</v>
+      </c>
+      <c r="V484">
+        <v>44.7</v>
+      </c>
+      <c r="W484">
+        <v>23</v>
+      </c>
+      <c r="X484">
+        <v>53.7</v>
+      </c>
+      <c r="Y484">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>53</v>
       </c>
@@ -34834,8 +36046,71 @@
       <c r="D485" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485">
+        <v>74</v>
+      </c>
+      <c r="F485">
+        <v>71</v>
+      </c>
+      <c r="G485">
+        <v>24.5</v>
+      </c>
+      <c r="H485">
+        <v>99.5</v>
+      </c>
+      <c r="I485">
+        <v>99.1</v>
+      </c>
+      <c r="J485">
+        <v>89.2</v>
+      </c>
+      <c r="K485">
+        <v>5</v>
+      </c>
+      <c r="L485">
+        <v>86.8</v>
+      </c>
+      <c r="M485">
+        <v>13</v>
+      </c>
+      <c r="N485">
+        <v>97.4</v>
+      </c>
+      <c r="O485">
+        <v>5</v>
+      </c>
+      <c r="P485">
+        <v>89.2</v>
+      </c>
+      <c r="Q485">
+        <v>8</v>
+      </c>
+      <c r="R485">
+        <v>86.8</v>
+      </c>
+      <c r="S485">
+        <v>5</v>
+      </c>
+      <c r="T485">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U485">
+        <v>49</v>
+      </c>
+      <c r="V485">
+        <v>40.5</v>
+      </c>
+      <c r="W485">
+        <v>20</v>
+      </c>
+      <c r="X485">
+        <v>51.1</v>
+      </c>
+      <c r="Y485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>53</v>
       </c>
@@ -34848,8 +36123,83 @@
       <c r="D486" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486">
+        <v>99.9</v>
+      </c>
+      <c r="F486">
+        <v>69.5</v>
+      </c>
+      <c r="G486">
+        <v>97.2</v>
+      </c>
+      <c r="H486">
+        <v>99.8</v>
+      </c>
+      <c r="I486">
+        <v>99.9</v>
+      </c>
+      <c r="J486">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K486">
+        <v>63</v>
+      </c>
+      <c r="L486">
+        <v>77.2</v>
+      </c>
+      <c r="M486">
+        <v>62</v>
+      </c>
+      <c r="N486">
+        <v>78</v>
+      </c>
+      <c r="O486">
+        <v>47</v>
+      </c>
+      <c r="P486">
+        <v>80.3</v>
+      </c>
+      <c r="Q486">
+        <v>30</v>
+      </c>
+      <c r="R486">
+        <v>82.7</v>
+      </c>
+      <c r="S486">
+        <v>10</v>
+      </c>
+      <c r="T486">
+        <v>38.4</v>
+      </c>
+      <c r="U486">
+        <v>9</v>
+      </c>
+      <c r="V486">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="W486">
+        <v>37</v>
+      </c>
+      <c r="X486">
+        <v>42.6</v>
+      </c>
+      <c r="Y486">
+        <v>7</v>
+      </c>
+      <c r="Z486">
+        <v>41.2</v>
+      </c>
+      <c r="AA486">
+        <v>13</v>
+      </c>
+      <c r="AB486">
+        <v>52.4</v>
+      </c>
+      <c r="AC486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>53</v>
       </c>
@@ -34862,8 +36212,65 @@
       <c r="D487" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487">
+        <v>100</v>
+      </c>
+      <c r="F487">
+        <v>59.8</v>
+      </c>
+      <c r="G487">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H487">
+        <v>100</v>
+      </c>
+      <c r="I487">
+        <v>100</v>
+      </c>
+      <c r="J487">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K487">
+        <v>49</v>
+      </c>
+      <c r="L487">
+        <v>85.3</v>
+      </c>
+      <c r="M487">
+        <v>27</v>
+      </c>
+      <c r="N487">
+        <v>89.6</v>
+      </c>
+      <c r="O487">
+        <v>16</v>
+      </c>
+      <c r="P487">
+        <v>91.7</v>
+      </c>
+      <c r="Q487">
+        <v>8</v>
+      </c>
+      <c r="T487">
+        <v>33.6</v>
+      </c>
+      <c r="U487">
+        <v>36</v>
+      </c>
+      <c r="V487">
+        <v>40.1</v>
+      </c>
+      <c r="W487">
+        <v>22</v>
+      </c>
+      <c r="X487">
+        <v>40.4</v>
+      </c>
+      <c r="Y487">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>53</v>
       </c>
@@ -34876,8 +36283,83 @@
       <c r="D488" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488">
+        <v>100</v>
+      </c>
+      <c r="F488">
+        <v>71.5</v>
+      </c>
+      <c r="G488">
+        <v>83.5</v>
+      </c>
+      <c r="H488">
+        <v>100</v>
+      </c>
+      <c r="I488">
+        <v>100</v>
+      </c>
+      <c r="J488">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K488">
+        <v>56</v>
+      </c>
+      <c r="L488">
+        <v>77</v>
+      </c>
+      <c r="M488">
+        <v>47</v>
+      </c>
+      <c r="N488">
+        <v>91.8</v>
+      </c>
+      <c r="O488">
+        <v>6</v>
+      </c>
+      <c r="P488">
+        <v>86.1</v>
+      </c>
+      <c r="Q488">
+        <v>5</v>
+      </c>
+      <c r="R488">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S488">
+        <v>13</v>
+      </c>
+      <c r="T488">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="U488">
+        <v>14</v>
+      </c>
+      <c r="V488">
+        <v>41.3</v>
+      </c>
+      <c r="W488">
+        <v>6</v>
+      </c>
+      <c r="X488">
+        <v>40.5</v>
+      </c>
+      <c r="Y488">
+        <v>5</v>
+      </c>
+      <c r="Z488">
+        <v>41.3</v>
+      </c>
+      <c r="AA488">
+        <v>8</v>
+      </c>
+      <c r="AB488">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AC488">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>53</v>
       </c>
@@ -34890,8 +36372,83 @@
       <c r="D489" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489">
+        <v>100</v>
+      </c>
+      <c r="F489">
+        <v>62.9</v>
+      </c>
+      <c r="G489">
+        <v>99.6</v>
+      </c>
+      <c r="H489">
+        <v>100</v>
+      </c>
+      <c r="I489">
+        <v>100</v>
+      </c>
+      <c r="J489">
+        <v>90.5</v>
+      </c>
+      <c r="K489">
+        <v>12</v>
+      </c>
+      <c r="L489">
+        <v>92.9</v>
+      </c>
+      <c r="M489">
+        <v>5</v>
+      </c>
+      <c r="N489">
+        <v>90.9</v>
+      </c>
+      <c r="O489">
+        <v>6</v>
+      </c>
+      <c r="P489">
+        <v>91.7</v>
+      </c>
+      <c r="Q489">
+        <v>5</v>
+      </c>
+      <c r="R489">
+        <v>93.3</v>
+      </c>
+      <c r="S489">
+        <v>6</v>
+      </c>
+      <c r="T489">
+        <v>32.4</v>
+      </c>
+      <c r="U489">
+        <v>48</v>
+      </c>
+      <c r="V489">
+        <v>33.5</v>
+      </c>
+      <c r="W489">
+        <v>44</v>
+      </c>
+      <c r="X489">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Y489">
+        <v>40</v>
+      </c>
+      <c r="Z489">
+        <v>39</v>
+      </c>
+      <c r="AA489">
+        <v>21</v>
+      </c>
+      <c r="AB489">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AC489">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>53</v>
       </c>
@@ -34904,8 +36461,65 @@
       <c r="D490" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490">
+        <v>100</v>
+      </c>
+      <c r="F490">
+        <v>60.7</v>
+      </c>
+      <c r="G490">
+        <v>31.8</v>
+      </c>
+      <c r="H490">
+        <v>100</v>
+      </c>
+      <c r="I490">
+        <v>100</v>
+      </c>
+      <c r="J490">
+        <v>83.1</v>
+      </c>
+      <c r="K490">
+        <v>34</v>
+      </c>
+      <c r="L490">
+        <v>85.9</v>
+      </c>
+      <c r="M490">
+        <v>23</v>
+      </c>
+      <c r="N490">
+        <v>88.9</v>
+      </c>
+      <c r="O490">
+        <v>16</v>
+      </c>
+      <c r="P490">
+        <v>95.1</v>
+      </c>
+      <c r="Q490">
+        <v>5</v>
+      </c>
+      <c r="T490">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U490">
+        <v>41</v>
+      </c>
+      <c r="V490">
+        <v>40.1</v>
+      </c>
+      <c r="W490">
+        <v>19</v>
+      </c>
+      <c r="X490">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Y490">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>53</v>
       </c>
@@ -34918,10 +36532,85 @@
       <c r="D491" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491">
+        <v>100</v>
+      </c>
+      <c r="F491">
+        <v>71.5</v>
+      </c>
+      <c r="G491">
+        <v>98.4</v>
+      </c>
+      <c r="H491">
+        <v>100</v>
+      </c>
+      <c r="I491">
+        <v>100</v>
+      </c>
+      <c r="J491">
+        <v>97.8</v>
+      </c>
+      <c r="K491">
+        <v>6</v>
+      </c>
+      <c r="L491">
+        <v>97.6</v>
+      </c>
+      <c r="M491">
+        <v>5</v>
+      </c>
+      <c r="N491">
+        <v>97.4</v>
+      </c>
+      <c r="O491">
+        <v>5</v>
+      </c>
+      <c r="P491">
+        <v>97.3</v>
+      </c>
+      <c r="Q491">
+        <v>5</v>
+      </c>
+      <c r="R491">
+        <v>97.4</v>
+      </c>
+      <c r="S491">
+        <v>5</v>
+      </c>
+      <c r="T491">
+        <v>34.5</v>
+      </c>
+      <c r="U491">
+        <v>56</v>
+      </c>
+      <c r="V491">
+        <v>36.4</v>
+      </c>
+      <c r="W491">
+        <v>8</v>
+      </c>
+      <c r="X491">
+        <v>36.9</v>
+      </c>
+      <c r="Y491">
+        <v>32</v>
+      </c>
+      <c r="Z491">
+        <v>39.5</v>
+      </c>
+      <c r="AA491">
+        <v>16</v>
+      </c>
+      <c r="AB491">
+        <v>40.4</v>
+      </c>
+      <c r="AC491">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B492" t="s">
         <v>25</v>
@@ -34929,10 +36618,85 @@
       <c r="D492" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E492">
+        <v>100</v>
+      </c>
+      <c r="F492">
+        <v>60.6</v>
+      </c>
+      <c r="G492">
+        <v>100</v>
+      </c>
+      <c r="H492">
+        <v>100</v>
+      </c>
+      <c r="I492">
+        <v>100</v>
+      </c>
+      <c r="J492">
+        <v>95</v>
+      </c>
+      <c r="K492">
+        <v>5</v>
+      </c>
+      <c r="L492">
+        <v>96.6</v>
+      </c>
+      <c r="M492">
+        <v>7</v>
+      </c>
+      <c r="N492">
+        <v>100</v>
+      </c>
+      <c r="O492">
+        <v>6</v>
+      </c>
+      <c r="P492">
+        <v>97.4</v>
+      </c>
+      <c r="Q492">
+        <v>5</v>
+      </c>
+      <c r="R492">
+        <v>97.4</v>
+      </c>
+      <c r="S492">
+        <v>5</v>
+      </c>
+      <c r="T492">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="U492">
+        <v>33</v>
+      </c>
+      <c r="V492">
+        <v>33</v>
+      </c>
+      <c r="W492">
+        <v>49</v>
+      </c>
+      <c r="X492">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Y492">
+        <v>52</v>
+      </c>
+      <c r="Z492">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AA492">
+        <v>50</v>
+      </c>
+      <c r="AB492">
+        <v>34.1</v>
+      </c>
+      <c r="AC492">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B493" t="s">
         <v>25</v>
@@ -34940,16 +36704,2257 @@
       <c r="D493" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E493">
+        <v>100</v>
+      </c>
+      <c r="F493">
+        <v>62</v>
+      </c>
+      <c r="G493">
+        <v>11.3</v>
+      </c>
+      <c r="H493">
+        <v>100</v>
+      </c>
+      <c r="I493">
+        <v>100</v>
+      </c>
+      <c r="J493">
+        <v>82.8</v>
+      </c>
+      <c r="K493">
+        <v>41</v>
+      </c>
+      <c r="L493">
+        <v>94.6</v>
+      </c>
+      <c r="M493">
+        <v>5</v>
+      </c>
+      <c r="N493">
+        <v>92.5</v>
+      </c>
+      <c r="O493">
+        <v>7</v>
+      </c>
+      <c r="T493">
+        <v>36.9</v>
+      </c>
+      <c r="U493">
+        <v>54</v>
+      </c>
+      <c r="V493">
+        <v>45.8</v>
+      </c>
+      <c r="W493">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B494" t="s">
         <v>25</v>
       </c>
       <c r="D494" t="s">
         <v>30</v>
+      </c>
+      <c r="E494">
+        <v>100</v>
+      </c>
+      <c r="F494">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G494">
+        <v>96.1</v>
+      </c>
+      <c r="H494">
+        <v>100</v>
+      </c>
+      <c r="I494">
+        <v>100</v>
+      </c>
+      <c r="J494">
+        <v>87.2</v>
+      </c>
+      <c r="K494">
+        <v>5</v>
+      </c>
+      <c r="L494">
+        <v>86.3</v>
+      </c>
+      <c r="M494">
+        <v>6</v>
+      </c>
+      <c r="N494">
+        <v>87.5</v>
+      </c>
+      <c r="O494">
+        <v>5</v>
+      </c>
+      <c r="P494">
+        <v>86.8</v>
+      </c>
+      <c r="Q494">
+        <v>5</v>
+      </c>
+      <c r="R494">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="S494">
+        <v>5</v>
+      </c>
+      <c r="T494">
+        <v>48.8</v>
+      </c>
+      <c r="U494">
+        <v>5</v>
+      </c>
+      <c r="V494">
+        <v>46.8</v>
+      </c>
+      <c r="W494">
+        <v>8</v>
+      </c>
+      <c r="X494">
+        <v>55.8</v>
+      </c>
+      <c r="Y494">
+        <v>5</v>
+      </c>
+      <c r="Z494">
+        <v>51.8</v>
+      </c>
+      <c r="AA494">
+        <v>7</v>
+      </c>
+      <c r="AB494">
+        <v>38.6</v>
+      </c>
+      <c r="AC494">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>54</v>
+      </c>
+      <c r="B495" t="s">
+        <v>28</v>
+      </c>
+      <c r="C495">
+        <v>5</v>
+      </c>
+      <c r="D495" t="s">
+        <v>26</v>
+      </c>
+      <c r="E495">
+        <v>95.4</v>
+      </c>
+      <c r="F495">
+        <v>63.5</v>
+      </c>
+      <c r="G495">
+        <v>96.8</v>
+      </c>
+      <c r="H495">
+        <v>95.3</v>
+      </c>
+      <c r="I495">
+        <v>95.6</v>
+      </c>
+      <c r="J495">
+        <v>84.2</v>
+      </c>
+      <c r="K495">
+        <v>21</v>
+      </c>
+      <c r="L495">
+        <v>94.6</v>
+      </c>
+      <c r="M495">
+        <v>5</v>
+      </c>
+      <c r="N495">
+        <v>87.3</v>
+      </c>
+      <c r="O495">
+        <v>8</v>
+      </c>
+      <c r="P495">
+        <v>88.9</v>
+      </c>
+      <c r="Q495">
+        <v>6</v>
+      </c>
+      <c r="R495">
+        <v>86.6</v>
+      </c>
+      <c r="S495">
+        <v>8</v>
+      </c>
+      <c r="T495">
+        <v>35.6</v>
+      </c>
+      <c r="U495">
+        <v>28</v>
+      </c>
+      <c r="V495">
+        <v>37</v>
+      </c>
+      <c r="W495">
+        <v>6</v>
+      </c>
+      <c r="X495">
+        <v>37.1</v>
+      </c>
+      <c r="Y495">
+        <v>9</v>
+      </c>
+      <c r="Z495">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AA495">
+        <v>16</v>
+      </c>
+      <c r="AB495">
+        <v>44.7</v>
+      </c>
+      <c r="AC495">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>54</v>
+      </c>
+      <c r="B496" t="s">
+        <v>28</v>
+      </c>
+      <c r="C496">
+        <v>5</v>
+      </c>
+      <c r="D496" t="s">
+        <v>29</v>
+      </c>
+      <c r="E496">
+        <v>100</v>
+      </c>
+      <c r="F496">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G496">
+        <v>30.2</v>
+      </c>
+      <c r="H496">
+        <v>100</v>
+      </c>
+      <c r="I496">
+        <v>100</v>
+      </c>
+      <c r="J496">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="K496">
+        <v>51</v>
+      </c>
+      <c r="L496">
+        <v>72.8</v>
+      </c>
+      <c r="M496">
+        <v>28</v>
+      </c>
+      <c r="N496">
+        <v>81.2</v>
+      </c>
+      <c r="O496">
+        <v>13</v>
+      </c>
+      <c r="T496">
+        <v>29.2</v>
+      </c>
+      <c r="U496">
+        <v>49</v>
+      </c>
+      <c r="V496">
+        <v>25.3</v>
+      </c>
+      <c r="W496">
+        <v>31</v>
+      </c>
+      <c r="X496">
+        <v>14.7</v>
+      </c>
+      <c r="Y496">
+        <v>16</v>
+      </c>
+      <c r="Z496">
+        <v>12.5</v>
+      </c>
+      <c r="AA496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>54</v>
+      </c>
+      <c r="B497" t="s">
+        <v>28</v>
+      </c>
+      <c r="C497">
+        <v>5</v>
+      </c>
+      <c r="D497" t="s">
+        <v>30</v>
+      </c>
+      <c r="E497">
+        <v>90.6</v>
+      </c>
+      <c r="F497">
+        <v>71.5</v>
+      </c>
+      <c r="G497">
+        <v>63.9</v>
+      </c>
+      <c r="H497">
+        <v>100</v>
+      </c>
+      <c r="I497">
+        <v>100</v>
+      </c>
+      <c r="J497">
+        <v>86</v>
+      </c>
+      <c r="K497">
+        <v>6</v>
+      </c>
+      <c r="L497">
+        <v>86.9</v>
+      </c>
+      <c r="M497">
+        <v>8</v>
+      </c>
+      <c r="N497">
+        <v>69.7</v>
+      </c>
+      <c r="O497">
+        <v>8</v>
+      </c>
+      <c r="P497">
+        <v>72.2</v>
+      </c>
+      <c r="Q497">
+        <v>14</v>
+      </c>
+      <c r="R497">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="S497">
+        <v>19</v>
+      </c>
+      <c r="T497">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U497">
+        <v>28</v>
+      </c>
+      <c r="V497">
+        <v>38</v>
+      </c>
+      <c r="W497">
+        <v>14</v>
+      </c>
+      <c r="X497">
+        <v>41.4</v>
+      </c>
+      <c r="Y497">
+        <v>9</v>
+      </c>
+      <c r="Z497">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AA497">
+        <v>9</v>
+      </c>
+      <c r="AB497">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AC497">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>54</v>
+      </c>
+      <c r="B498" t="s">
+        <v>28</v>
+      </c>
+      <c r="C498">
+        <v>15</v>
+      </c>
+      <c r="D498" t="s">
+        <v>26</v>
+      </c>
+      <c r="E498">
+        <v>100</v>
+      </c>
+      <c r="F498">
+        <v>70.3</v>
+      </c>
+      <c r="G498">
+        <v>99.9</v>
+      </c>
+      <c r="H498">
+        <v>100</v>
+      </c>
+      <c r="I498">
+        <v>100</v>
+      </c>
+      <c r="J498">
+        <v>74.5</v>
+      </c>
+      <c r="K498">
+        <v>63</v>
+      </c>
+      <c r="L498">
+        <v>74.3</v>
+      </c>
+      <c r="M498">
+        <v>50</v>
+      </c>
+      <c r="N498">
+        <v>74.7</v>
+      </c>
+      <c r="O498">
+        <v>48</v>
+      </c>
+      <c r="P498">
+        <v>74.5</v>
+      </c>
+      <c r="Q498">
+        <v>46</v>
+      </c>
+      <c r="R498">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="S498">
+        <v>29</v>
+      </c>
+      <c r="T498">
+        <v>42.1</v>
+      </c>
+      <c r="U498">
+        <v>7</v>
+      </c>
+      <c r="V498">
+        <v>45.7</v>
+      </c>
+      <c r="W498">
+        <v>6</v>
+      </c>
+      <c r="X498">
+        <v>40</v>
+      </c>
+      <c r="Y498">
+        <v>6</v>
+      </c>
+      <c r="Z498">
+        <v>38.1</v>
+      </c>
+      <c r="AA498">
+        <v>5</v>
+      </c>
+      <c r="AB498">
+        <v>35.1</v>
+      </c>
+      <c r="AC498">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>54</v>
+      </c>
+      <c r="B499" t="s">
+        <v>28</v>
+      </c>
+      <c r="C499">
+        <v>15</v>
+      </c>
+      <c r="D499" t="s">
+        <v>29</v>
+      </c>
+      <c r="E499">
+        <v>100</v>
+      </c>
+      <c r="F499">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G499">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H499">
+        <v>100</v>
+      </c>
+      <c r="I499">
+        <v>100</v>
+      </c>
+      <c r="J499">
+        <v>71.7</v>
+      </c>
+      <c r="K499">
+        <v>95</v>
+      </c>
+      <c r="L499">
+        <v>72.2</v>
+      </c>
+      <c r="M499">
+        <v>83</v>
+      </c>
+      <c r="N499">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="O499">
+        <v>20</v>
+      </c>
+      <c r="P499">
+        <v>76.8</v>
+      </c>
+      <c r="Q499">
+        <v>9</v>
+      </c>
+      <c r="T499">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="U499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>54</v>
+      </c>
+      <c r="B500" t="s">
+        <v>28</v>
+      </c>
+      <c r="C500">
+        <v>15</v>
+      </c>
+      <c r="D500" t="s">
+        <v>30</v>
+      </c>
+      <c r="E500">
+        <v>100</v>
+      </c>
+      <c r="F500">
+        <v>71.5</v>
+      </c>
+      <c r="G500">
+        <v>82</v>
+      </c>
+      <c r="H500">
+        <v>100</v>
+      </c>
+      <c r="I500">
+        <v>100</v>
+      </c>
+      <c r="J500">
+        <v>82.5</v>
+      </c>
+      <c r="K500">
+        <v>10</v>
+      </c>
+      <c r="L500">
+        <v>75.5</v>
+      </c>
+      <c r="M500">
+        <v>30</v>
+      </c>
+      <c r="N500">
+        <v>93.3</v>
+      </c>
+      <c r="O500">
+        <v>8</v>
+      </c>
+      <c r="P500">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Q500">
+        <v>48</v>
+      </c>
+      <c r="R500">
+        <v>79.3</v>
+      </c>
+      <c r="S500">
+        <v>7</v>
+      </c>
+      <c r="T500">
+        <v>42.9</v>
+      </c>
+      <c r="U500">
+        <v>8</v>
+      </c>
+      <c r="V500">
+        <v>43.3</v>
+      </c>
+      <c r="W500">
+        <v>8</v>
+      </c>
+      <c r="X500">
+        <v>46.7</v>
+      </c>
+      <c r="Y500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>54</v>
+      </c>
+      <c r="B501" t="s">
+        <v>28</v>
+      </c>
+      <c r="C501">
+        <v>25</v>
+      </c>
+      <c r="D501" t="s">
+        <v>26</v>
+      </c>
+      <c r="E501">
+        <v>100</v>
+      </c>
+      <c r="F501">
+        <v>70.5</v>
+      </c>
+      <c r="G501">
+        <v>99.7</v>
+      </c>
+      <c r="H501">
+        <v>100</v>
+      </c>
+      <c r="I501">
+        <v>100</v>
+      </c>
+      <c r="J501">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="K501">
+        <v>72</v>
+      </c>
+      <c r="L501">
+        <v>74.8</v>
+      </c>
+      <c r="M501">
+        <v>72</v>
+      </c>
+      <c r="N501">
+        <v>75</v>
+      </c>
+      <c r="O501">
+        <v>71</v>
+      </c>
+      <c r="P501">
+        <v>75</v>
+      </c>
+      <c r="Q501">
+        <v>71</v>
+      </c>
+      <c r="R501">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="S501">
+        <v>59</v>
+      </c>
+      <c r="T501">
+        <v>43.9</v>
+      </c>
+      <c r="U501">
+        <v>8</v>
+      </c>
+      <c r="V501">
+        <v>45</v>
+      </c>
+      <c r="W501">
+        <v>8</v>
+      </c>
+      <c r="X501">
+        <v>48.1</v>
+      </c>
+      <c r="Y501">
+        <v>7</v>
+      </c>
+      <c r="Z501">
+        <v>51.1</v>
+      </c>
+      <c r="AA501">
+        <v>6</v>
+      </c>
+      <c r="AB501">
+        <v>54.5</v>
+      </c>
+      <c r="AC501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>54</v>
+      </c>
+      <c r="B502" t="s">
+        <v>28</v>
+      </c>
+      <c r="C502">
+        <v>25</v>
+      </c>
+      <c r="D502" t="s">
+        <v>29</v>
+      </c>
+      <c r="E502">
+        <v>100</v>
+      </c>
+      <c r="F502">
+        <v>70</v>
+      </c>
+      <c r="G502">
+        <v>48.2</v>
+      </c>
+      <c r="H502">
+        <v>100</v>
+      </c>
+      <c r="I502">
+        <v>100</v>
+      </c>
+      <c r="J502">
+        <v>71.5</v>
+      </c>
+      <c r="K502">
+        <v>95</v>
+      </c>
+      <c r="L502">
+        <v>77.3</v>
+      </c>
+      <c r="M502">
+        <v>42</v>
+      </c>
+      <c r="N502">
+        <v>91.3</v>
+      </c>
+      <c r="O502">
+        <v>6</v>
+      </c>
+      <c r="T502">
+        <v>28.9</v>
+      </c>
+      <c r="U502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>54</v>
+      </c>
+      <c r="B503" t="s">
+        <v>28</v>
+      </c>
+      <c r="C503">
+        <v>25</v>
+      </c>
+      <c r="D503" t="s">
+        <v>30</v>
+      </c>
+      <c r="E503">
+        <v>100</v>
+      </c>
+      <c r="F503">
+        <v>71.5</v>
+      </c>
+      <c r="G503">
+        <v>76.2</v>
+      </c>
+      <c r="H503">
+        <v>100</v>
+      </c>
+      <c r="I503">
+        <v>100</v>
+      </c>
+      <c r="J503">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K503">
+        <v>78</v>
+      </c>
+      <c r="L503">
+        <v>83.3</v>
+      </c>
+      <c r="M503">
+        <v>19</v>
+      </c>
+      <c r="N503">
+        <v>84.2</v>
+      </c>
+      <c r="O503">
+        <v>7</v>
+      </c>
+      <c r="P503">
+        <v>88.3</v>
+      </c>
+      <c r="Q503">
+        <v>12</v>
+      </c>
+      <c r="R503">
+        <v>73.5</v>
+      </c>
+      <c r="S503">
+        <v>11</v>
+      </c>
+      <c r="T503">
+        <v>48.1</v>
+      </c>
+      <c r="U503">
+        <v>10</v>
+      </c>
+      <c r="V503">
+        <v>52.6</v>
+      </c>
+      <c r="W503">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>54</v>
+      </c>
+      <c r="B504" t="s">
+        <v>33</v>
+      </c>
+      <c r="C504">
+        <v>5</v>
+      </c>
+      <c r="D504" t="s">
+        <v>26</v>
+      </c>
+      <c r="E504">
+        <v>100</v>
+      </c>
+      <c r="F504">
+        <v>71.5</v>
+      </c>
+      <c r="G504">
+        <v>98.4</v>
+      </c>
+      <c r="H504">
+        <v>100</v>
+      </c>
+      <c r="I504">
+        <v>100</v>
+      </c>
+      <c r="J504">
+        <v>75.7</v>
+      </c>
+      <c r="K504">
+        <v>50</v>
+      </c>
+      <c r="L504">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="M504">
+        <v>28</v>
+      </c>
+      <c r="N504">
+        <v>78.3</v>
+      </c>
+      <c r="O504">
+        <v>11</v>
+      </c>
+      <c r="P504">
+        <v>83.3</v>
+      </c>
+      <c r="Q504">
+        <v>12</v>
+      </c>
+      <c r="R504">
+        <v>89.7</v>
+      </c>
+      <c r="S504">
+        <v>5</v>
+      </c>
+      <c r="T504">
+        <v>37.5</v>
+      </c>
+      <c r="U504">
+        <v>14</v>
+      </c>
+      <c r="V504">
+        <v>40</v>
+      </c>
+      <c r="W504">
+        <v>13</v>
+      </c>
+      <c r="X504">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Y504">
+        <v>9</v>
+      </c>
+      <c r="Z504">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AA504">
+        <v>10</v>
+      </c>
+      <c r="AB504">
+        <v>41.8</v>
+      </c>
+      <c r="AC504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>54</v>
+      </c>
+      <c r="B505" t="s">
+        <v>33</v>
+      </c>
+      <c r="C505">
+        <v>5</v>
+      </c>
+      <c r="D505" t="s">
+        <v>29</v>
+      </c>
+      <c r="E505">
+        <v>100</v>
+      </c>
+      <c r="F505">
+        <v>58.7</v>
+      </c>
+      <c r="G505">
+        <v>28.8</v>
+      </c>
+      <c r="H505">
+        <v>100</v>
+      </c>
+      <c r="I505">
+        <v>100</v>
+      </c>
+      <c r="J505">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K505">
+        <v>52</v>
+      </c>
+      <c r="L505">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M505">
+        <v>20</v>
+      </c>
+      <c r="N505">
+        <v>82.5</v>
+      </c>
+      <c r="O505">
+        <v>5</v>
+      </c>
+      <c r="P505">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q505">
+        <v>5</v>
+      </c>
+      <c r="T505">
+        <v>34.9</v>
+      </c>
+      <c r="U505">
+        <v>44</v>
+      </c>
+      <c r="V505">
+        <v>41.7</v>
+      </c>
+      <c r="W505">
+        <v>13</v>
+      </c>
+      <c r="X505">
+        <v>39.5</v>
+      </c>
+      <c r="Y505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>54</v>
+      </c>
+      <c r="B506" t="s">
+        <v>33</v>
+      </c>
+      <c r="C506">
+        <v>5</v>
+      </c>
+      <c r="D506" t="s">
+        <v>30</v>
+      </c>
+      <c r="E506">
+        <v>81.5</v>
+      </c>
+      <c r="F506">
+        <v>71.5</v>
+      </c>
+      <c r="G506">
+        <v>53.7</v>
+      </c>
+      <c r="H506">
+        <v>100</v>
+      </c>
+      <c r="I506">
+        <v>99.2</v>
+      </c>
+      <c r="J506">
+        <v>76</v>
+      </c>
+      <c r="K506">
+        <v>51</v>
+      </c>
+      <c r="L506">
+        <v>85.1</v>
+      </c>
+      <c r="M506">
+        <v>6</v>
+      </c>
+      <c r="N506">
+        <v>83.7</v>
+      </c>
+      <c r="O506">
+        <v>5</v>
+      </c>
+      <c r="P506">
+        <v>64.8</v>
+      </c>
+      <c r="Q506">
+        <v>13</v>
+      </c>
+      <c r="R506">
+        <v>61.5</v>
+      </c>
+      <c r="S506">
+        <v>5</v>
+      </c>
+      <c r="T506">
+        <v>43.2</v>
+      </c>
+      <c r="U506">
+        <v>5</v>
+      </c>
+      <c r="V506">
+        <v>38.9</v>
+      </c>
+      <c r="W506">
+        <v>7</v>
+      </c>
+      <c r="X506">
+        <v>29.7</v>
+      </c>
+      <c r="Y506">
+        <v>8</v>
+      </c>
+      <c r="Z506">
+        <v>29.7</v>
+      </c>
+      <c r="AA506">
+        <v>5</v>
+      </c>
+      <c r="AB506">
+        <v>23</v>
+      </c>
+      <c r="AC506">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>54</v>
+      </c>
+      <c r="B507" t="s">
+        <v>33</v>
+      </c>
+      <c r="C507">
+        <v>15</v>
+      </c>
+      <c r="D507" t="s">
+        <v>26</v>
+      </c>
+      <c r="E507">
+        <v>100</v>
+      </c>
+      <c r="F507">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G507">
+        <v>99.1</v>
+      </c>
+      <c r="H507">
+        <v>100</v>
+      </c>
+      <c r="I507">
+        <v>100</v>
+      </c>
+      <c r="J507">
+        <v>78</v>
+      </c>
+      <c r="K507">
+        <v>24</v>
+      </c>
+      <c r="L507">
+        <v>79.8</v>
+      </c>
+      <c r="M507">
+        <v>23</v>
+      </c>
+      <c r="N507">
+        <v>96.3</v>
+      </c>
+      <c r="O507">
+        <v>10</v>
+      </c>
+      <c r="P507">
+        <v>94.5</v>
+      </c>
+      <c r="Q507">
+        <v>7</v>
+      </c>
+      <c r="R507">
+        <v>86.9</v>
+      </c>
+      <c r="S507">
+        <v>8</v>
+      </c>
+      <c r="T507">
+        <v>34.6</v>
+      </c>
+      <c r="U507">
+        <v>27</v>
+      </c>
+      <c r="V507">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="W507">
+        <v>12</v>
+      </c>
+      <c r="X507">
+        <v>36.5</v>
+      </c>
+      <c r="Y507">
+        <v>8</v>
+      </c>
+      <c r="Z507">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AA507">
+        <v>6</v>
+      </c>
+      <c r="AB507">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AC507">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>54</v>
+      </c>
+      <c r="B508" t="s">
+        <v>33</v>
+      </c>
+      <c r="C508">
+        <v>15</v>
+      </c>
+      <c r="D508" t="s">
+        <v>29</v>
+      </c>
+      <c r="E508">
+        <v>100</v>
+      </c>
+      <c r="F508">
+        <v>59.7</v>
+      </c>
+      <c r="G508">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H508">
+        <v>100</v>
+      </c>
+      <c r="I508">
+        <v>100</v>
+      </c>
+      <c r="J508">
+        <v>81.7</v>
+      </c>
+      <c r="K508">
+        <v>39</v>
+      </c>
+      <c r="L508">
+        <v>87.2</v>
+      </c>
+      <c r="M508">
+        <v>23</v>
+      </c>
+      <c r="N508">
+        <v>91.1</v>
+      </c>
+      <c r="O508">
+        <v>11</v>
+      </c>
+      <c r="T508">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="U508">
+        <v>54</v>
+      </c>
+      <c r="V508">
+        <v>37</v>
+      </c>
+      <c r="W508">
+        <v>23</v>
+      </c>
+      <c r="X508">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Y508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>54</v>
+      </c>
+      <c r="B509" t="s">
+        <v>33</v>
+      </c>
+      <c r="C509">
+        <v>15</v>
+      </c>
+      <c r="D509" t="s">
+        <v>30</v>
+      </c>
+      <c r="E509">
+        <v>99.5</v>
+      </c>
+      <c r="F509">
+        <v>71.5</v>
+      </c>
+      <c r="G509">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="H509">
+        <v>100</v>
+      </c>
+      <c r="I509">
+        <v>99.7</v>
+      </c>
+      <c r="J509">
+        <v>75.8</v>
+      </c>
+      <c r="K509">
+        <v>43</v>
+      </c>
+      <c r="L509">
+        <v>92.2</v>
+      </c>
+      <c r="M509">
+        <v>8</v>
+      </c>
+      <c r="N509">
+        <v>96.1</v>
+      </c>
+      <c r="O509">
+        <v>6</v>
+      </c>
+      <c r="P509">
+        <v>97.6</v>
+      </c>
+      <c r="Q509">
+        <v>5</v>
+      </c>
+      <c r="R509">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="S509">
+        <v>10</v>
+      </c>
+      <c r="T509">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="U509">
+        <v>16</v>
+      </c>
+      <c r="V509">
+        <v>38.5</v>
+      </c>
+      <c r="W509">
+        <v>5</v>
+      </c>
+      <c r="X509">
+        <v>37.5</v>
+      </c>
+      <c r="Y509">
+        <v>5</v>
+      </c>
+      <c r="Z509">
+        <v>41.7</v>
+      </c>
+      <c r="AA509">
+        <v>5</v>
+      </c>
+      <c r="AB509">
+        <v>36.6</v>
+      </c>
+      <c r="AC509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>54</v>
+      </c>
+      <c r="B510" t="s">
+        <v>33</v>
+      </c>
+      <c r="C510">
+        <v>25</v>
+      </c>
+      <c r="D510" t="s">
+        <v>26</v>
+      </c>
+      <c r="E510">
+        <v>100</v>
+      </c>
+      <c r="F510">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G510">
+        <v>99.4</v>
+      </c>
+      <c r="H510">
+        <v>100</v>
+      </c>
+      <c r="I510">
+        <v>100</v>
+      </c>
+      <c r="J510">
+        <v>76.2</v>
+      </c>
+      <c r="K510">
+        <v>63</v>
+      </c>
+      <c r="L510">
+        <v>79.2</v>
+      </c>
+      <c r="M510">
+        <v>26</v>
+      </c>
+      <c r="N510">
+        <v>87.3</v>
+      </c>
+      <c r="O510">
+        <v>10</v>
+      </c>
+      <c r="P510">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q510">
+        <v>23</v>
+      </c>
+      <c r="R510">
+        <v>85.1</v>
+      </c>
+      <c r="S510">
+        <v>8</v>
+      </c>
+      <c r="T510">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="U510">
+        <v>17</v>
+      </c>
+      <c r="V510">
+        <v>43.1</v>
+      </c>
+      <c r="W510">
+        <v>9</v>
+      </c>
+      <c r="X510">
+        <v>47.8</v>
+      </c>
+      <c r="Y510">
+        <v>6</v>
+      </c>
+      <c r="Z510">
+        <v>44.7</v>
+      </c>
+      <c r="AA510">
+        <v>5</v>
+      </c>
+      <c r="AB510">
+        <v>45.2</v>
+      </c>
+      <c r="AC510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>54</v>
+      </c>
+      <c r="B511" t="s">
+        <v>33</v>
+      </c>
+      <c r="C511">
+        <v>25</v>
+      </c>
+      <c r="D511" t="s">
+        <v>29</v>
+      </c>
+      <c r="E511">
+        <v>100</v>
+      </c>
+      <c r="F511">
+        <v>59.9</v>
+      </c>
+      <c r="G511">
+        <v>14.1</v>
+      </c>
+      <c r="H511">
+        <v>100</v>
+      </c>
+      <c r="I511">
+        <v>100</v>
+      </c>
+      <c r="J511">
+        <v>83.4</v>
+      </c>
+      <c r="K511">
+        <v>38</v>
+      </c>
+      <c r="L511">
+        <v>88.5</v>
+      </c>
+      <c r="M511">
+        <v>18</v>
+      </c>
+      <c r="N511">
+        <v>91.9</v>
+      </c>
+      <c r="O511">
+        <v>8</v>
+      </c>
+      <c r="T511">
+        <v>36.6</v>
+      </c>
+      <c r="U511">
+        <v>44</v>
+      </c>
+      <c r="V511">
+        <v>40</v>
+      </c>
+      <c r="W511">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>54</v>
+      </c>
+      <c r="B512" t="s">
+        <v>33</v>
+      </c>
+      <c r="C512">
+        <v>25</v>
+      </c>
+      <c r="D512" t="s">
+        <v>30</v>
+      </c>
+      <c r="E512">
+        <v>100</v>
+      </c>
+      <c r="F512">
+        <v>71.5</v>
+      </c>
+      <c r="G512">
+        <v>66.2</v>
+      </c>
+      <c r="H512">
+        <v>100</v>
+      </c>
+      <c r="I512">
+        <v>100</v>
+      </c>
+      <c r="J512">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K512">
+        <v>29</v>
+      </c>
+      <c r="L512">
+        <v>94.1</v>
+      </c>
+      <c r="M512">
+        <v>9</v>
+      </c>
+      <c r="N512">
+        <v>95.8</v>
+      </c>
+      <c r="O512">
+        <v>6</v>
+      </c>
+      <c r="P512">
+        <v>92.3</v>
+      </c>
+      <c r="Q512">
+        <v>7</v>
+      </c>
+      <c r="R512">
+        <v>85.7</v>
+      </c>
+      <c r="S512">
+        <v>7</v>
+      </c>
+      <c r="T512">
+        <v>40</v>
+      </c>
+      <c r="U512">
+        <v>16</v>
+      </c>
+      <c r="V512">
+        <v>45.2</v>
+      </c>
+      <c r="W512">
+        <v>5</v>
+      </c>
+      <c r="X512">
+        <v>45.5</v>
+      </c>
+      <c r="Y512">
+        <v>7</v>
+      </c>
+      <c r="Z512">
+        <v>45.9</v>
+      </c>
+      <c r="AA512">
+        <v>8</v>
+      </c>
+      <c r="AB512">
+        <v>44.4</v>
+      </c>
+      <c r="AC512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>54</v>
+      </c>
+      <c r="B513" t="s">
+        <v>34</v>
+      </c>
+      <c r="C513">
+        <v>5</v>
+      </c>
+      <c r="D513" t="s">
+        <v>26</v>
+      </c>
+      <c r="E513">
+        <v>99.1</v>
+      </c>
+      <c r="F513">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G513">
+        <v>95.6</v>
+      </c>
+      <c r="H513">
+        <v>98.8</v>
+      </c>
+      <c r="I513">
+        <v>99.4</v>
+      </c>
+      <c r="J513">
+        <v>89.4</v>
+      </c>
+      <c r="K513">
+        <v>18</v>
+      </c>
+      <c r="L513">
+        <v>93.5</v>
+      </c>
+      <c r="M513">
+        <v>8</v>
+      </c>
+      <c r="N513">
+        <v>98.4</v>
+      </c>
+      <c r="O513">
+        <v>8</v>
+      </c>
+      <c r="P513">
+        <v>100</v>
+      </c>
+      <c r="Q513">
+        <v>5</v>
+      </c>
+      <c r="R513">
+        <v>92.9</v>
+      </c>
+      <c r="S513">
+        <v>5</v>
+      </c>
+      <c r="T513">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="U513">
+        <v>35</v>
+      </c>
+      <c r="V513">
+        <v>37</v>
+      </c>
+      <c r="W513">
+        <v>13</v>
+      </c>
+      <c r="X513">
+        <v>44</v>
+      </c>
+      <c r="Y513">
+        <v>6</v>
+      </c>
+      <c r="Z513">
+        <v>36.9</v>
+      </c>
+      <c r="AA513">
+        <v>8</v>
+      </c>
+      <c r="AB513">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AC513">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>54</v>
+      </c>
+      <c r="B514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C514">
+        <v>5</v>
+      </c>
+      <c r="D514" t="s">
+        <v>29</v>
+      </c>
+      <c r="E514">
+        <v>100</v>
+      </c>
+      <c r="F514">
+        <v>62.2</v>
+      </c>
+      <c r="G514">
+        <v>31.3</v>
+      </c>
+      <c r="H514">
+        <v>100</v>
+      </c>
+      <c r="I514">
+        <v>100</v>
+      </c>
+      <c r="J514">
+        <v>81</v>
+      </c>
+      <c r="K514">
+        <v>51</v>
+      </c>
+      <c r="L514">
+        <v>86.9</v>
+      </c>
+      <c r="M514">
+        <v>20</v>
+      </c>
+      <c r="N514">
+        <v>90.2</v>
+      </c>
+      <c r="O514">
+        <v>12</v>
+      </c>
+      <c r="P514">
+        <v>100</v>
+      </c>
+      <c r="Q514">
+        <v>5</v>
+      </c>
+      <c r="T514">
+        <v>38.4</v>
+      </c>
+      <c r="U514">
+        <v>49</v>
+      </c>
+      <c r="V514">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="W514">
+        <v>15</v>
+      </c>
+      <c r="X514">
+        <v>38.1</v>
+      </c>
+      <c r="Y514">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>54</v>
+      </c>
+      <c r="B515" t="s">
+        <v>34</v>
+      </c>
+      <c r="C515">
+        <v>5</v>
+      </c>
+      <c r="D515" t="s">
+        <v>30</v>
+      </c>
+      <c r="E515">
+        <v>70.7</v>
+      </c>
+      <c r="F515">
+        <v>71.5</v>
+      </c>
+      <c r="G515">
+        <v>9.6</v>
+      </c>
+      <c r="H515">
+        <v>100</v>
+      </c>
+      <c r="I515">
+        <v>96.2</v>
+      </c>
+      <c r="J515">
+        <v>80.7</v>
+      </c>
+      <c r="K515">
+        <v>37</v>
+      </c>
+      <c r="L515">
+        <v>86.3</v>
+      </c>
+      <c r="M515">
+        <v>19</v>
+      </c>
+      <c r="N515">
+        <v>98.4</v>
+      </c>
+      <c r="O515">
+        <v>8</v>
+      </c>
+      <c r="T515">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="U515">
+        <v>14</v>
+      </c>
+      <c r="V515">
+        <v>35.1</v>
+      </c>
+      <c r="W515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>54</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C516" s="3">
+        <v>15</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E516">
+        <v>100</v>
+      </c>
+      <c r="F516">
+        <v>71.5</v>
+      </c>
+      <c r="G516">
+        <v>98.5</v>
+      </c>
+      <c r="H516">
+        <v>100</v>
+      </c>
+      <c r="I516">
+        <v>100</v>
+      </c>
+      <c r="J516">
+        <v>80.8</v>
+      </c>
+      <c r="K516">
+        <v>15</v>
+      </c>
+      <c r="L516">
+        <v>77</v>
+      </c>
+      <c r="M516">
+        <v>50</v>
+      </c>
+      <c r="N516">
+        <v>80.8</v>
+      </c>
+      <c r="O516">
+        <v>30</v>
+      </c>
+      <c r="P516">
+        <v>90.6</v>
+      </c>
+      <c r="Q516">
+        <v>8</v>
+      </c>
+      <c r="R516">
+        <v>90.9</v>
+      </c>
+      <c r="S516">
+        <v>7</v>
+      </c>
+      <c r="T516">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="U516">
+        <v>22</v>
+      </c>
+      <c r="V516">
+        <v>44.4</v>
+      </c>
+      <c r="W516">
+        <v>8</v>
+      </c>
+      <c r="X516">
+        <v>42</v>
+      </c>
+      <c r="Y516">
+        <v>6</v>
+      </c>
+      <c r="Z516">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AA516">
+        <v>15</v>
+      </c>
+      <c r="AB516">
+        <v>43.7</v>
+      </c>
+      <c r="AC516">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>54</v>
+      </c>
+      <c r="B517" t="s">
+        <v>34</v>
+      </c>
+      <c r="C517">
+        <v>15</v>
+      </c>
+      <c r="D517" t="s">
+        <v>29</v>
+      </c>
+      <c r="E517">
+        <v>100</v>
+      </c>
+      <c r="F517">
+        <v>63.9</v>
+      </c>
+      <c r="G517">
+        <v>25.2</v>
+      </c>
+      <c r="H517">
+        <v>100</v>
+      </c>
+      <c r="I517">
+        <v>100</v>
+      </c>
+      <c r="J517">
+        <v>73.7</v>
+      </c>
+      <c r="K517">
+        <v>64</v>
+      </c>
+      <c r="L517">
+        <v>85.8</v>
+      </c>
+      <c r="M517">
+        <v>23</v>
+      </c>
+      <c r="N517">
+        <v>92.4</v>
+      </c>
+      <c r="O517">
+        <v>12</v>
+      </c>
+      <c r="P517">
+        <v>86.1</v>
+      </c>
+      <c r="Q517">
+        <v>5</v>
+      </c>
+      <c r="T517">
+        <v>31.8</v>
+      </c>
+      <c r="U517">
+        <v>36</v>
+      </c>
+      <c r="V517">
+        <v>39.5</v>
+      </c>
+      <c r="W517">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>54</v>
+      </c>
+      <c r="B518" t="s">
+        <v>34</v>
+      </c>
+      <c r="C518">
+        <v>15</v>
+      </c>
+      <c r="D518" t="s">
+        <v>30</v>
+      </c>
+      <c r="E518">
+        <v>100</v>
+      </c>
+      <c r="F518">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G518">
+        <v>71.2</v>
+      </c>
+      <c r="H518">
+        <v>100</v>
+      </c>
+      <c r="I518">
+        <v>100</v>
+      </c>
+      <c r="J518">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K518">
+        <v>59</v>
+      </c>
+      <c r="L518">
+        <v>83.7</v>
+      </c>
+      <c r="M518">
+        <v>13</v>
+      </c>
+      <c r="N518">
+        <v>88.9</v>
+      </c>
+      <c r="O518">
+        <v>5</v>
+      </c>
+      <c r="P518">
+        <v>91</v>
+      </c>
+      <c r="Q518">
+        <v>10</v>
+      </c>
+      <c r="R518">
+        <v>95</v>
+      </c>
+      <c r="S518">
+        <v>5</v>
+      </c>
+      <c r="T518">
+        <v>39.1</v>
+      </c>
+      <c r="U518">
+        <v>8</v>
+      </c>
+      <c r="V518">
+        <v>43.3</v>
+      </c>
+      <c r="W518">
+        <v>8</v>
+      </c>
+      <c r="X518">
+        <v>42.9</v>
+      </c>
+      <c r="Y518">
+        <v>5</v>
+      </c>
+      <c r="Z518">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AA518">
+        <v>7</v>
+      </c>
+      <c r="AB518">
+        <v>35</v>
+      </c>
+      <c r="AC518">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>54</v>
+      </c>
+      <c r="B519" t="s">
+        <v>34</v>
+      </c>
+      <c r="C519">
+        <v>25</v>
+      </c>
+      <c r="D519" t="s">
+        <v>26</v>
+      </c>
+      <c r="E519">
+        <v>100</v>
+      </c>
+      <c r="F519">
+        <v>65.7</v>
+      </c>
+      <c r="G519">
+        <v>99.6</v>
+      </c>
+      <c r="H519">
+        <v>100</v>
+      </c>
+      <c r="I519">
+        <v>100</v>
+      </c>
+      <c r="J519">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K519">
+        <v>62</v>
+      </c>
+      <c r="L519">
+        <v>77</v>
+      </c>
+      <c r="M519">
+        <v>47</v>
+      </c>
+      <c r="N519">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O519">
+        <v>37</v>
+      </c>
+      <c r="P519">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Q519">
+        <v>34</v>
+      </c>
+      <c r="R519">
+        <v>90</v>
+      </c>
+      <c r="S519">
+        <v>5</v>
+      </c>
+      <c r="T519">
+        <v>34.4</v>
+      </c>
+      <c r="U519">
+        <v>38</v>
+      </c>
+      <c r="V519">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="W519">
+        <v>23</v>
+      </c>
+      <c r="X519">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Y519">
+        <v>32</v>
+      </c>
+      <c r="Z519">
+        <v>37.5</v>
+      </c>
+      <c r="AA519">
+        <v>6</v>
+      </c>
+      <c r="AB519">
+        <v>36</v>
+      </c>
+      <c r="AC519">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>54</v>
+      </c>
+      <c r="B520" t="s">
+        <v>34</v>
+      </c>
+      <c r="C520">
+        <v>25</v>
+      </c>
+      <c r="D520" t="s">
+        <v>29</v>
+      </c>
+      <c r="E520">
+        <v>100</v>
+      </c>
+      <c r="F520">
+        <v>62.9</v>
+      </c>
+      <c r="G520">
+        <v>25.6</v>
+      </c>
+      <c r="H520">
+        <v>100</v>
+      </c>
+      <c r="I520">
+        <v>100</v>
+      </c>
+      <c r="J520">
+        <v>72.7</v>
+      </c>
+      <c r="K520">
+        <v>67</v>
+      </c>
+      <c r="L520">
+        <v>87.6</v>
+      </c>
+      <c r="M520">
+        <v>23</v>
+      </c>
+      <c r="N520">
+        <v>90.9</v>
+      </c>
+      <c r="O520">
+        <v>13</v>
+      </c>
+      <c r="P520">
+        <v>94.7</v>
+      </c>
+      <c r="Q520">
+        <v>5</v>
+      </c>
+      <c r="T520">
+        <v>30.2</v>
+      </c>
+      <c r="U520">
+        <v>33</v>
+      </c>
+      <c r="V520">
+        <v>30.4</v>
+      </c>
+      <c r="W520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>54</v>
+      </c>
+      <c r="B521" t="s">
+        <v>34</v>
+      </c>
+      <c r="C521">
+        <v>25</v>
+      </c>
+      <c r="D521" t="s">
+        <v>30</v>
+      </c>
+      <c r="E521">
+        <v>100</v>
+      </c>
+      <c r="F521">
+        <v>71.5</v>
+      </c>
+      <c r="G521">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="H521">
+        <v>100</v>
+      </c>
+      <c r="I521">
+        <v>100</v>
+      </c>
+      <c r="J521">
+        <v>75.7</v>
+      </c>
+      <c r="K521">
+        <v>52</v>
+      </c>
+      <c r="L521">
+        <v>82.3</v>
+      </c>
+      <c r="M521">
+        <v>23</v>
+      </c>
+      <c r="N521">
+        <v>89.3</v>
+      </c>
+      <c r="O521">
+        <v>11</v>
+      </c>
+      <c r="P521">
+        <v>93.6</v>
+      </c>
+      <c r="Q521">
+        <v>6</v>
+      </c>
+      <c r="R521">
+        <v>87.8</v>
+      </c>
+      <c r="S521">
+        <v>6</v>
+      </c>
+      <c r="T521">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="U521">
+        <v>23</v>
+      </c>
+      <c r="V521">
+        <v>40.5</v>
+      </c>
+      <c r="W521">
+        <v>5</v>
+      </c>
+      <c r="X521">
+        <v>40</v>
+      </c>
+      <c r="Y521">
+        <v>5</v>
+      </c>
+      <c r="Z521">
+        <v>40.5</v>
+      </c>
+      <c r="AA521">
+        <v>5</v>
+      </c>
+      <c r="AB521">
+        <v>35.1</v>
+      </c>
+      <c r="AC521">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B1EA3-0303-4AE2-AE14-049D566BCCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE91CFF-C9D7-4159-B28E-1A7CD15CB6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="105" yWindow="7140" windowWidth="28635" windowHeight="8460" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$521</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="56">
   <si>
     <t>Te_cal</t>
   </si>
@@ -170,24 +170,6 @@
     <t>hh_n1_post_az_test4</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8 loc</t>
-  </si>
-  <si>
-    <t>test8 col</t>
-  </si>
-  <si>
-    <t>test 9</t>
-  </si>
-  <si>
     <t>test10 col</t>
   </si>
   <si>
@@ -201,6 +183,27 @@
   </si>
   <si>
     <t>test13</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08 col</t>
+  </si>
+  <si>
+    <t>test08 loc</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -593,13 +596,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC521"/>
+  <dimension ref="A1:AC560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E552" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S499" sqref="S499"/>
+      <selection pane="bottomRight" activeCell="E561" sqref="E561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24551,7 +24554,7 @@
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B314" t="s">
         <v>28</v>
@@ -24640,7 +24643,7 @@
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B315" t="s">
         <v>28</v>
@@ -24729,7 +24732,7 @@
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B316" t="s">
         <v>28</v>
@@ -24818,7 +24821,7 @@
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B317" t="s">
         <v>28</v>
@@ -24907,7 +24910,7 @@
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B318" t="s">
         <v>28</v>
@@ -24996,7 +24999,7 @@
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B319" t="s">
         <v>33</v>
@@ -25067,7 +25070,7 @@
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B320" t="s">
         <v>33</v>
@@ -25156,7 +25159,7 @@
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B321" t="s">
         <v>33</v>
@@ -25245,7 +25248,7 @@
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B322" t="s">
         <v>33</v>
@@ -25334,7 +25337,7 @@
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B323" t="s">
         <v>33</v>
@@ -25423,7 +25426,7 @@
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B324" t="s">
         <v>34</v>
@@ -25506,7 +25509,7 @@
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B325" t="s">
         <v>34</v>
@@ -25595,7 +25598,7 @@
     </row>
     <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B326" t="s">
         <v>34</v>
@@ -25684,7 +25687,7 @@
     </row>
     <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B327" t="s">
         <v>34</v>
@@ -25773,7 +25776,7 @@
     </row>
     <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B328" t="s">
         <v>34</v>
@@ -25862,7 +25865,7 @@
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B329" t="s">
         <v>28</v>
@@ -25951,7 +25954,7 @@
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B330" t="s">
         <v>28</v>
@@ -26040,7 +26043,7 @@
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B331" t="s">
         <v>28</v>
@@ -26129,7 +26132,7 @@
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B332" t="s">
         <v>28</v>
@@ -26218,7 +26221,7 @@
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B333" t="s">
         <v>28</v>
@@ -26307,7 +26310,7 @@
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B334" t="s">
         <v>33</v>
@@ -26378,7 +26381,7 @@
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B335" t="s">
         <v>33</v>
@@ -26467,7 +26470,7 @@
     </row>
     <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B336" t="s">
         <v>33</v>
@@ -26556,7 +26559,7 @@
     </row>
     <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B337" t="s">
         <v>33</v>
@@ -26645,7 +26648,7 @@
     </row>
     <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B338" t="s">
         <v>33</v>
@@ -26734,7 +26737,7 @@
     </row>
     <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B339" t="s">
         <v>34</v>
@@ -26817,7 +26820,7 @@
     </row>
     <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B340" t="s">
         <v>34</v>
@@ -26906,7 +26909,7 @@
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B341" t="s">
         <v>34</v>
@@ -26995,7 +26998,7 @@
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B342" t="s">
         <v>34</v>
@@ -27084,7 +27087,7 @@
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B343" t="s">
         <v>34</v>
@@ -27173,7 +27176,7 @@
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B344" t="s">
         <v>28</v>
@@ -27262,7 +27265,7 @@
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B345" t="s">
         <v>28</v>
@@ -27321,7 +27324,7 @@
     </row>
     <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B346" t="s">
         <v>28</v>
@@ -27386,7 +27389,7 @@
     </row>
     <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B347" t="s">
         <v>28</v>
@@ -27475,7 +27478,7 @@
     </row>
     <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B348" t="s">
         <v>28</v>
@@ -27528,7 +27531,7 @@
     </row>
     <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B349" t="s">
         <v>28</v>
@@ -27599,7 +27602,7 @@
     </row>
     <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B350" t="s">
         <v>28</v>
@@ -27688,7 +27691,7 @@
     </row>
     <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B351" t="s">
         <v>28</v>
@@ -27741,7 +27744,7 @@
     </row>
     <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B352" t="s">
         <v>28</v>
@@ -27806,7 +27809,7 @@
     </row>
     <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B353" t="s">
         <v>28</v>
@@ -27895,7 +27898,7 @@
     </row>
     <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B354" t="s">
         <v>28</v>
@@ -27948,7 +27951,7 @@
     </row>
     <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B355" t="s">
         <v>28</v>
@@ -28037,7 +28040,7 @@
     </row>
     <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B356" t="s">
         <v>28</v>
@@ -28126,7 +28129,7 @@
     </row>
     <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B357" t="s">
         <v>28</v>
@@ -28179,7 +28182,7 @@
     </row>
     <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B358" t="s">
         <v>28</v>
@@ -28262,7 +28265,7 @@
     </row>
     <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B359" t="s">
         <v>33</v>
@@ -28333,7 +28336,7 @@
     </row>
     <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B360" t="s">
         <v>33</v>
@@ -28410,7 +28413,7 @@
     </row>
     <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B361" t="s">
         <v>33</v>
@@ -28493,7 +28496,7 @@
     </row>
     <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B362" t="s">
         <v>33</v>
@@ -28582,7 +28585,7 @@
     </row>
     <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B363" t="s">
         <v>33</v>
@@ -28653,7 +28656,7 @@
     </row>
     <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B364" t="s">
         <v>33</v>
@@ -28724,7 +28727,7 @@
     </row>
     <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B365" t="s">
         <v>33</v>
@@ -28813,7 +28816,7 @@
     </row>
     <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B366" t="s">
         <v>33</v>
@@ -28896,7 +28899,7 @@
     </row>
     <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B367" t="s">
         <v>33</v>
@@ -28973,7 +28976,7 @@
     </row>
     <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B368" t="s">
         <v>33</v>
@@ -29062,7 +29065,7 @@
     </row>
     <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B369" t="s">
         <v>33</v>
@@ -29139,7 +29142,7 @@
     </row>
     <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B370" t="s">
         <v>33</v>
@@ -29216,7 +29219,7 @@
     </row>
     <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B371" t="s">
         <v>33</v>
@@ -29305,7 +29308,7 @@
     </row>
     <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B372" t="s">
         <v>33</v>
@@ -29376,7 +29379,7 @@
     </row>
     <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B373" t="s">
         <v>33</v>
@@ -29453,7 +29456,7 @@
     </row>
     <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B374" t="s">
         <v>34</v>
@@ -29524,7 +29527,7 @@
     </row>
     <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B375" t="s">
         <v>34</v>
@@ -29601,7 +29604,7 @@
     </row>
     <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B376" t="s">
         <v>34</v>
@@ -29684,7 +29687,7 @@
     </row>
     <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B377" t="s">
         <v>34</v>
@@ -29773,7 +29776,7 @@
     </row>
     <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B378" t="s">
         <v>34</v>
@@ -29850,7 +29853,7 @@
     </row>
     <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B379" t="s">
         <v>34</v>
@@ -29927,7 +29930,7 @@
     </row>
     <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B380" t="s">
         <v>34</v>
@@ -30016,7 +30019,7 @@
     </row>
     <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B381" t="s">
         <v>34</v>
@@ -30087,7 +30090,7 @@
     </row>
     <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B382" t="s">
         <v>34</v>
@@ -30158,7 +30161,7 @@
     </row>
     <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B383" t="s">
         <v>34</v>
@@ -30247,7 +30250,7 @@
     </row>
     <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B384" t="s">
         <v>34</v>
@@ -30318,7 +30321,7 @@
     </row>
     <row r="385" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B385" t="s">
         <v>34</v>
@@ -30395,7 +30398,7 @@
     </row>
     <row r="386" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B386" t="s">
         <v>34</v>
@@ -30484,7 +30487,7 @@
     </row>
     <row r="387" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B387" t="s">
         <v>34</v>
@@ -30555,7 +30558,7 @@
     </row>
     <row r="388" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B388" t="s">
         <v>34</v>
@@ -30626,7 +30629,7 @@
     </row>
     <row r="389" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B389" t="s">
         <v>34</v>
@@ -30685,7 +30688,7 @@
     </row>
     <row r="390" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B390" t="s">
         <v>34</v>
@@ -32400,7 +32403,7 @@
     </row>
     <row r="436" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>34</v>
@@ -32489,7 +32492,7 @@
     </row>
     <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>34</v>
@@ -32578,7 +32581,7 @@
     </row>
     <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B438" t="s">
         <v>28</v>
@@ -32667,7 +32670,7 @@
     </row>
     <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B439" t="s">
         <v>28</v>
@@ -32738,7 +32741,7 @@
     </row>
     <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B440" t="s">
         <v>28</v>
@@ -32827,7 +32830,7 @@
     </row>
     <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B441" t="s">
         <v>28</v>
@@ -32916,7 +32919,7 @@
     </row>
     <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B442" t="s">
         <v>28</v>
@@ -32969,7 +32972,7 @@
     </row>
     <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B443" t="s">
         <v>28</v>
@@ -33034,7 +33037,7 @@
     </row>
     <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B444" t="s">
         <v>28</v>
@@ -33123,7 +33126,7 @@
     </row>
     <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B445" t="s">
         <v>28</v>
@@ -33176,7 +33179,7 @@
     </row>
     <row r="446" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B446" t="s">
         <v>28</v>
@@ -33241,7 +33244,7 @@
     </row>
     <row r="447" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B447" t="s">
         <v>33</v>
@@ -33330,7 +33333,7 @@
     </row>
     <row r="448" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B448" t="s">
         <v>33</v>
@@ -33395,7 +33398,7 @@
     </row>
     <row r="449" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B449" t="s">
         <v>33</v>
@@ -33478,7 +33481,7 @@
     </row>
     <row r="450" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B450" t="s">
         <v>33</v>
@@ -33561,7 +33564,7 @@
     </row>
     <row r="451" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B451" t="s">
         <v>33</v>
@@ -33620,7 +33623,7 @@
     </row>
     <row r="452" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B452" t="s">
         <v>33</v>
@@ -33691,7 +33694,7 @@
     </row>
     <row r="453" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B453" t="s">
         <v>33</v>
@@ -33780,7 +33783,7 @@
     </row>
     <row r="454" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B454" t="s">
         <v>33</v>
@@ -33839,7 +33842,7 @@
     </row>
     <row r="455" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B455" t="s">
         <v>33</v>
@@ -33910,7 +33913,7 @@
     </row>
     <row r="456" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B456" t="s">
         <v>34</v>
@@ -33924,7 +33927,7 @@
     </row>
     <row r="457" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B457" t="s">
         <v>34</v>
@@ -33995,7 +33998,7 @@
     </row>
     <row r="458" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B458" t="s">
         <v>34</v>
@@ -34060,7 +34063,7 @@
     </row>
     <row r="459" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>34</v>
@@ -34149,7 +34152,7 @@
     </row>
     <row r="460" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B460" t="s">
         <v>34</v>
@@ -34214,7 +34217,7 @@
     </row>
     <row r="461" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B461" t="s">
         <v>34</v>
@@ -34303,7 +34306,7 @@
     </row>
     <row r="462" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B462" t="s">
         <v>34</v>
@@ -34392,7 +34395,7 @@
     </row>
     <row r="463" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B463" t="s">
         <v>34</v>
@@ -34457,7 +34460,7 @@
     </row>
     <row r="464" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B464" t="s">
         <v>34</v>
@@ -34546,7 +34549,7 @@
     </row>
     <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B465" t="s">
         <v>28</v>
@@ -34635,7 +34638,7 @@
     </row>
     <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B466" t="s">
         <v>28</v>
@@ -34712,7 +34715,7 @@
     </row>
     <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B467" t="s">
         <v>28</v>
@@ -34801,7 +34804,7 @@
     </row>
     <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B468" t="s">
         <v>28</v>
@@ -34890,7 +34893,7 @@
     </row>
     <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B469" t="s">
         <v>28</v>
@@ -34949,7 +34952,7 @@
     </row>
     <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B470" t="s">
         <v>28</v>
@@ -35026,7 +35029,7 @@
     </row>
     <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B471" t="s">
         <v>28</v>
@@ -35115,7 +35118,7 @@
     </row>
     <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B472" t="s">
         <v>28</v>
@@ -35174,7 +35177,7 @@
     </row>
     <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B473" t="s">
         <v>28</v>
@@ -35251,7 +35254,7 @@
     </row>
     <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B474" t="s">
         <v>33</v>
@@ -35340,7 +35343,7 @@
     </row>
     <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B475" t="s">
         <v>33</v>
@@ -35417,7 +35420,7 @@
     </row>
     <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B476" t="s">
         <v>33</v>
@@ -35500,7 +35503,7 @@
     </row>
     <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B477" t="s">
         <v>33</v>
@@ -35583,7 +35586,7 @@
     </row>
     <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B478" t="s">
         <v>33</v>
@@ -35642,7 +35645,7 @@
     </row>
     <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B479" t="s">
         <v>33</v>
@@ -35719,7 +35722,7 @@
     </row>
     <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B480" t="s">
         <v>33</v>
@@ -35808,7 +35811,7 @@
     </row>
     <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B481" t="s">
         <v>33</v>
@@ -35867,7 +35870,7 @@
     </row>
     <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B482" t="s">
         <v>33</v>
@@ -35950,7 +35953,7 @@
     </row>
     <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B483" t="s">
         <v>34</v>
@@ -35964,7 +35967,7 @@
     </row>
     <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B484" t="s">
         <v>34</v>
@@ -36035,7 +36038,7 @@
     </row>
     <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B485" t="s">
         <v>34</v>
@@ -36112,7 +36115,7 @@
     </row>
     <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>34</v>
@@ -36201,7 +36204,7 @@
     </row>
     <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B487" t="s">
         <v>34</v>
@@ -36272,7 +36275,7 @@
     </row>
     <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B488" t="s">
         <v>34</v>
@@ -36361,7 +36364,7 @@
     </row>
     <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B489" t="s">
         <v>34</v>
@@ -36450,7 +36453,7 @@
     </row>
     <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B490" t="s">
         <v>34</v>
@@ -36521,7 +36524,7 @@
     </row>
     <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B491" t="s">
         <v>34</v>
@@ -36610,7 +36613,7 @@
     </row>
     <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B492" t="s">
         <v>25</v>
@@ -36696,7 +36699,7 @@
     </row>
     <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B493" t="s">
         <v>25</v>
@@ -36752,7 +36755,7 @@
     </row>
     <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B494" t="s">
         <v>25</v>
@@ -36838,7 +36841,7 @@
     </row>
     <row r="495" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B495" t="s">
         <v>28</v>
@@ -36927,7 +36930,7 @@
     </row>
     <row r="496" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B496" t="s">
         <v>28</v>
@@ -36998,7 +37001,7 @@
     </row>
     <row r="497" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B497" t="s">
         <v>28</v>
@@ -37087,7 +37090,7 @@
     </row>
     <row r="498" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B498" t="s">
         <v>28</v>
@@ -37176,7 +37179,7 @@
     </row>
     <row r="499" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B499" t="s">
         <v>28</v>
@@ -37235,7 +37238,7 @@
     </row>
     <row r="500" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B500" t="s">
         <v>28</v>
@@ -37312,7 +37315,7 @@
     </row>
     <row r="501" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B501" t="s">
         <v>28</v>
@@ -37401,7 +37404,7 @@
     </row>
     <row r="502" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B502" t="s">
         <v>28</v>
@@ -37454,7 +37457,7 @@
     </row>
     <row r="503" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B503" t="s">
         <v>28</v>
@@ -37525,7 +37528,7 @@
     </row>
     <row r="504" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B504" t="s">
         <v>33</v>
@@ -37614,7 +37617,7 @@
     </row>
     <row r="505" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B505" t="s">
         <v>33</v>
@@ -37685,7 +37688,7 @@
     </row>
     <row r="506" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B506" t="s">
         <v>33</v>
@@ -37774,7 +37777,7 @@
     </row>
     <row r="507" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B507" t="s">
         <v>33</v>
@@ -37863,7 +37866,7 @@
     </row>
     <row r="508" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B508" t="s">
         <v>33</v>
@@ -37928,7 +37931,7 @@
     </row>
     <row r="509" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B509" t="s">
         <v>33</v>
@@ -38017,7 +38020,7 @@
     </row>
     <row r="510" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B510" t="s">
         <v>33</v>
@@ -38106,7 +38109,7 @@
     </row>
     <row r="511" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B511" t="s">
         <v>33</v>
@@ -38165,7 +38168,7 @@
     </row>
     <row r="512" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B512" t="s">
         <v>33</v>
@@ -38254,7 +38257,7 @@
     </row>
     <row r="513" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B513" t="s">
         <v>34</v>
@@ -38343,7 +38346,7 @@
     </row>
     <row r="514" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B514" t="s">
         <v>34</v>
@@ -38414,7 +38417,7 @@
     </row>
     <row r="515" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B515" t="s">
         <v>34</v>
@@ -38473,7 +38476,7 @@
     </row>
     <row r="516" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>34</v>
@@ -38562,7 +38565,7 @@
     </row>
     <row r="517" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B517" t="s">
         <v>34</v>
@@ -38627,7 +38630,7 @@
     </row>
     <row r="518" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B518" t="s">
         <v>34</v>
@@ -38716,7 +38719,7 @@
     </row>
     <row r="519" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B519" t="s">
         <v>34</v>
@@ -38805,7 +38808,7 @@
     </row>
     <row r="520" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B520" t="s">
         <v>34</v>
@@ -38870,7 +38873,7 @@
     </row>
     <row r="521" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B521" t="s">
         <v>34</v>
@@ -38957,9 +38960,3135 @@
         <v>5</v>
       </c>
     </row>
+    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>55</v>
+      </c>
+      <c r="B522" t="s">
+        <v>25</v>
+      </c>
+      <c r="D522" t="s">
+        <v>26</v>
+      </c>
+      <c r="E522">
+        <v>100</v>
+      </c>
+      <c r="F522">
+        <v>57.4</v>
+      </c>
+      <c r="G522">
+        <v>100</v>
+      </c>
+      <c r="H522">
+        <v>100</v>
+      </c>
+      <c r="I522">
+        <v>100</v>
+      </c>
+      <c r="J522">
+        <v>75.2</v>
+      </c>
+      <c r="K522">
+        <v>13</v>
+      </c>
+      <c r="L522">
+        <v>75.8</v>
+      </c>
+      <c r="M522">
+        <v>12</v>
+      </c>
+      <c r="N522">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O522">
+        <v>12</v>
+      </c>
+      <c r="P522">
+        <v>75</v>
+      </c>
+      <c r="Q522">
+        <v>10</v>
+      </c>
+      <c r="R522">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="S522">
+        <v>17</v>
+      </c>
+      <c r="T522">
+        <v>54.1</v>
+      </c>
+      <c r="U522">
+        <v>59</v>
+      </c>
+      <c r="V522">
+        <v>54.1</v>
+      </c>
+      <c r="W522">
+        <v>58</v>
+      </c>
+      <c r="X522">
+        <v>54.4</v>
+      </c>
+      <c r="Y522">
+        <v>64</v>
+      </c>
+      <c r="Z522">
+        <v>54.8</v>
+      </c>
+      <c r="AA522">
+        <v>62</v>
+      </c>
+      <c r="AB522">
+        <v>54.5</v>
+      </c>
+      <c r="AC522">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>55</v>
+      </c>
+      <c r="B523" t="s">
+        <v>25</v>
+      </c>
+      <c r="D523" t="s">
+        <v>29</v>
+      </c>
+      <c r="E523">
+        <v>100</v>
+      </c>
+      <c r="F523">
+        <v>54.2</v>
+      </c>
+      <c r="G523">
+        <v>42.6</v>
+      </c>
+      <c r="H523">
+        <v>100</v>
+      </c>
+      <c r="I523">
+        <v>100</v>
+      </c>
+      <c r="J523">
+        <v>64</v>
+      </c>
+      <c r="K523">
+        <v>24</v>
+      </c>
+      <c r="L523">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M523">
+        <v>12</v>
+      </c>
+      <c r="T523">
+        <v>51.3</v>
+      </c>
+      <c r="U523">
+        <v>60</v>
+      </c>
+      <c r="V523">
+        <v>52.6</v>
+      </c>
+      <c r="W523">
+        <v>15</v>
+      </c>
+      <c r="X523">
+        <v>64.7</v>
+      </c>
+      <c r="Y523">
+        <v>23</v>
+      </c>
+      <c r="Z523">
+        <v>59.1</v>
+      </c>
+      <c r="AA523">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>55</v>
+      </c>
+      <c r="B524" t="s">
+        <v>25</v>
+      </c>
+      <c r="D524" t="s">
+        <v>30</v>
+      </c>
+      <c r="E524">
+        <v>100</v>
+      </c>
+      <c r="F524">
+        <v>55</v>
+      </c>
+      <c r="G524">
+        <v>99.1</v>
+      </c>
+      <c r="H524">
+        <v>100</v>
+      </c>
+      <c r="I524">
+        <v>100</v>
+      </c>
+      <c r="J524">
+        <v>63.7</v>
+      </c>
+      <c r="K524">
+        <v>24</v>
+      </c>
+      <c r="L524">
+        <v>66.3</v>
+      </c>
+      <c r="M524">
+        <v>22</v>
+      </c>
+      <c r="N524">
+        <v>74.3</v>
+      </c>
+      <c r="O524">
+        <v>14</v>
+      </c>
+      <c r="P524">
+        <v>71.8</v>
+      </c>
+      <c r="Q524">
+        <v>10</v>
+      </c>
+      <c r="R524">
+        <v>62.5</v>
+      </c>
+      <c r="S524">
+        <v>11</v>
+      </c>
+      <c r="T524">
+        <v>54</v>
+      </c>
+      <c r="U524">
+        <v>27</v>
+      </c>
+      <c r="V524">
+        <v>56.9</v>
+      </c>
+      <c r="W524">
+        <v>24</v>
+      </c>
+      <c r="X524">
+        <v>61.2</v>
+      </c>
+      <c r="Y524">
+        <v>15</v>
+      </c>
+      <c r="Z524">
+        <v>63.3</v>
+      </c>
+      <c r="AA524">
+        <v>16</v>
+      </c>
+      <c r="AB524">
+        <v>62.3</v>
+      </c>
+      <c r="AC524">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>55</v>
+      </c>
+      <c r="B525" t="s">
+        <v>28</v>
+      </c>
+      <c r="C525">
+        <v>15</v>
+      </c>
+      <c r="D525" t="s">
+        <v>26</v>
+      </c>
+      <c r="E525">
+        <v>100</v>
+      </c>
+      <c r="F525">
+        <v>64</v>
+      </c>
+      <c r="G525">
+        <v>100</v>
+      </c>
+      <c r="H525">
+        <v>100</v>
+      </c>
+      <c r="I525">
+        <v>100</v>
+      </c>
+      <c r="J525">
+        <v>65.5</v>
+      </c>
+      <c r="K525">
+        <v>54</v>
+      </c>
+      <c r="L525">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M525">
+        <v>12</v>
+      </c>
+      <c r="N525">
+        <v>70.7</v>
+      </c>
+      <c r="O525">
+        <v>10</v>
+      </c>
+      <c r="P525">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="Q525">
+        <v>10</v>
+      </c>
+      <c r="R525">
+        <v>61.2</v>
+      </c>
+      <c r="S525">
+        <v>26</v>
+      </c>
+      <c r="T525">
+        <v>62.3</v>
+      </c>
+      <c r="U525">
+        <v>46</v>
+      </c>
+      <c r="V525">
+        <v>65.2</v>
+      </c>
+      <c r="W525">
+        <v>34</v>
+      </c>
+      <c r="X525">
+        <v>70.2</v>
+      </c>
+      <c r="Y525">
+        <v>19</v>
+      </c>
+      <c r="Z525">
+        <v>60</v>
+      </c>
+      <c r="AA525">
+        <v>10</v>
+      </c>
+      <c r="AB525">
+        <v>59.1</v>
+      </c>
+      <c r="AC525">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>55</v>
+      </c>
+      <c r="B526" t="s">
+        <v>28</v>
+      </c>
+      <c r="C526">
+        <v>15</v>
+      </c>
+      <c r="D526" t="s">
+        <v>29</v>
+      </c>
+      <c r="E526">
+        <v>100</v>
+      </c>
+      <c r="F526">
+        <v>53.6</v>
+      </c>
+      <c r="G526">
+        <v>85</v>
+      </c>
+      <c r="H526">
+        <v>100</v>
+      </c>
+      <c r="I526">
+        <v>100</v>
+      </c>
+      <c r="J526">
+        <v>53.4</v>
+      </c>
+      <c r="K526">
+        <v>92</v>
+      </c>
+      <c r="L526">
+        <v>53.6</v>
+      </c>
+      <c r="M526">
+        <v>90</v>
+      </c>
+      <c r="N526">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="O526">
+        <v>18</v>
+      </c>
+      <c r="P526">
+        <v>50.9</v>
+      </c>
+      <c r="Q526">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>55</v>
+      </c>
+      <c r="B527" t="s">
+        <v>28</v>
+      </c>
+      <c r="C527">
+        <v>15</v>
+      </c>
+      <c r="D527" t="s">
+        <v>30</v>
+      </c>
+      <c r="E527">
+        <v>100</v>
+      </c>
+      <c r="F527">
+        <v>57.4</v>
+      </c>
+      <c r="G527">
+        <v>90.2</v>
+      </c>
+      <c r="H527">
+        <v>100</v>
+      </c>
+      <c r="I527">
+        <v>100</v>
+      </c>
+      <c r="J527">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K527">
+        <v>10</v>
+      </c>
+      <c r="L527">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="M527">
+        <v>30</v>
+      </c>
+      <c r="N527">
+        <v>72.2</v>
+      </c>
+      <c r="O527">
+        <v>25</v>
+      </c>
+      <c r="P527">
+        <v>63.7</v>
+      </c>
+      <c r="Q527">
+        <v>36</v>
+      </c>
+      <c r="R527">
+        <v>59.6</v>
+      </c>
+      <c r="S527">
+        <v>38</v>
+      </c>
+      <c r="T527">
+        <v>50.4</v>
+      </c>
+      <c r="U527">
+        <v>16</v>
+      </c>
+      <c r="V527">
+        <v>62.2</v>
+      </c>
+      <c r="W527">
+        <v>41</v>
+      </c>
+      <c r="X527">
+        <v>58.2</v>
+      </c>
+      <c r="Y527">
+        <v>12</v>
+      </c>
+      <c r="Z527">
+        <v>46.7</v>
+      </c>
+      <c r="AA527">
+        <v>10</v>
+      </c>
+      <c r="AB527">
+        <v>44.9</v>
+      </c>
+      <c r="AC527">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>55</v>
+      </c>
+      <c r="B528" t="s">
+        <v>28</v>
+      </c>
+      <c r="C528">
+        <v>25</v>
+      </c>
+      <c r="D528" t="s">
+        <v>26</v>
+      </c>
+      <c r="E528">
+        <v>100</v>
+      </c>
+      <c r="F528">
+        <v>56.5</v>
+      </c>
+      <c r="G528">
+        <v>99.6</v>
+      </c>
+      <c r="H528">
+        <v>100</v>
+      </c>
+      <c r="I528">
+        <v>100</v>
+      </c>
+      <c r="J528">
+        <v>60.1</v>
+      </c>
+      <c r="K528">
+        <v>41</v>
+      </c>
+      <c r="L528">
+        <v>60.2</v>
+      </c>
+      <c r="M528">
+        <v>39</v>
+      </c>
+      <c r="N528">
+        <v>59.8</v>
+      </c>
+      <c r="O528">
+        <v>38</v>
+      </c>
+      <c r="P528">
+        <v>65.5</v>
+      </c>
+      <c r="Q528">
+        <v>14</v>
+      </c>
+      <c r="R528">
+        <v>61.8</v>
+      </c>
+      <c r="S528">
+        <v>31</v>
+      </c>
+      <c r="T528">
+        <v>56.6</v>
+      </c>
+      <c r="U528">
+        <v>16</v>
+      </c>
+      <c r="V528">
+        <v>56.8</v>
+      </c>
+      <c r="W528">
+        <v>15</v>
+      </c>
+      <c r="X528">
+        <v>57.4</v>
+      </c>
+      <c r="Y528">
+        <v>25</v>
+      </c>
+      <c r="Z528">
+        <v>57.7</v>
+      </c>
+      <c r="AA528">
+        <v>16</v>
+      </c>
+      <c r="AB528">
+        <v>60</v>
+      </c>
+      <c r="AC528">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>55</v>
+      </c>
+      <c r="B529" t="s">
+        <v>28</v>
+      </c>
+      <c r="C529">
+        <v>25</v>
+      </c>
+      <c r="D529" t="s">
+        <v>29</v>
+      </c>
+      <c r="E529">
+        <v>100</v>
+      </c>
+      <c r="F529">
+        <v>53.9</v>
+      </c>
+      <c r="G529">
+        <v>83.5</v>
+      </c>
+      <c r="H529">
+        <v>100</v>
+      </c>
+      <c r="I529">
+        <v>100</v>
+      </c>
+      <c r="J529">
+        <v>53.4</v>
+      </c>
+      <c r="K529">
+        <v>94</v>
+      </c>
+      <c r="L529">
+        <v>53.6</v>
+      </c>
+      <c r="M529">
+        <v>89</v>
+      </c>
+      <c r="N529">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="O529">
+        <v>18</v>
+      </c>
+      <c r="P529">
+        <v>50.2</v>
+      </c>
+      <c r="Q529">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>55</v>
+      </c>
+      <c r="B530" t="s">
+        <v>28</v>
+      </c>
+      <c r="C530">
+        <v>25</v>
+      </c>
+      <c r="D530" t="s">
+        <v>30</v>
+      </c>
+      <c r="E530">
+        <v>100</v>
+      </c>
+      <c r="F530">
+        <v>59.3</v>
+      </c>
+      <c r="G530">
+        <v>88</v>
+      </c>
+      <c r="H530">
+        <v>100</v>
+      </c>
+      <c r="I530">
+        <v>100</v>
+      </c>
+      <c r="J530">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K530">
+        <v>15</v>
+      </c>
+      <c r="L530">
+        <v>72</v>
+      </c>
+      <c r="M530">
+        <v>17</v>
+      </c>
+      <c r="N530">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="O530">
+        <v>12</v>
+      </c>
+      <c r="P530">
+        <v>59</v>
+      </c>
+      <c r="Q530">
+        <v>27</v>
+      </c>
+      <c r="R530">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="S530">
+        <v>10</v>
+      </c>
+      <c r="T530">
+        <v>55.8</v>
+      </c>
+      <c r="U530">
+        <v>64</v>
+      </c>
+      <c r="V530">
+        <v>61</v>
+      </c>
+      <c r="W530">
+        <v>40</v>
+      </c>
+      <c r="X530">
+        <v>61</v>
+      </c>
+      <c r="Y530">
+        <v>18</v>
+      </c>
+      <c r="Z530">
+        <v>46.7</v>
+      </c>
+      <c r="AA530">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>55</v>
+      </c>
+      <c r="B531" t="s">
+        <v>28</v>
+      </c>
+      <c r="C531">
+        <v>35</v>
+      </c>
+      <c r="D531" t="s">
+        <v>26</v>
+      </c>
+      <c r="E531">
+        <v>100</v>
+      </c>
+      <c r="F531">
+        <v>60.7</v>
+      </c>
+      <c r="G531">
+        <v>99.7</v>
+      </c>
+      <c r="H531">
+        <v>100</v>
+      </c>
+      <c r="I531">
+        <v>100</v>
+      </c>
+      <c r="J531">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K531">
+        <v>36</v>
+      </c>
+      <c r="L531">
+        <v>68</v>
+      </c>
+      <c r="M531">
+        <v>33</v>
+      </c>
+      <c r="N531">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="O531">
+        <v>21</v>
+      </c>
+      <c r="P531">
+        <v>67.3</v>
+      </c>
+      <c r="Q531">
+        <v>27</v>
+      </c>
+      <c r="R531">
+        <v>68</v>
+      </c>
+      <c r="S531">
+        <v>13</v>
+      </c>
+      <c r="T531">
+        <v>59.6</v>
+      </c>
+      <c r="U531">
+        <v>21</v>
+      </c>
+      <c r="V531">
+        <v>60.8</v>
+      </c>
+      <c r="W531">
+        <v>19</v>
+      </c>
+      <c r="X531">
+        <v>62.1</v>
+      </c>
+      <c r="Y531">
+        <v>18</v>
+      </c>
+      <c r="Z531">
+        <v>62.6</v>
+      </c>
+      <c r="AA531">
+        <v>16</v>
+      </c>
+      <c r="AB531">
+        <v>63.4</v>
+      </c>
+      <c r="AC531">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>55</v>
+      </c>
+      <c r="B532" t="s">
+        <v>28</v>
+      </c>
+      <c r="C532">
+        <v>35</v>
+      </c>
+      <c r="D532" t="s">
+        <v>29</v>
+      </c>
+      <c r="E532">
+        <v>100</v>
+      </c>
+      <c r="F532">
+        <v>53.7</v>
+      </c>
+      <c r="G532">
+        <v>83</v>
+      </c>
+      <c r="H532">
+        <v>100</v>
+      </c>
+      <c r="I532">
+        <v>100</v>
+      </c>
+      <c r="J532">
+        <v>53.5</v>
+      </c>
+      <c r="K532">
+        <v>92</v>
+      </c>
+      <c r="L532">
+        <v>53.5</v>
+      </c>
+      <c r="M532">
+        <v>89</v>
+      </c>
+      <c r="N532">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="O532">
+        <v>18</v>
+      </c>
+      <c r="P532">
+        <v>51.1</v>
+      </c>
+      <c r="Q532">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>55</v>
+      </c>
+      <c r="B533" t="s">
+        <v>28</v>
+      </c>
+      <c r="C533">
+        <v>35</v>
+      </c>
+      <c r="D533" t="s">
+        <v>30</v>
+      </c>
+      <c r="E533">
+        <v>100</v>
+      </c>
+      <c r="F533">
+        <v>59.9</v>
+      </c>
+      <c r="G533">
+        <v>89.9</v>
+      </c>
+      <c r="H533">
+        <v>100</v>
+      </c>
+      <c r="I533">
+        <v>100</v>
+      </c>
+      <c r="J533">
+        <v>59.6</v>
+      </c>
+      <c r="K533">
+        <v>22</v>
+      </c>
+      <c r="L533">
+        <v>65</v>
+      </c>
+      <c r="M533">
+        <v>13</v>
+      </c>
+      <c r="N533">
+        <v>65</v>
+      </c>
+      <c r="O533">
+        <v>28</v>
+      </c>
+      <c r="P533">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Q533">
+        <v>12</v>
+      </c>
+      <c r="R533">
+        <v>56.3</v>
+      </c>
+      <c r="S533">
+        <v>50</v>
+      </c>
+      <c r="T533">
+        <v>55.1</v>
+      </c>
+      <c r="U533">
+        <v>46</v>
+      </c>
+      <c r="V533">
+        <v>57.8</v>
+      </c>
+      <c r="W533">
+        <v>11</v>
+      </c>
+      <c r="X533">
+        <v>63.3</v>
+      </c>
+      <c r="Y533">
+        <v>11</v>
+      </c>
+      <c r="Z533">
+        <v>67.8</v>
+      </c>
+      <c r="AA533">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>55</v>
+      </c>
+      <c r="B534" t="s">
+        <v>28</v>
+      </c>
+      <c r="C534">
+        <v>45</v>
+      </c>
+      <c r="D534" t="s">
+        <v>26</v>
+      </c>
+      <c r="E534">
+        <v>99.6</v>
+      </c>
+      <c r="F534">
+        <v>57.3</v>
+      </c>
+      <c r="G534">
+        <v>99.7</v>
+      </c>
+      <c r="H534">
+        <v>99.7</v>
+      </c>
+      <c r="I534">
+        <v>99.6</v>
+      </c>
+      <c r="J534">
+        <v>57.1</v>
+      </c>
+      <c r="K534">
+        <v>39</v>
+      </c>
+      <c r="L534">
+        <v>57</v>
+      </c>
+      <c r="M534">
+        <v>38</v>
+      </c>
+      <c r="N534">
+        <v>57.2</v>
+      </c>
+      <c r="O534">
+        <v>37</v>
+      </c>
+      <c r="P534">
+        <v>57</v>
+      </c>
+      <c r="Q534">
+        <v>36</v>
+      </c>
+      <c r="R534">
+        <v>56.3</v>
+      </c>
+      <c r="S534">
+        <v>64</v>
+      </c>
+      <c r="T534">
+        <v>64.3</v>
+      </c>
+      <c r="U534">
+        <v>16</v>
+      </c>
+      <c r="V534">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W534">
+        <v>16</v>
+      </c>
+      <c r="X534">
+        <v>64.8</v>
+      </c>
+      <c r="Y534">
+        <v>15</v>
+      </c>
+      <c r="Z534">
+        <v>65</v>
+      </c>
+      <c r="AA534">
+        <v>15</v>
+      </c>
+      <c r="AB534">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AC534">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>55</v>
+      </c>
+      <c r="B535" t="s">
+        <v>28</v>
+      </c>
+      <c r="C535">
+        <v>45</v>
+      </c>
+      <c r="D535" t="s">
+        <v>29</v>
+      </c>
+      <c r="E535">
+        <v>100</v>
+      </c>
+      <c r="F535">
+        <v>53.7</v>
+      </c>
+      <c r="G535">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="H535">
+        <v>100</v>
+      </c>
+      <c r="I535">
+        <v>100</v>
+      </c>
+      <c r="J535">
+        <v>53.5</v>
+      </c>
+      <c r="K535">
+        <v>92</v>
+      </c>
+      <c r="L535">
+        <v>53.5</v>
+      </c>
+      <c r="M535">
+        <v>88</v>
+      </c>
+      <c r="N535">
+        <v>78.7</v>
+      </c>
+      <c r="O535">
+        <v>18</v>
+      </c>
+      <c r="P535">
+        <v>54.7</v>
+      </c>
+      <c r="Q535">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>55</v>
+      </c>
+      <c r="B536" t="s">
+        <v>28</v>
+      </c>
+      <c r="C536">
+        <v>45</v>
+      </c>
+      <c r="D536" t="s">
+        <v>30</v>
+      </c>
+      <c r="E536">
+        <v>100</v>
+      </c>
+      <c r="F536">
+        <v>58.8</v>
+      </c>
+      <c r="G536">
+        <v>89.4</v>
+      </c>
+      <c r="H536">
+        <v>100</v>
+      </c>
+      <c r="I536">
+        <v>100</v>
+      </c>
+      <c r="J536">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K536">
+        <v>10</v>
+      </c>
+      <c r="L536">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="M536">
+        <v>17</v>
+      </c>
+      <c r="N536">
+        <v>63.2</v>
+      </c>
+      <c r="O536">
+        <v>33</v>
+      </c>
+      <c r="P536">
+        <v>63</v>
+      </c>
+      <c r="Q536">
+        <v>12</v>
+      </c>
+      <c r="R536">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="S536">
+        <v>16</v>
+      </c>
+      <c r="T536">
+        <v>62.4</v>
+      </c>
+      <c r="U536">
+        <v>15</v>
+      </c>
+      <c r="V536">
+        <v>57.8</v>
+      </c>
+      <c r="W536">
+        <v>23</v>
+      </c>
+      <c r="X536">
+        <v>62.6</v>
+      </c>
+      <c r="Y536">
+        <v>17</v>
+      </c>
+      <c r="Z536">
+        <v>72.2</v>
+      </c>
+      <c r="AA536">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>55</v>
+      </c>
+      <c r="B537" t="s">
+        <v>33</v>
+      </c>
+      <c r="C537">
+        <v>15</v>
+      </c>
+      <c r="D537" t="s">
+        <v>26</v>
+      </c>
+      <c r="E537">
+        <v>99.7</v>
+      </c>
+      <c r="F537">
+        <v>55.8</v>
+      </c>
+      <c r="G537">
+        <v>100</v>
+      </c>
+      <c r="H537">
+        <v>99.7</v>
+      </c>
+      <c r="I537">
+        <v>100</v>
+      </c>
+      <c r="J537">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K537">
+        <v>16</v>
+      </c>
+      <c r="L537">
+        <v>72</v>
+      </c>
+      <c r="M537">
+        <v>16</v>
+      </c>
+      <c r="N537">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O537">
+        <v>15</v>
+      </c>
+      <c r="P537">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="Q537">
+        <v>15</v>
+      </c>
+      <c r="R537">
+        <v>72.2</v>
+      </c>
+      <c r="S537">
+        <v>15</v>
+      </c>
+      <c r="T537">
+        <v>54.2</v>
+      </c>
+      <c r="U537">
+        <v>35</v>
+      </c>
+      <c r="V537">
+        <v>54.7</v>
+      </c>
+      <c r="W537">
+        <v>42</v>
+      </c>
+      <c r="X537">
+        <v>54.8</v>
+      </c>
+      <c r="Y537">
+        <v>40</v>
+      </c>
+      <c r="Z537">
+        <v>55.4</v>
+      </c>
+      <c r="AA537">
+        <v>35</v>
+      </c>
+      <c r="AB537">
+        <v>55.4</v>
+      </c>
+      <c r="AC537">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>55</v>
+      </c>
+      <c r="B538" t="s">
+        <v>33</v>
+      </c>
+      <c r="C538">
+        <v>15</v>
+      </c>
+      <c r="D538" t="s">
+        <v>29</v>
+      </c>
+      <c r="E538">
+        <v>100</v>
+      </c>
+      <c r="F538">
+        <v>53.4</v>
+      </c>
+      <c r="G538">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H538">
+        <v>100</v>
+      </c>
+      <c r="I538">
+        <v>100</v>
+      </c>
+      <c r="J538">
+        <v>61.6</v>
+      </c>
+      <c r="K538">
+        <v>26</v>
+      </c>
+      <c r="L538">
+        <v>60.8</v>
+      </c>
+      <c r="M538">
+        <v>10</v>
+      </c>
+      <c r="T538">
+        <v>50.5</v>
+      </c>
+      <c r="U538">
+        <v>74</v>
+      </c>
+      <c r="V538">
+        <v>51.4</v>
+      </c>
+      <c r="W538">
+        <v>69</v>
+      </c>
+      <c r="X538">
+        <v>55.1</v>
+      </c>
+      <c r="Y538">
+        <v>59</v>
+      </c>
+      <c r="Z538">
+        <v>61.3</v>
+      </c>
+      <c r="AA538">
+        <v>18</v>
+      </c>
+      <c r="AB538">
+        <v>60.3</v>
+      </c>
+      <c r="AC538">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>55</v>
+      </c>
+      <c r="B539" t="s">
+        <v>33</v>
+      </c>
+      <c r="C539">
+        <v>15</v>
+      </c>
+      <c r="D539" t="s">
+        <v>30</v>
+      </c>
+      <c r="E539">
+        <v>99</v>
+      </c>
+      <c r="F539">
+        <v>58.2</v>
+      </c>
+      <c r="G539">
+        <v>100</v>
+      </c>
+      <c r="H539">
+        <v>100</v>
+      </c>
+      <c r="I539">
+        <v>100</v>
+      </c>
+      <c r="J539">
+        <v>63.8</v>
+      </c>
+      <c r="K539">
+        <v>22</v>
+      </c>
+      <c r="L539">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="M539">
+        <v>32</v>
+      </c>
+      <c r="N539">
+        <v>64.3</v>
+      </c>
+      <c r="O539">
+        <v>23</v>
+      </c>
+      <c r="P539">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Q539">
+        <v>23</v>
+      </c>
+      <c r="R539">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="S539">
+        <v>19</v>
+      </c>
+      <c r="T539">
+        <v>54.7</v>
+      </c>
+      <c r="U539">
+        <v>54</v>
+      </c>
+      <c r="V539">
+        <v>59.9</v>
+      </c>
+      <c r="W539">
+        <v>45</v>
+      </c>
+      <c r="X539">
+        <v>55.1</v>
+      </c>
+      <c r="Y539">
+        <v>36</v>
+      </c>
+      <c r="Z539">
+        <v>57.4</v>
+      </c>
+      <c r="AA539">
+        <v>39</v>
+      </c>
+      <c r="AB539">
+        <v>58.1</v>
+      </c>
+      <c r="AC539">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>55</v>
+      </c>
+      <c r="B540" t="s">
+        <v>33</v>
+      </c>
+      <c r="C540">
+        <v>25</v>
+      </c>
+      <c r="D540" t="s">
+        <v>26</v>
+      </c>
+      <c r="E540">
+        <v>100</v>
+      </c>
+      <c r="F540">
+        <v>60.8</v>
+      </c>
+      <c r="G540">
+        <v>100</v>
+      </c>
+      <c r="H540">
+        <v>100</v>
+      </c>
+      <c r="I540">
+        <v>100</v>
+      </c>
+      <c r="J540">
+        <v>73.2</v>
+      </c>
+      <c r="K540">
+        <v>25</v>
+      </c>
+      <c r="L540">
+        <v>73.7</v>
+      </c>
+      <c r="M540">
+        <v>25</v>
+      </c>
+      <c r="N540">
+        <v>73.7</v>
+      </c>
+      <c r="O540">
+        <v>25</v>
+      </c>
+      <c r="P540">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="Q540">
+        <v>24</v>
+      </c>
+      <c r="R540">
+        <v>73.2</v>
+      </c>
+      <c r="S540">
+        <v>24</v>
+      </c>
+      <c r="T540">
+        <v>57.3</v>
+      </c>
+      <c r="U540">
+        <v>56</v>
+      </c>
+      <c r="V540">
+        <v>57.9</v>
+      </c>
+      <c r="W540">
+        <v>54</v>
+      </c>
+      <c r="X540">
+        <v>59.4</v>
+      </c>
+      <c r="Y540">
+        <v>52</v>
+      </c>
+      <c r="Z540">
+        <v>60.6</v>
+      </c>
+      <c r="AA540">
+        <v>48</v>
+      </c>
+      <c r="AB540">
+        <v>62.8</v>
+      </c>
+      <c r="AC540">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="541" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>55</v>
+      </c>
+      <c r="B541" t="s">
+        <v>33</v>
+      </c>
+      <c r="C541">
+        <v>25</v>
+      </c>
+      <c r="D541" t="s">
+        <v>29</v>
+      </c>
+      <c r="E541">
+        <v>100</v>
+      </c>
+      <c r="F541">
+        <v>53.1</v>
+      </c>
+      <c r="G541">
+        <v>70.3</v>
+      </c>
+      <c r="H541">
+        <v>100</v>
+      </c>
+      <c r="I541">
+        <v>100</v>
+      </c>
+      <c r="J541">
+        <v>62.2</v>
+      </c>
+      <c r="K541">
+        <v>23</v>
+      </c>
+      <c r="L541">
+        <v>62.2</v>
+      </c>
+      <c r="M541">
+        <v>11</v>
+      </c>
+      <c r="T541">
+        <v>50.3</v>
+      </c>
+      <c r="U541">
+        <v>77</v>
+      </c>
+      <c r="V541">
+        <v>51.2</v>
+      </c>
+      <c r="W541">
+        <v>69</v>
+      </c>
+      <c r="X541">
+        <v>54.2</v>
+      </c>
+      <c r="Y541">
+        <v>60</v>
+      </c>
+      <c r="Z541">
+        <v>61.4</v>
+      </c>
+      <c r="AA541">
+        <v>17</v>
+      </c>
+      <c r="AB541">
+        <v>60</v>
+      </c>
+      <c r="AC541">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>55</v>
+      </c>
+      <c r="B542" t="s">
+        <v>33</v>
+      </c>
+      <c r="C542">
+        <v>25</v>
+      </c>
+      <c r="D542" t="s">
+        <v>30</v>
+      </c>
+      <c r="E542">
+        <v>99.9</v>
+      </c>
+      <c r="F542">
+        <v>53.9</v>
+      </c>
+      <c r="G542">
+        <v>100</v>
+      </c>
+      <c r="H542">
+        <v>100</v>
+      </c>
+      <c r="I542">
+        <v>100</v>
+      </c>
+      <c r="J542">
+        <v>87.1</v>
+      </c>
+      <c r="K542">
+        <v>11</v>
+      </c>
+      <c r="L542">
+        <v>61.5</v>
+      </c>
+      <c r="M542">
+        <v>22</v>
+      </c>
+      <c r="N542">
+        <v>60.4</v>
+      </c>
+      <c r="O542">
+        <v>21</v>
+      </c>
+      <c r="P542">
+        <v>54.5</v>
+      </c>
+      <c r="Q542">
+        <v>10</v>
+      </c>
+      <c r="R542">
+        <v>53.9</v>
+      </c>
+      <c r="S542">
+        <v>10</v>
+      </c>
+      <c r="T542">
+        <v>51.6</v>
+      </c>
+      <c r="U542">
+        <v>89</v>
+      </c>
+      <c r="V542">
+        <v>50.8</v>
+      </c>
+      <c r="W542">
+        <v>73</v>
+      </c>
+      <c r="X542">
+        <v>56</v>
+      </c>
+      <c r="Y542">
+        <v>52</v>
+      </c>
+      <c r="Z542">
+        <v>62.4</v>
+      </c>
+      <c r="AA542">
+        <v>14</v>
+      </c>
+      <c r="AB542">
+        <v>74.7</v>
+      </c>
+      <c r="AC542">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>55</v>
+      </c>
+      <c r="B543" t="s">
+        <v>33</v>
+      </c>
+      <c r="C543">
+        <v>35</v>
+      </c>
+      <c r="D543" t="s">
+        <v>26</v>
+      </c>
+      <c r="E543">
+        <v>99.9</v>
+      </c>
+      <c r="F543">
+        <v>55.4</v>
+      </c>
+      <c r="G543">
+        <v>100</v>
+      </c>
+      <c r="H543">
+        <v>100</v>
+      </c>
+      <c r="I543">
+        <v>100</v>
+      </c>
+      <c r="J543">
+        <v>70.3</v>
+      </c>
+      <c r="K543">
+        <v>14</v>
+      </c>
+      <c r="L543">
+        <v>64.5</v>
+      </c>
+      <c r="M543">
+        <v>15</v>
+      </c>
+      <c r="N543">
+        <v>64.5</v>
+      </c>
+      <c r="O543">
+        <v>15</v>
+      </c>
+      <c r="P543">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Q543">
+        <v>22</v>
+      </c>
+      <c r="R543">
+        <v>69.2</v>
+      </c>
+      <c r="S543">
+        <v>16</v>
+      </c>
+      <c r="T543">
+        <v>56.2</v>
+      </c>
+      <c r="U543">
+        <v>22</v>
+      </c>
+      <c r="V543">
+        <v>59.8</v>
+      </c>
+      <c r="W543">
+        <v>13</v>
+      </c>
+      <c r="X543">
+        <v>54.2</v>
+      </c>
+      <c r="Y543">
+        <v>49</v>
+      </c>
+      <c r="Z543">
+        <v>56.9</v>
+      </c>
+      <c r="AA543">
+        <v>35</v>
+      </c>
+      <c r="AB543">
+        <v>55.5</v>
+      </c>
+      <c r="AC543">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>55</v>
+      </c>
+      <c r="B544" t="s">
+        <v>33</v>
+      </c>
+      <c r="C544">
+        <v>35</v>
+      </c>
+      <c r="D544" t="s">
+        <v>29</v>
+      </c>
+      <c r="E544">
+        <v>100</v>
+      </c>
+      <c r="F544">
+        <v>53.5</v>
+      </c>
+      <c r="G544">
+        <v>66.3</v>
+      </c>
+      <c r="H544">
+        <v>100</v>
+      </c>
+      <c r="I544">
+        <v>100</v>
+      </c>
+      <c r="J544">
+        <v>62.6</v>
+      </c>
+      <c r="K544">
+        <v>24</v>
+      </c>
+      <c r="L544">
+        <v>59.6</v>
+      </c>
+      <c r="M544">
+        <v>13</v>
+      </c>
+      <c r="T544">
+        <v>50.6</v>
+      </c>
+      <c r="U544">
+        <v>76</v>
+      </c>
+      <c r="V544">
+        <v>51.3</v>
+      </c>
+      <c r="W544">
+        <v>69</v>
+      </c>
+      <c r="X544">
+        <v>56.2</v>
+      </c>
+      <c r="Y544">
+        <v>53</v>
+      </c>
+      <c r="Z544">
+        <v>62.3</v>
+      </c>
+      <c r="AA544">
+        <v>21</v>
+      </c>
+      <c r="AB544">
+        <v>53.4</v>
+      </c>
+      <c r="AC544">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>55</v>
+      </c>
+      <c r="B545" t="s">
+        <v>33</v>
+      </c>
+      <c r="C545">
+        <v>35</v>
+      </c>
+      <c r="D545" t="s">
+        <v>30</v>
+      </c>
+      <c r="E545">
+        <v>100</v>
+      </c>
+      <c r="F545">
+        <v>53.2</v>
+      </c>
+      <c r="G545">
+        <v>99.9</v>
+      </c>
+      <c r="H545">
+        <v>100</v>
+      </c>
+      <c r="I545">
+        <v>100</v>
+      </c>
+      <c r="J545">
+        <v>72.5</v>
+      </c>
+      <c r="K545">
+        <v>10</v>
+      </c>
+      <c r="L545">
+        <v>70.7</v>
+      </c>
+      <c r="M545">
+        <v>10</v>
+      </c>
+      <c r="N545">
+        <v>59.1</v>
+      </c>
+      <c r="O545">
+        <v>12</v>
+      </c>
+      <c r="P545">
+        <v>63.6</v>
+      </c>
+      <c r="Q545">
+        <v>10</v>
+      </c>
+      <c r="R545">
+        <v>59.7</v>
+      </c>
+      <c r="S545">
+        <v>10</v>
+      </c>
+      <c r="T545">
+        <v>55.4</v>
+      </c>
+      <c r="U545">
+        <v>24</v>
+      </c>
+      <c r="V545">
+        <v>55.1</v>
+      </c>
+      <c r="W545">
+        <v>72</v>
+      </c>
+      <c r="X545">
+        <v>58.6</v>
+      </c>
+      <c r="Y545">
+        <v>22</v>
+      </c>
+      <c r="Z545">
+        <v>68.2</v>
+      </c>
+      <c r="AA545">
+        <v>23</v>
+      </c>
+      <c r="AB545">
+        <v>72</v>
+      </c>
+      <c r="AC545">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>55</v>
+      </c>
+      <c r="B546" t="s">
+        <v>33</v>
+      </c>
+      <c r="C546">
+        <v>45</v>
+      </c>
+      <c r="D546" t="s">
+        <v>26</v>
+      </c>
+      <c r="E546">
+        <v>99.8</v>
+      </c>
+      <c r="F546">
+        <v>58.7</v>
+      </c>
+      <c r="G546">
+        <v>100</v>
+      </c>
+      <c r="H546">
+        <v>99.9</v>
+      </c>
+      <c r="I546">
+        <v>99.7</v>
+      </c>
+      <c r="J546">
+        <v>80.3</v>
+      </c>
+      <c r="K546">
+        <v>19</v>
+      </c>
+      <c r="L546">
+        <v>80.7</v>
+      </c>
+      <c r="M546">
+        <v>18</v>
+      </c>
+      <c r="N546">
+        <v>81.7</v>
+      </c>
+      <c r="O546">
+        <v>18</v>
+      </c>
+      <c r="P546">
+        <v>81.7</v>
+      </c>
+      <c r="Q546">
+        <v>18</v>
+      </c>
+      <c r="R546">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="S546">
+        <v>17</v>
+      </c>
+      <c r="T546">
+        <v>53.7</v>
+      </c>
+      <c r="U546">
+        <v>81</v>
+      </c>
+      <c r="V546">
+        <v>53.6</v>
+      </c>
+      <c r="W546">
+        <v>81</v>
+      </c>
+      <c r="X546">
+        <v>53.5</v>
+      </c>
+      <c r="Y546">
+        <v>81</v>
+      </c>
+      <c r="Z546">
+        <v>53.6</v>
+      </c>
+      <c r="AA546">
+        <v>80</v>
+      </c>
+      <c r="AB546">
+        <v>54.9</v>
+      </c>
+      <c r="AC546">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>55</v>
+      </c>
+      <c r="B547" t="s">
+        <v>33</v>
+      </c>
+      <c r="C547">
+        <v>45</v>
+      </c>
+      <c r="D547" t="s">
+        <v>29</v>
+      </c>
+      <c r="E547">
+        <v>100</v>
+      </c>
+      <c r="F547">
+        <v>54.1</v>
+      </c>
+      <c r="G547">
+        <v>65.7</v>
+      </c>
+      <c r="H547">
+        <v>100</v>
+      </c>
+      <c r="I547">
+        <v>100</v>
+      </c>
+      <c r="J547">
+        <v>66.3</v>
+      </c>
+      <c r="K547">
+        <v>21</v>
+      </c>
+      <c r="L547">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M547">
+        <v>11</v>
+      </c>
+      <c r="T547">
+        <v>51</v>
+      </c>
+      <c r="U547">
+        <v>79</v>
+      </c>
+      <c r="V547">
+        <v>51.6</v>
+      </c>
+      <c r="W547">
+        <v>69</v>
+      </c>
+      <c r="X547">
+        <v>59.9</v>
+      </c>
+      <c r="Y547">
+        <v>36</v>
+      </c>
+      <c r="Z547">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AA547">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>55</v>
+      </c>
+      <c r="B548" t="s">
+        <v>33</v>
+      </c>
+      <c r="C548">
+        <v>45</v>
+      </c>
+      <c r="D548" t="s">
+        <v>30</v>
+      </c>
+      <c r="E548">
+        <v>100</v>
+      </c>
+      <c r="F548">
+        <v>57.7</v>
+      </c>
+      <c r="G548">
+        <v>99.9</v>
+      </c>
+      <c r="H548">
+        <v>100</v>
+      </c>
+      <c r="I548">
+        <v>100</v>
+      </c>
+      <c r="J548">
+        <v>78.8</v>
+      </c>
+      <c r="K548">
+        <v>10</v>
+      </c>
+      <c r="L548">
+        <v>77.2</v>
+      </c>
+      <c r="M548">
+        <v>10</v>
+      </c>
+      <c r="N548">
+        <v>69.8</v>
+      </c>
+      <c r="O548">
+        <v>11</v>
+      </c>
+      <c r="P548">
+        <v>60.6</v>
+      </c>
+      <c r="Q548">
+        <v>13</v>
+      </c>
+      <c r="R548">
+        <v>60.2</v>
+      </c>
+      <c r="S548">
+        <v>12</v>
+      </c>
+      <c r="T548">
+        <v>54.2</v>
+      </c>
+      <c r="U548">
+        <v>75</v>
+      </c>
+      <c r="V548">
+        <v>60.9</v>
+      </c>
+      <c r="W548">
+        <v>31</v>
+      </c>
+      <c r="X548">
+        <v>69.7</v>
+      </c>
+      <c r="Y548">
+        <v>18</v>
+      </c>
+      <c r="Z548">
+        <v>75.8</v>
+      </c>
+      <c r="AA548">
+        <v>12</v>
+      </c>
+      <c r="AB548">
+        <v>76.3</v>
+      </c>
+      <c r="AC548">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>55</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C549">
+        <v>15</v>
+      </c>
+      <c r="D549" t="s">
+        <v>26</v>
+      </c>
+      <c r="E549">
+        <v>97.5</v>
+      </c>
+      <c r="F549">
+        <v>60.7</v>
+      </c>
+      <c r="G549">
+        <v>100</v>
+      </c>
+      <c r="H549">
+        <v>97.6</v>
+      </c>
+      <c r="I549">
+        <v>97.3</v>
+      </c>
+      <c r="J549">
+        <v>76</v>
+      </c>
+      <c r="K549">
+        <v>20</v>
+      </c>
+      <c r="L549">
+        <v>77.2</v>
+      </c>
+      <c r="M549">
+        <v>10</v>
+      </c>
+      <c r="N549">
+        <v>74.7</v>
+      </c>
+      <c r="O549">
+        <v>10</v>
+      </c>
+      <c r="P549">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Q549">
+        <v>12</v>
+      </c>
+      <c r="R549">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="S549">
+        <v>11</v>
+      </c>
+      <c r="T549">
+        <v>58.5</v>
+      </c>
+      <c r="U549">
+        <v>37</v>
+      </c>
+      <c r="V549">
+        <v>59</v>
+      </c>
+      <c r="W549">
+        <v>53</v>
+      </c>
+      <c r="X549">
+        <v>63.3</v>
+      </c>
+      <c r="Y549">
+        <v>40</v>
+      </c>
+      <c r="Z549">
+        <v>67</v>
+      </c>
+      <c r="AA549">
+        <v>23</v>
+      </c>
+      <c r="AB549">
+        <v>69.3</v>
+      </c>
+      <c r="AC549">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>55</v>
+      </c>
+      <c r="B550" t="s">
+        <v>34</v>
+      </c>
+      <c r="C550">
+        <v>15</v>
+      </c>
+      <c r="D550" t="s">
+        <v>29</v>
+      </c>
+      <c r="E550">
+        <v>100</v>
+      </c>
+      <c r="F550">
+        <v>55.3</v>
+      </c>
+      <c r="G550">
+        <v>70</v>
+      </c>
+      <c r="H550">
+        <v>100</v>
+      </c>
+      <c r="I550">
+        <v>100</v>
+      </c>
+      <c r="J550">
+        <v>63.2</v>
+      </c>
+      <c r="K550">
+        <v>30</v>
+      </c>
+      <c r="L550">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M550">
+        <v>21</v>
+      </c>
+      <c r="N550">
+        <v>72</v>
+      </c>
+      <c r="O550">
+        <v>10</v>
+      </c>
+      <c r="P550">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="Q550">
+        <v>12</v>
+      </c>
+      <c r="T550">
+        <v>51.9</v>
+      </c>
+      <c r="U550">
+        <v>70</v>
+      </c>
+      <c r="V550">
+        <v>52.7</v>
+      </c>
+      <c r="W550">
+        <v>67</v>
+      </c>
+      <c r="X550">
+        <v>64</v>
+      </c>
+      <c r="Y550">
+        <v>19</v>
+      </c>
+      <c r="Z550">
+        <v>58</v>
+      </c>
+      <c r="AA550">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>55</v>
+      </c>
+      <c r="B551" t="s">
+        <v>34</v>
+      </c>
+      <c r="C551">
+        <v>15</v>
+      </c>
+      <c r="D551" t="s">
+        <v>30</v>
+      </c>
+      <c r="E551">
+        <v>97.6</v>
+      </c>
+      <c r="F551">
+        <v>61.1</v>
+      </c>
+      <c r="G551">
+        <v>100</v>
+      </c>
+      <c r="H551">
+        <v>100</v>
+      </c>
+      <c r="I551">
+        <v>98.5</v>
+      </c>
+      <c r="J551">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K551">
+        <v>19</v>
+      </c>
+      <c r="L551">
+        <v>76.7</v>
+      </c>
+      <c r="M551">
+        <v>13</v>
+      </c>
+      <c r="N551">
+        <v>75.2</v>
+      </c>
+      <c r="O551">
+        <v>14</v>
+      </c>
+      <c r="P551">
+        <v>73.7</v>
+      </c>
+      <c r="Q551">
+        <v>10</v>
+      </c>
+      <c r="T551">
+        <v>58.7</v>
+      </c>
+      <c r="U551">
+        <v>50</v>
+      </c>
+      <c r="V551">
+        <v>69.2</v>
+      </c>
+      <c r="W551">
+        <v>18</v>
+      </c>
+      <c r="X551">
+        <v>68.7</v>
+      </c>
+      <c r="Y551">
+        <v>25</v>
+      </c>
+      <c r="Z551">
+        <v>68</v>
+      </c>
+      <c r="AA551">
+        <v>12</v>
+      </c>
+      <c r="AB551">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AC551">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>55</v>
+      </c>
+      <c r="B552" t="s">
+        <v>34</v>
+      </c>
+      <c r="C552">
+        <v>25</v>
+      </c>
+      <c r="D552" t="s">
+        <v>26</v>
+      </c>
+      <c r="E552">
+        <v>99.3</v>
+      </c>
+      <c r="F552">
+        <v>58.6</v>
+      </c>
+      <c r="G552">
+        <v>100</v>
+      </c>
+      <c r="H552">
+        <v>99.4</v>
+      </c>
+      <c r="I552">
+        <v>99.4</v>
+      </c>
+      <c r="J552">
+        <v>69.8</v>
+      </c>
+      <c r="K552">
+        <v>11</v>
+      </c>
+      <c r="L552">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M552">
+        <v>23</v>
+      </c>
+      <c r="N552">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O552">
+        <v>15</v>
+      </c>
+      <c r="P552">
+        <v>68.3</v>
+      </c>
+      <c r="Q552">
+        <v>15</v>
+      </c>
+      <c r="R552">
+        <v>70.3</v>
+      </c>
+      <c r="S552">
+        <v>20</v>
+      </c>
+      <c r="T552">
+        <v>55.3</v>
+      </c>
+      <c r="U552">
+        <v>46</v>
+      </c>
+      <c r="V552">
+        <v>56.7</v>
+      </c>
+      <c r="W552">
+        <v>40</v>
+      </c>
+      <c r="X552">
+        <v>57.1</v>
+      </c>
+      <c r="Y552">
+        <v>33</v>
+      </c>
+      <c r="Z552">
+        <v>57.2</v>
+      </c>
+      <c r="AA552">
+        <v>45</v>
+      </c>
+      <c r="AB552">
+        <v>58.5</v>
+      </c>
+      <c r="AC552">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>55</v>
+      </c>
+      <c r="B553" t="s">
+        <v>34</v>
+      </c>
+      <c r="C553">
+        <v>25</v>
+      </c>
+      <c r="D553" t="s">
+        <v>29</v>
+      </c>
+      <c r="E553">
+        <v>100</v>
+      </c>
+      <c r="F553">
+        <v>55.5</v>
+      </c>
+      <c r="G553">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H553">
+        <v>100</v>
+      </c>
+      <c r="I553">
+        <v>100</v>
+      </c>
+      <c r="J553">
+        <v>63.6</v>
+      </c>
+      <c r="K553">
+        <v>30</v>
+      </c>
+      <c r="L553">
+        <v>63.4</v>
+      </c>
+      <c r="M553">
+        <v>22</v>
+      </c>
+      <c r="N553">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O553">
+        <v>13</v>
+      </c>
+      <c r="P553">
+        <v>62.7</v>
+      </c>
+      <c r="Q553">
+        <v>10</v>
+      </c>
+      <c r="T553">
+        <v>52.1</v>
+      </c>
+      <c r="U553">
+        <v>70</v>
+      </c>
+      <c r="V553">
+        <v>52.7</v>
+      </c>
+      <c r="W553">
+        <v>59</v>
+      </c>
+      <c r="X553">
+        <v>60.2</v>
+      </c>
+      <c r="Y553">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>55</v>
+      </c>
+      <c r="B554" t="s">
+        <v>34</v>
+      </c>
+      <c r="C554">
+        <v>25</v>
+      </c>
+      <c r="D554" t="s">
+        <v>30</v>
+      </c>
+      <c r="E554">
+        <v>99.8</v>
+      </c>
+      <c r="F554">
+        <v>58.8</v>
+      </c>
+      <c r="G554">
+        <v>98.9</v>
+      </c>
+      <c r="H554">
+        <v>100</v>
+      </c>
+      <c r="I554">
+        <v>100</v>
+      </c>
+      <c r="J554">
+        <v>79.8</v>
+      </c>
+      <c r="K554">
+        <v>15</v>
+      </c>
+      <c r="L554">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="M554">
+        <v>14</v>
+      </c>
+      <c r="N554">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="O554">
+        <v>14</v>
+      </c>
+      <c r="P554">
+        <v>80.8</v>
+      </c>
+      <c r="Q554">
+        <v>13</v>
+      </c>
+      <c r="R554">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="S554">
+        <v>11</v>
+      </c>
+      <c r="T554">
+        <v>55</v>
+      </c>
+      <c r="U554">
+        <v>67</v>
+      </c>
+      <c r="V554">
+        <v>60</v>
+      </c>
+      <c r="W554">
+        <v>11</v>
+      </c>
+      <c r="X554">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="Y554">
+        <v>10</v>
+      </c>
+      <c r="Z554">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AA554">
+        <v>32</v>
+      </c>
+      <c r="AB554">
+        <v>64.7</v>
+      </c>
+      <c r="AC554">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>55</v>
+      </c>
+      <c r="B555" t="s">
+        <v>34</v>
+      </c>
+      <c r="C555">
+        <v>35</v>
+      </c>
+      <c r="D555" t="s">
+        <v>26</v>
+      </c>
+      <c r="E555">
+        <v>98.9</v>
+      </c>
+      <c r="F555">
+        <v>57.5</v>
+      </c>
+      <c r="G555">
+        <v>100</v>
+      </c>
+      <c r="H555">
+        <v>99</v>
+      </c>
+      <c r="I555">
+        <v>98.7</v>
+      </c>
+      <c r="J555">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K555">
+        <v>22</v>
+      </c>
+      <c r="L555">
+        <v>66.2</v>
+      </c>
+      <c r="M555">
+        <v>19</v>
+      </c>
+      <c r="N555">
+        <v>67.3</v>
+      </c>
+      <c r="O555">
+        <v>14</v>
+      </c>
+      <c r="P555">
+        <v>66.7</v>
+      </c>
+      <c r="Q555">
+        <v>11</v>
+      </c>
+      <c r="R555">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="S555">
+        <v>19</v>
+      </c>
+      <c r="T555">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="U555">
+        <v>10</v>
+      </c>
+      <c r="V555">
+        <v>52.8</v>
+      </c>
+      <c r="W555">
+        <v>56</v>
+      </c>
+      <c r="X555">
+        <v>54.7</v>
+      </c>
+      <c r="Y555">
+        <v>44</v>
+      </c>
+      <c r="Z555">
+        <v>53</v>
+      </c>
+      <c r="AA555">
+        <v>27</v>
+      </c>
+      <c r="AB555">
+        <v>53.3</v>
+      </c>
+      <c r="AC555">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>55</v>
+      </c>
+      <c r="B556" t="s">
+        <v>34</v>
+      </c>
+      <c r="C556">
+        <v>35</v>
+      </c>
+      <c r="D556" t="s">
+        <v>29</v>
+      </c>
+      <c r="E556">
+        <v>100</v>
+      </c>
+      <c r="F556">
+        <v>55.3</v>
+      </c>
+      <c r="G556">
+        <v>61</v>
+      </c>
+      <c r="H556">
+        <v>100</v>
+      </c>
+      <c r="I556">
+        <v>100</v>
+      </c>
+      <c r="J556">
+        <v>64</v>
+      </c>
+      <c r="K556">
+        <v>28</v>
+      </c>
+      <c r="L556">
+        <v>62.9</v>
+      </c>
+      <c r="M556">
+        <v>21</v>
+      </c>
+      <c r="N556">
+        <v>66.7</v>
+      </c>
+      <c r="O556">
+        <v>14</v>
+      </c>
+      <c r="T556">
+        <v>51.9</v>
+      </c>
+      <c r="U556">
+        <v>72</v>
+      </c>
+      <c r="V556">
+        <v>52.3</v>
+      </c>
+      <c r="W556">
+        <v>66</v>
+      </c>
+      <c r="X556">
+        <v>58.6</v>
+      </c>
+      <c r="Y556">
+        <v>24</v>
+      </c>
+      <c r="Z556">
+        <v>50.6</v>
+      </c>
+      <c r="AA556">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>55</v>
+      </c>
+      <c r="B557" t="s">
+        <v>34</v>
+      </c>
+      <c r="C557">
+        <v>35</v>
+      </c>
+      <c r="D557" t="s">
+        <v>30</v>
+      </c>
+      <c r="E557">
+        <v>100</v>
+      </c>
+      <c r="F557">
+        <v>57</v>
+      </c>
+      <c r="G557">
+        <v>98.1</v>
+      </c>
+      <c r="H557">
+        <v>100</v>
+      </c>
+      <c r="I557">
+        <v>100</v>
+      </c>
+      <c r="J557">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K557">
+        <v>20</v>
+      </c>
+      <c r="L557">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M557">
+        <v>15</v>
+      </c>
+      <c r="N557">
+        <v>74</v>
+      </c>
+      <c r="O557">
+        <v>13</v>
+      </c>
+      <c r="P557">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Q557">
+        <v>14</v>
+      </c>
+      <c r="R557">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="S557">
+        <v>10</v>
+      </c>
+      <c r="T557">
+        <v>54.5</v>
+      </c>
+      <c r="U557">
+        <v>30</v>
+      </c>
+      <c r="V557">
+        <v>70.3</v>
+      </c>
+      <c r="W557">
+        <v>12</v>
+      </c>
+      <c r="X557">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Y557">
+        <v>11</v>
+      </c>
+      <c r="Z557">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AA557">
+        <v>10</v>
+      </c>
+      <c r="AB557">
+        <v>65.3</v>
+      </c>
+      <c r="AC557">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>55</v>
+      </c>
+      <c r="B558" t="s">
+        <v>34</v>
+      </c>
+      <c r="C558">
+        <v>45</v>
+      </c>
+      <c r="D558" t="s">
+        <v>26</v>
+      </c>
+      <c r="E558">
+        <v>100</v>
+      </c>
+      <c r="F558">
+        <v>57.9</v>
+      </c>
+      <c r="G558">
+        <v>99.6</v>
+      </c>
+      <c r="H558">
+        <v>100</v>
+      </c>
+      <c r="I558">
+        <v>100</v>
+      </c>
+      <c r="J558">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K558">
+        <v>27</v>
+      </c>
+      <c r="L558">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M558">
+        <v>27</v>
+      </c>
+      <c r="N558">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="O558">
+        <v>14</v>
+      </c>
+      <c r="P558">
+        <v>67.5</v>
+      </c>
+      <c r="Q558">
+        <v>27</v>
+      </c>
+      <c r="R558">
+        <v>68</v>
+      </c>
+      <c r="S558">
+        <v>13</v>
+      </c>
+      <c r="T558">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="U558">
+        <v>11</v>
+      </c>
+      <c r="V558">
+        <v>66.3</v>
+      </c>
+      <c r="W558">
+        <v>11</v>
+      </c>
+      <c r="X558">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Y558">
+        <v>10</v>
+      </c>
+      <c r="Z558">
+        <v>58.9</v>
+      </c>
+      <c r="AA558">
+        <v>16</v>
+      </c>
+      <c r="AB558">
+        <v>59.3</v>
+      </c>
+      <c r="AC558">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>55</v>
+      </c>
+      <c r="B559" t="s">
+        <v>34</v>
+      </c>
+      <c r="C559">
+        <v>45</v>
+      </c>
+      <c r="D559" t="s">
+        <v>29</v>
+      </c>
+      <c r="E559">
+        <v>100</v>
+      </c>
+      <c r="F559">
+        <v>55.4</v>
+      </c>
+      <c r="G559">
+        <v>56.7</v>
+      </c>
+      <c r="H559">
+        <v>100</v>
+      </c>
+      <c r="I559">
+        <v>100</v>
+      </c>
+      <c r="J559">
+        <v>63.2</v>
+      </c>
+      <c r="K559">
+        <v>30</v>
+      </c>
+      <c r="L559">
+        <v>63.7</v>
+      </c>
+      <c r="M559">
+        <v>21</v>
+      </c>
+      <c r="N559">
+        <v>66</v>
+      </c>
+      <c r="O559">
+        <v>13</v>
+      </c>
+      <c r="P559">
+        <v>60.2</v>
+      </c>
+      <c r="Q559">
+        <v>11</v>
+      </c>
+      <c r="T559">
+        <v>52</v>
+      </c>
+      <c r="U559">
+        <v>70</v>
+      </c>
+      <c r="V559">
+        <v>52.5</v>
+      </c>
+      <c r="W559">
+        <v>66</v>
+      </c>
+      <c r="X559">
+        <v>60.8</v>
+      </c>
+      <c r="Y559">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>55</v>
+      </c>
+      <c r="B560" t="s">
+        <v>34</v>
+      </c>
+      <c r="C560">
+        <v>45</v>
+      </c>
+      <c r="D560" t="s">
+        <v>30</v>
+      </c>
+      <c r="E560">
+        <v>100</v>
+      </c>
+      <c r="F560">
+        <v>58.7</v>
+      </c>
+      <c r="G560">
+        <v>99</v>
+      </c>
+      <c r="H560">
+        <v>100</v>
+      </c>
+      <c r="I560">
+        <v>100</v>
+      </c>
+      <c r="J560">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="K560">
+        <v>18</v>
+      </c>
+      <c r="L560">
+        <v>70.7</v>
+      </c>
+      <c r="M560">
+        <v>21</v>
+      </c>
+      <c r="N560">
+        <v>69.8</v>
+      </c>
+      <c r="O560">
+        <v>18</v>
+      </c>
+      <c r="P560">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="Q560">
+        <v>16</v>
+      </c>
+      <c r="R560">
+        <v>64</v>
+      </c>
+      <c r="S560">
+        <v>14</v>
+      </c>
+      <c r="T560">
+        <v>63.1</v>
+      </c>
+      <c r="U560">
+        <v>11</v>
+      </c>
+      <c r="V560">
+        <v>63.4</v>
+      </c>
+      <c r="W560">
+        <v>12</v>
+      </c>
+      <c r="X560">
+        <v>62.9</v>
+      </c>
+      <c r="Y560">
+        <v>11</v>
+      </c>
+      <c r="Z560">
+        <v>69.2</v>
+      </c>
+      <c r="AA560">
+        <v>10</v>
+      </c>
+      <c r="AB560">
+        <v>72.2</v>
+      </c>
+      <c r="AC560">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC343" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC390">
+  <autoFilter ref="A1:AC521" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC521">
       <sortCondition ref="A2:A97"/>
       <sortCondition ref="B2:B97"/>
       <sortCondition ref="C2:C97"/>
@@ -38967,7 +42096,19 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AB1:AB1048576 Z1:Z1048576 X1:X1048576 V1:V1048576 T1:T1048576 R1:R1048576 P1:P1048576 N1:N1048576 L1:L1048576 E1:J1048576">
+  <conditionalFormatting sqref="AB1:AB533 Z1:Z533 X1:X533 V1:V533 T1:T533 R1:R533 P1:P533 N1:N533 L1:L533 E1:J533 E537:J1048576 L537:L1048576 N537:N1048576 P537:P1048576 R537:R1048576 T537:T1048576 V537:V1048576 X537:X1048576 Z537:Z1048576 AB537:AB1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB534:AB536 Z534:Z536 X534:X536 V534:V536 T534:T536 R534:R536 P534:P536 N534:N536 L534:L536 E534:J536">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE91CFF-C9D7-4159-B28E-1A7CD15CB6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F23A70-31A4-421C-94E6-B06AFB478835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="7140" windowWidth="28635" windowHeight="8460" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="56">
   <si>
     <t>Te_cal</t>
   </si>
@@ -596,13 +596,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC560"/>
+  <dimension ref="A1:AC569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E552" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E561" sqref="E561"/>
+      <selection pane="bottomRight" activeCell="Z554" sqref="Z554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39202,7 +39202,7 @@
         <v>28</v>
       </c>
       <c r="C525">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D525" t="s">
         <v>26</v>
@@ -39211,7 +39211,7 @@
         <v>100</v>
       </c>
       <c r="F525">
-        <v>64</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G525">
         <v>100</v>
@@ -39223,64 +39223,64 @@
         <v>100</v>
       </c>
       <c r="J525">
-        <v>65.5</v>
+        <v>73</v>
       </c>
       <c r="K525">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L525">
-        <v>67.400000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="M525">
+        <v>41</v>
+      </c>
+      <c r="N525">
+        <v>71.8</v>
+      </c>
+      <c r="O525">
+        <v>36</v>
+      </c>
+      <c r="P525">
+        <v>71.3</v>
+      </c>
+      <c r="Q525">
+        <v>32</v>
+      </c>
+      <c r="R525">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="S525">
         <v>12</v>
       </c>
-      <c r="N525">
-        <v>70.7</v>
-      </c>
-      <c r="O525">
-        <v>10</v>
-      </c>
-      <c r="P525">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="Q525">
-        <v>10</v>
-      </c>
-      <c r="R525">
-        <v>61.2</v>
-      </c>
-      <c r="S525">
-        <v>26</v>
-      </c>
       <c r="T525">
-        <v>62.3</v>
+        <v>64.3</v>
       </c>
       <c r="U525">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V525">
-        <v>65.2</v>
+        <v>66.7</v>
       </c>
       <c r="W525">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="X525">
-        <v>70.2</v>
+        <v>69.7</v>
       </c>
       <c r="Y525">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z525">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA525">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AB525">
-        <v>59.1</v>
+        <v>66</v>
       </c>
       <c r="AC525">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="526" spans="1:29" x14ac:dyDescent="0.25">
@@ -39291,7 +39291,7 @@
         <v>28</v>
       </c>
       <c r="C526">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D526" t="s">
         <v>29</v>
@@ -39300,10 +39300,10 @@
         <v>100</v>
       </c>
       <c r="F526">
-        <v>53.6</v>
+        <v>61.9</v>
       </c>
       <c r="G526">
-        <v>85</v>
+        <v>44.4</v>
       </c>
       <c r="H526">
         <v>100</v>
@@ -39312,28 +39312,40 @@
         <v>100</v>
       </c>
       <c r="J526">
-        <v>53.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K526">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L526">
-        <v>53.6</v>
+        <v>74</v>
       </c>
       <c r="M526">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N526">
-        <v>78.599999999999994</v>
+        <v>81.2</v>
       </c>
       <c r="O526">
-        <v>18</v>
-      </c>
-      <c r="P526">
-        <v>50.9</v>
-      </c>
-      <c r="Q526">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="T526">
+        <v>61.4</v>
+      </c>
+      <c r="U526">
+        <v>26</v>
+      </c>
+      <c r="V526">
+        <v>63</v>
+      </c>
+      <c r="W526">
+        <v>17</v>
+      </c>
+      <c r="X526">
+        <v>61.7</v>
+      </c>
+      <c r="Y526">
+        <v>12</v>
       </c>
     </row>
     <row r="527" spans="1:29" x14ac:dyDescent="0.25">
@@ -39344,85 +39356,85 @@
         <v>28</v>
       </c>
       <c r="C527">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D527" t="s">
         <v>30</v>
       </c>
       <c r="E527">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F527">
+        <v>62.7</v>
+      </c>
+      <c r="G527">
+        <v>94.9</v>
+      </c>
+      <c r="H527">
+        <v>99.9</v>
+      </c>
+      <c r="I527">
+        <v>100</v>
+      </c>
+      <c r="J527">
+        <v>70.3</v>
+      </c>
+      <c r="K527">
+        <v>27</v>
+      </c>
+      <c r="L527">
+        <v>71.8</v>
+      </c>
+      <c r="M527">
+        <v>27</v>
+      </c>
+      <c r="N527">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O527">
+        <v>11</v>
+      </c>
+      <c r="P527">
         <v>57.4</v>
       </c>
-      <c r="G527">
-        <v>90.2</v>
-      </c>
-      <c r="H527">
-        <v>100</v>
-      </c>
-      <c r="I527">
-        <v>100</v>
-      </c>
-      <c r="J527">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="K527">
-        <v>10</v>
-      </c>
-      <c r="L527">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="M527">
-        <v>30</v>
-      </c>
-      <c r="N527">
-        <v>72.2</v>
-      </c>
-      <c r="O527">
+      <c r="Q527">
+        <v>46</v>
+      </c>
+      <c r="R527">
+        <v>59.3</v>
+      </c>
+      <c r="S527">
+        <v>41</v>
+      </c>
+      <c r="T527">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U527">
+        <v>13</v>
+      </c>
+      <c r="V527">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="W527">
+        <v>40</v>
+      </c>
+      <c r="X527">
+        <v>59.3</v>
+      </c>
+      <c r="Y527">
+        <v>10</v>
+      </c>
+      <c r="Z527">
+        <v>63.6</v>
+      </c>
+      <c r="AA527">
         <v>25</v>
       </c>
-      <c r="P527">
-        <v>63.7</v>
-      </c>
-      <c r="Q527">
-        <v>36</v>
-      </c>
-      <c r="R527">
-        <v>59.6</v>
-      </c>
-      <c r="S527">
-        <v>38</v>
-      </c>
-      <c r="T527">
-        <v>50.4</v>
-      </c>
-      <c r="U527">
-        <v>16</v>
-      </c>
-      <c r="V527">
-        <v>62.2</v>
-      </c>
-      <c r="W527">
-        <v>41</v>
-      </c>
-      <c r="X527">
-        <v>58.2</v>
-      </c>
-      <c r="Y527">
-        <v>12</v>
-      </c>
-      <c r="Z527">
-        <v>46.7</v>
-      </c>
-      <c r="AA527">
-        <v>10</v>
-      </c>
       <c r="AB527">
-        <v>44.9</v>
+        <v>65</v>
       </c>
       <c r="AC527">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528" spans="1:29" x14ac:dyDescent="0.25">
@@ -39433,7 +39445,7 @@
         <v>28</v>
       </c>
       <c r="C528">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D528" t="s">
         <v>26</v>
@@ -39442,10 +39454,10 @@
         <v>100</v>
       </c>
       <c r="F528">
-        <v>56.5</v>
+        <v>64</v>
       </c>
       <c r="G528">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="H528">
         <v>100</v>
@@ -39454,64 +39466,64 @@
         <v>100</v>
       </c>
       <c r="J528">
-        <v>60.1</v>
+        <v>65.5</v>
       </c>
       <c r="K528">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L528">
-        <v>60.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="M528">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N528">
-        <v>59.8</v>
+        <v>70.7</v>
       </c>
       <c r="O528">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="P528">
-        <v>65.5</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="Q528">
+        <v>10</v>
+      </c>
+      <c r="R528">
+        <v>61.2</v>
+      </c>
+      <c r="S528">
+        <v>26</v>
+      </c>
+      <c r="T528">
+        <v>62.3</v>
+      </c>
+      <c r="U528">
+        <v>46</v>
+      </c>
+      <c r="V528">
+        <v>65.2</v>
+      </c>
+      <c r="W528">
+        <v>34</v>
+      </c>
+      <c r="X528">
+        <v>70.2</v>
+      </c>
+      <c r="Y528">
+        <v>19</v>
+      </c>
+      <c r="Z528">
+        <v>60</v>
+      </c>
+      <c r="AA528">
+        <v>10</v>
+      </c>
+      <c r="AB528">
+        <v>59.1</v>
+      </c>
+      <c r="AC528">
         <v>14</v>
-      </c>
-      <c r="R528">
-        <v>61.8</v>
-      </c>
-      <c r="S528">
-        <v>31</v>
-      </c>
-      <c r="T528">
-        <v>56.6</v>
-      </c>
-      <c r="U528">
-        <v>16</v>
-      </c>
-      <c r="V528">
-        <v>56.8</v>
-      </c>
-      <c r="W528">
-        <v>15</v>
-      </c>
-      <c r="X528">
-        <v>57.4</v>
-      </c>
-      <c r="Y528">
-        <v>25</v>
-      </c>
-      <c r="Z528">
-        <v>57.7</v>
-      </c>
-      <c r="AA528">
-        <v>16</v>
-      </c>
-      <c r="AB528">
-        <v>60</v>
-      </c>
-      <c r="AC528">
-        <v>15</v>
       </c>
     </row>
     <row r="529" spans="1:29" x14ac:dyDescent="0.25">
@@ -39522,7 +39534,7 @@
         <v>28</v>
       </c>
       <c r="C529">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D529" t="s">
         <v>29</v>
@@ -39531,10 +39543,10 @@
         <v>100</v>
       </c>
       <c r="F529">
-        <v>53.9</v>
+        <v>53.6</v>
       </c>
       <c r="G529">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="H529">
         <v>100</v>
@@ -39546,25 +39558,25 @@
         <v>53.4</v>
       </c>
       <c r="K529">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L529">
         <v>53.6</v>
       </c>
       <c r="M529">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N529">
-        <v>78.900000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="O529">
         <v>18</v>
       </c>
       <c r="P529">
-        <v>50.2</v>
+        <v>50.9</v>
       </c>
       <c r="Q529">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="530" spans="1:29" x14ac:dyDescent="0.25">
@@ -39575,7 +39587,7 @@
         <v>28</v>
       </c>
       <c r="C530">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D530" t="s">
         <v>30</v>
@@ -39584,10 +39596,10 @@
         <v>100</v>
       </c>
       <c r="F530">
-        <v>59.3</v>
+        <v>57.4</v>
       </c>
       <c r="G530">
-        <v>88</v>
+        <v>90.2</v>
       </c>
       <c r="H530">
         <v>100</v>
@@ -39596,57 +39608,63 @@
         <v>100</v>
       </c>
       <c r="J530">
-        <v>70.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="K530">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L530">
-        <v>72</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="M530">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N530">
-        <v>68.099999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="O530">
+        <v>25</v>
+      </c>
+      <c r="P530">
+        <v>63.7</v>
+      </c>
+      <c r="Q530">
+        <v>36</v>
+      </c>
+      <c r="R530">
+        <v>59.6</v>
+      </c>
+      <c r="S530">
+        <v>38</v>
+      </c>
+      <c r="T530">
+        <v>50.4</v>
+      </c>
+      <c r="U530">
+        <v>16</v>
+      </c>
+      <c r="V530">
+        <v>62.2</v>
+      </c>
+      <c r="W530">
+        <v>41</v>
+      </c>
+      <c r="X530">
+        <v>58.2</v>
+      </c>
+      <c r="Y530">
         <v>12</v>
-      </c>
-      <c r="P530">
-        <v>59</v>
-      </c>
-      <c r="Q530">
-        <v>27</v>
-      </c>
-      <c r="R530">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="S530">
-        <v>10</v>
-      </c>
-      <c r="T530">
-        <v>55.8</v>
-      </c>
-      <c r="U530">
-        <v>64</v>
-      </c>
-      <c r="V530">
-        <v>61</v>
-      </c>
-      <c r="W530">
-        <v>40</v>
-      </c>
-      <c r="X530">
-        <v>61</v>
-      </c>
-      <c r="Y530">
-        <v>18</v>
       </c>
       <c r="Z530">
         <v>46.7</v>
       </c>
       <c r="AA530">
+        <v>10</v>
+      </c>
+      <c r="AB530">
+        <v>44.9</v>
+      </c>
+      <c r="AC530">
         <v>10</v>
       </c>
     </row>
@@ -39658,7 +39676,7 @@
         <v>28</v>
       </c>
       <c r="C531">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D531" t="s">
         <v>26</v>
@@ -39667,10 +39685,10 @@
         <v>100</v>
       </c>
       <c r="F531">
-        <v>60.7</v>
+        <v>56.5</v>
       </c>
       <c r="G531">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="H531">
         <v>100</v>
@@ -39679,64 +39697,64 @@
         <v>100</v>
       </c>
       <c r="J531">
-        <v>68.400000000000006</v>
+        <v>60.1</v>
       </c>
       <c r="K531">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L531">
-        <v>68</v>
+        <v>60.2</v>
       </c>
       <c r="M531">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N531">
-        <v>69.099999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="O531">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P531">
-        <v>67.3</v>
+        <v>65.5</v>
       </c>
       <c r="Q531">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="R531">
-        <v>68</v>
+        <v>61.8</v>
       </c>
       <c r="S531">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T531">
-        <v>59.6</v>
+        <v>56.6</v>
       </c>
       <c r="U531">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V531">
-        <v>60.8</v>
+        <v>56.8</v>
       </c>
       <c r="W531">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X531">
-        <v>62.1</v>
+        <v>57.4</v>
       </c>
       <c r="Y531">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Z531">
-        <v>62.6</v>
+        <v>57.7</v>
       </c>
       <c r="AA531">
         <v>16</v>
       </c>
       <c r="AB531">
-        <v>63.4</v>
+        <v>60</v>
       </c>
       <c r="AC531">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532" spans="1:29" x14ac:dyDescent="0.25">
@@ -39747,7 +39765,7 @@
         <v>28</v>
       </c>
       <c r="C532">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D532" t="s">
         <v>29</v>
@@ -39756,10 +39774,10 @@
         <v>100</v>
       </c>
       <c r="F532">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="G532">
-        <v>83</v>
+        <v>83.5</v>
       </c>
       <c r="H532">
         <v>100</v>
@@ -39768,13 +39786,13 @@
         <v>100</v>
       </c>
       <c r="J532">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="K532">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L532">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="M532">
         <v>89</v>
@@ -39786,10 +39804,10 @@
         <v>18</v>
       </c>
       <c r="P532">
-        <v>51.1</v>
+        <v>50.2</v>
       </c>
       <c r="Q532">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="533" spans="1:29" x14ac:dyDescent="0.25">
@@ -39800,7 +39818,7 @@
         <v>28</v>
       </c>
       <c r="C533">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D533" t="s">
         <v>30</v>
@@ -39809,10 +39827,10 @@
         <v>100</v>
       </c>
       <c r="F533">
-        <v>59.9</v>
+        <v>59.3</v>
       </c>
       <c r="G533">
-        <v>89.9</v>
+        <v>88</v>
       </c>
       <c r="H533">
         <v>100</v>
@@ -39821,58 +39839,58 @@
         <v>100</v>
       </c>
       <c r="J533">
-        <v>59.6</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K533">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L533">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M533">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N533">
-        <v>65</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="O533">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P533">
-        <v>65.599999999999994</v>
+        <v>59</v>
       </c>
       <c r="Q533">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="R533">
-        <v>56.3</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="S533">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T533">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="U533">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="V533">
-        <v>57.8</v>
+        <v>61</v>
       </c>
       <c r="W533">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="X533">
-        <v>63.3</v>
+        <v>61</v>
       </c>
       <c r="Y533">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z533">
-        <v>67.8</v>
+        <v>46.7</v>
       </c>
       <c r="AA533">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534" spans="1:29" x14ac:dyDescent="0.25">
@@ -39883,82 +39901,82 @@
         <v>28</v>
       </c>
       <c r="C534">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D534" t="s">
         <v>26</v>
       </c>
       <c r="E534">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="F534">
-        <v>57.3</v>
+        <v>60.7</v>
       </c>
       <c r="G534">
         <v>99.7</v>
       </c>
       <c r="H534">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="I534">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="J534">
-        <v>57.1</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K534">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L534">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M534">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N534">
-        <v>57.2</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="O534">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P534">
-        <v>57</v>
+        <v>67.3</v>
       </c>
       <c r="Q534">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R534">
-        <v>56.3</v>
+        <v>68</v>
       </c>
       <c r="S534">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="T534">
-        <v>64.3</v>
+        <v>59.6</v>
       </c>
       <c r="U534">
+        <v>21</v>
+      </c>
+      <c r="V534">
+        <v>60.8</v>
+      </c>
+      <c r="W534">
+        <v>19</v>
+      </c>
+      <c r="X534">
+        <v>62.1</v>
+      </c>
+      <c r="Y534">
+        <v>18</v>
+      </c>
+      <c r="Z534">
+        <v>62.6</v>
+      </c>
+      <c r="AA534">
         <v>16</v>
       </c>
-      <c r="V534">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="W534">
-        <v>16</v>
-      </c>
-      <c r="X534">
-        <v>64.8</v>
-      </c>
-      <c r="Y534">
-        <v>15</v>
-      </c>
-      <c r="Z534">
-        <v>65</v>
-      </c>
-      <c r="AA534">
-        <v>15</v>
-      </c>
       <c r="AB534">
-        <v>64.900000000000006</v>
+        <v>63.4</v>
       </c>
       <c r="AC534">
         <v>14</v>
@@ -39972,7 +39990,7 @@
         <v>28</v>
       </c>
       <c r="C535">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D535" t="s">
         <v>29</v>
@@ -39984,7 +40002,7 @@
         <v>53.7</v>
       </c>
       <c r="G535">
-        <v>81.099999999999994</v>
+        <v>83</v>
       </c>
       <c r="H535">
         <v>100</v>
@@ -40002,19 +40020,19 @@
         <v>53.5</v>
       </c>
       <c r="M535">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N535">
-        <v>78.7</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="O535">
         <v>18</v>
       </c>
       <c r="P535">
-        <v>54.7</v>
+        <v>51.1</v>
       </c>
       <c r="Q535">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:29" x14ac:dyDescent="0.25">
@@ -40025,7 +40043,7 @@
         <v>28</v>
       </c>
       <c r="C536">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D536" t="s">
         <v>30</v>
@@ -40034,10 +40052,10 @@
         <v>100</v>
       </c>
       <c r="F536">
-        <v>58.8</v>
+        <v>59.9</v>
       </c>
       <c r="G536">
-        <v>89.4</v>
+        <v>89.9</v>
       </c>
       <c r="H536">
         <v>100</v>
@@ -40046,58 +40064,58 @@
         <v>100</v>
       </c>
       <c r="J536">
-        <v>68.400000000000006</v>
+        <v>59.6</v>
       </c>
       <c r="K536">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L536">
-        <v>73.900000000000006</v>
+        <v>65</v>
       </c>
       <c r="M536">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N536">
-        <v>63.2</v>
+        <v>65</v>
       </c>
       <c r="O536">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P536">
-        <v>63</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="Q536">
         <v>12</v>
       </c>
       <c r="R536">
-        <v>72.599999999999994</v>
+        <v>56.3</v>
       </c>
       <c r="S536">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="T536">
-        <v>62.4</v>
+        <v>55.1</v>
       </c>
       <c r="U536">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="V536">
         <v>57.8</v>
       </c>
       <c r="W536">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="X536">
-        <v>62.6</v>
+        <v>63.3</v>
       </c>
       <c r="Y536">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z536">
-        <v>72.2</v>
+        <v>67.8</v>
       </c>
       <c r="AA536">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537" spans="1:29" x14ac:dyDescent="0.25">
@@ -40105,88 +40123,88 @@
         <v>55</v>
       </c>
       <c r="B537" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C537">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D537" t="s">
         <v>26</v>
       </c>
       <c r="E537">
+        <v>99.6</v>
+      </c>
+      <c r="F537">
+        <v>57.3</v>
+      </c>
+      <c r="G537">
         <v>99.7</v>
-      </c>
-      <c r="F537">
-        <v>55.8</v>
-      </c>
-      <c r="G537">
-        <v>100</v>
       </c>
       <c r="H537">
         <v>99.7</v>
       </c>
       <c r="I537">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="J537">
-        <v>70.900000000000006</v>
+        <v>57.1</v>
       </c>
       <c r="K537">
+        <v>39</v>
+      </c>
+      <c r="L537">
+        <v>57</v>
+      </c>
+      <c r="M537">
+        <v>38</v>
+      </c>
+      <c r="N537">
+        <v>57.2</v>
+      </c>
+      <c r="O537">
+        <v>37</v>
+      </c>
+      <c r="P537">
+        <v>57</v>
+      </c>
+      <c r="Q537">
+        <v>36</v>
+      </c>
+      <c r="R537">
+        <v>56.3</v>
+      </c>
+      <c r="S537">
+        <v>64</v>
+      </c>
+      <c r="T537">
+        <v>64.3</v>
+      </c>
+      <c r="U537">
         <v>16</v>
       </c>
-      <c r="L537">
-        <v>72</v>
-      </c>
-      <c r="M537">
+      <c r="V537">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W537">
         <v>16</v>
       </c>
-      <c r="N537">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="O537">
+      <c r="X537">
+        <v>64.8</v>
+      </c>
+      <c r="Y537">
         <v>15</v>
       </c>
-      <c r="P537">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="Q537">
+      <c r="Z537">
+        <v>65</v>
+      </c>
+      <c r="AA537">
         <v>15</v>
       </c>
-      <c r="R537">
-        <v>72.2</v>
-      </c>
-      <c r="S537">
-        <v>15</v>
-      </c>
-      <c r="T537">
-        <v>54.2</v>
-      </c>
-      <c r="U537">
-        <v>35</v>
-      </c>
-      <c r="V537">
-        <v>54.7</v>
-      </c>
-      <c r="W537">
-        <v>42</v>
-      </c>
-      <c r="X537">
-        <v>54.8</v>
-      </c>
-      <c r="Y537">
-        <v>40</v>
-      </c>
-      <c r="Z537">
-        <v>55.4</v>
-      </c>
-      <c r="AA537">
-        <v>35</v>
-      </c>
       <c r="AB537">
-        <v>55.4</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AC537">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="538" spans="1:29" x14ac:dyDescent="0.25">
@@ -40194,10 +40212,10 @@
         <v>55</v>
       </c>
       <c r="B538" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C538">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D538" t="s">
         <v>29</v>
@@ -40206,10 +40224,10 @@
         <v>100</v>
       </c>
       <c r="F538">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="G538">
-        <v>72.599999999999994</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="H538">
         <v>100</v>
@@ -40218,46 +40236,28 @@
         <v>100</v>
       </c>
       <c r="J538">
-        <v>61.6</v>
+        <v>53.5</v>
       </c>
       <c r="K538">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="L538">
-        <v>60.8</v>
+        <v>53.5</v>
       </c>
       <c r="M538">
-        <v>10</v>
-      </c>
-      <c r="T538">
-        <v>50.5</v>
-      </c>
-      <c r="U538">
-        <v>74</v>
-      </c>
-      <c r="V538">
-        <v>51.4</v>
-      </c>
-      <c r="W538">
-        <v>69</v>
-      </c>
-      <c r="X538">
-        <v>55.1</v>
-      </c>
-      <c r="Y538">
-        <v>59</v>
-      </c>
-      <c r="Z538">
-        <v>61.3</v>
-      </c>
-      <c r="AA538">
+        <v>88</v>
+      </c>
+      <c r="N538">
+        <v>78.7</v>
+      </c>
+      <c r="O538">
         <v>18</v>
       </c>
-      <c r="AB538">
-        <v>60.3</v>
-      </c>
-      <c r="AC538">
-        <v>16</v>
+      <c r="P538">
+        <v>54.7</v>
+      </c>
+      <c r="Q538">
+        <v>10</v>
       </c>
     </row>
     <row r="539" spans="1:29" x14ac:dyDescent="0.25">
@@ -40265,22 +40265,22 @@
         <v>55</v>
       </c>
       <c r="B539" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C539">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D539" t="s">
         <v>30</v>
       </c>
       <c r="E539">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F539">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
       <c r="G539">
-        <v>100</v>
+        <v>89.4</v>
       </c>
       <c r="H539">
         <v>100</v>
@@ -40289,64 +40289,58 @@
         <v>100</v>
       </c>
       <c r="J539">
-        <v>63.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K539">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L539">
-        <v>66.400000000000006</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="M539">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N539">
-        <v>64.3</v>
+        <v>63.2</v>
       </c>
       <c r="O539">
+        <v>33</v>
+      </c>
+      <c r="P539">
+        <v>63</v>
+      </c>
+      <c r="Q539">
+        <v>12</v>
+      </c>
+      <c r="R539">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="S539">
+        <v>16</v>
+      </c>
+      <c r="T539">
+        <v>62.4</v>
+      </c>
+      <c r="U539">
+        <v>15</v>
+      </c>
+      <c r="V539">
+        <v>57.8</v>
+      </c>
+      <c r="W539">
         <v>23</v>
       </c>
-      <c r="P539">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="Q539">
-        <v>23</v>
-      </c>
-      <c r="R539">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="S539">
-        <v>19</v>
-      </c>
-      <c r="T539">
-        <v>54.7</v>
-      </c>
-      <c r="U539">
-        <v>54</v>
-      </c>
-      <c r="V539">
-        <v>59.9</v>
-      </c>
-      <c r="W539">
-        <v>45</v>
-      </c>
       <c r="X539">
-        <v>55.1</v>
+        <v>62.6</v>
       </c>
       <c r="Y539">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="Z539">
-        <v>57.4</v>
+        <v>72.2</v>
       </c>
       <c r="AA539">
-        <v>39</v>
-      </c>
-      <c r="AB539">
-        <v>58.1</v>
-      </c>
-      <c r="AC539">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540" spans="1:29" x14ac:dyDescent="0.25">
@@ -40357,85 +40351,85 @@
         <v>33</v>
       </c>
       <c r="C540">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D540" t="s">
         <v>26</v>
       </c>
       <c r="E540">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F540">
-        <v>60.8</v>
+        <v>57.9</v>
       </c>
       <c r="G540">
         <v>100</v>
       </c>
       <c r="H540">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="I540">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="J540">
-        <v>73.2</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K540">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L540">
-        <v>73.7</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="M540">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N540">
-        <v>73.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="O540">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P540">
-        <v>73.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="Q540">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R540">
-        <v>73.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="S540">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="T540">
-        <v>57.3</v>
+        <v>63.8</v>
       </c>
       <c r="U540">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="V540">
-        <v>57.9</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="W540">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="X540">
-        <v>59.4</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="Y540">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Z540">
-        <v>60.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AA540">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AB540">
-        <v>62.8</v>
+        <v>57.5</v>
       </c>
       <c r="AC540">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="541" spans="1:29" x14ac:dyDescent="0.25">
@@ -40446,7 +40440,7 @@
         <v>33</v>
       </c>
       <c r="C541">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D541" t="s">
         <v>29</v>
@@ -40455,10 +40449,10 @@
         <v>100</v>
       </c>
       <c r="F541">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="G541">
-        <v>70.3</v>
+        <v>73.8</v>
       </c>
       <c r="H541">
         <v>100</v>
@@ -40467,46 +40461,46 @@
         <v>100</v>
       </c>
       <c r="J541">
-        <v>62.2</v>
+        <v>61.7</v>
       </c>
       <c r="K541">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L541">
-        <v>62.2</v>
+        <v>60</v>
       </c>
       <c r="M541">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T541">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="U541">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V541">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="W541">
         <v>69</v>
       </c>
       <c r="X541">
-        <v>54.2</v>
+        <v>52</v>
       </c>
       <c r="Y541">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Z541">
-        <v>61.4</v>
+        <v>56.1</v>
       </c>
       <c r="AA541">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AB541">
-        <v>60</v>
+        <v>49.4</v>
       </c>
       <c r="AC541">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:29" x14ac:dyDescent="0.25">
@@ -40517,16 +40511,16 @@
         <v>33</v>
       </c>
       <c r="C542">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D542" t="s">
         <v>30</v>
       </c>
       <c r="E542">
-        <v>99.9</v>
+        <v>95.9</v>
       </c>
       <c r="F542">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="G542">
         <v>100</v>
@@ -40535,67 +40529,67 @@
         <v>100</v>
       </c>
       <c r="I542">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="J542">
-        <v>87.1</v>
+        <v>83.3</v>
       </c>
       <c r="K542">
         <v>11</v>
       </c>
       <c r="L542">
-        <v>61.5</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="M542">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N542">
-        <v>60.4</v>
+        <v>66.2</v>
       </c>
       <c r="O542">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P542">
-        <v>54.5</v>
+        <v>63.4</v>
       </c>
       <c r="Q542">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R542">
-        <v>53.9</v>
+        <v>64</v>
       </c>
       <c r="S542">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T542">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="U542">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="V542">
-        <v>50.8</v>
+        <v>51.4</v>
       </c>
       <c r="W542">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="X542">
-        <v>56</v>
+        <v>53.4</v>
       </c>
       <c r="Y542">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Z542">
-        <v>62.4</v>
+        <v>55.3</v>
       </c>
       <c r="AA542">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB542">
-        <v>74.7</v>
+        <v>57</v>
       </c>
       <c r="AC542">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="543" spans="1:29" x14ac:dyDescent="0.25">
@@ -40606,85 +40600,85 @@
         <v>33</v>
       </c>
       <c r="C543">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D543" t="s">
         <v>26</v>
       </c>
       <c r="E543">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="F543">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="G543">
         <v>100</v>
       </c>
       <c r="H543">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="I543">
         <v>100</v>
       </c>
       <c r="J543">
-        <v>70.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K543">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L543">
-        <v>64.5</v>
+        <v>72</v>
       </c>
       <c r="M543">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N543">
-        <v>64.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="O543">
         <v>15</v>
       </c>
       <c r="P543">
-        <v>64.400000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="Q543">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R543">
-        <v>69.2</v>
+        <v>72.2</v>
       </c>
       <c r="S543">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T543">
-        <v>56.2</v>
+        <v>54.2</v>
       </c>
       <c r="U543">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="V543">
-        <v>59.8</v>
+        <v>54.7</v>
       </c>
       <c r="W543">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="X543">
-        <v>54.2</v>
+        <v>54.8</v>
       </c>
       <c r="Y543">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Z543">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="AA543">
         <v>35</v>
       </c>
       <c r="AB543">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="AC543">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="544" spans="1:29" x14ac:dyDescent="0.25">
@@ -40695,7 +40689,7 @@
         <v>33</v>
       </c>
       <c r="C544">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D544" t="s">
         <v>29</v>
@@ -40704,10 +40698,10 @@
         <v>100</v>
       </c>
       <c r="F544">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="G544">
-        <v>66.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H544">
         <v>100</v>
@@ -40716,46 +40710,46 @@
         <v>100</v>
       </c>
       <c r="J544">
-        <v>62.6</v>
+        <v>61.6</v>
       </c>
       <c r="K544">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L544">
-        <v>59.6</v>
+        <v>60.8</v>
       </c>
       <c r="M544">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T544">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="U544">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V544">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="W544">
         <v>69</v>
       </c>
       <c r="X544">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
       <c r="Y544">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Z544">
-        <v>62.3</v>
+        <v>61.3</v>
       </c>
       <c r="AA544">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB544">
-        <v>53.4</v>
+        <v>60.3</v>
       </c>
       <c r="AC544">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="545" spans="1:29" x14ac:dyDescent="0.25">
@@ -40766,19 +40760,19 @@
         <v>33</v>
       </c>
       <c r="C545">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D545" t="s">
         <v>30</v>
       </c>
       <c r="E545">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F545">
-        <v>53.2</v>
+        <v>58.2</v>
       </c>
       <c r="G545">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="H545">
         <v>100</v>
@@ -40787,64 +40781,64 @@
         <v>100</v>
       </c>
       <c r="J545">
-        <v>72.5</v>
+        <v>63.8</v>
       </c>
       <c r="K545">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L545">
-        <v>70.7</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="M545">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N545">
-        <v>59.1</v>
+        <v>64.3</v>
       </c>
       <c r="O545">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P545">
-        <v>63.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="Q545">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="R545">
-        <v>59.7</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="S545">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T545">
-        <v>55.4</v>
+        <v>54.7</v>
       </c>
       <c r="U545">
+        <v>54</v>
+      </c>
+      <c r="V545">
+        <v>59.9</v>
+      </c>
+      <c r="W545">
+        <v>45</v>
+      </c>
+      <c r="X545">
+        <v>55.1</v>
+      </c>
+      <c r="Y545">
+        <v>36</v>
+      </c>
+      <c r="Z545">
+        <v>57.4</v>
+      </c>
+      <c r="AA545">
+        <v>39</v>
+      </c>
+      <c r="AB545">
+        <v>58.1</v>
+      </c>
+      <c r="AC545">
         <v>24</v>
-      </c>
-      <c r="V545">
-        <v>55.1</v>
-      </c>
-      <c r="W545">
-        <v>72</v>
-      </c>
-      <c r="X545">
-        <v>58.6</v>
-      </c>
-      <c r="Y545">
-        <v>22</v>
-      </c>
-      <c r="Z545">
-        <v>68.2</v>
-      </c>
-      <c r="AA545">
-        <v>23</v>
-      </c>
-      <c r="AB545">
-        <v>72</v>
-      </c>
-      <c r="AC545">
-        <v>10</v>
       </c>
     </row>
     <row r="546" spans="1:29" x14ac:dyDescent="0.25">
@@ -40855,85 +40849,85 @@
         <v>33</v>
       </c>
       <c r="C546">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D546" t="s">
         <v>26</v>
       </c>
       <c r="E546">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F546">
-        <v>58.7</v>
+        <v>60.8</v>
       </c>
       <c r="G546">
         <v>100</v>
       </c>
       <c r="H546">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I546">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J546">
-        <v>80.3</v>
+        <v>73.2</v>
       </c>
       <c r="K546">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L546">
-        <v>80.7</v>
+        <v>73.7</v>
       </c>
       <c r="M546">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N546">
-        <v>81.7</v>
+        <v>73.7</v>
       </c>
       <c r="O546">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P546">
-        <v>81.7</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="Q546">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R546">
-        <v>81.900000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="S546">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T546">
-        <v>53.7</v>
+        <v>57.3</v>
       </c>
       <c r="U546">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="V546">
-        <v>53.6</v>
+        <v>57.9</v>
       </c>
       <c r="W546">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="X546">
-        <v>53.5</v>
+        <v>59.4</v>
       </c>
       <c r="Y546">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Z546">
-        <v>53.6</v>
+        <v>60.6</v>
       </c>
       <c r="AA546">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AB546">
-        <v>54.9</v>
+        <v>62.8</v>
       </c>
       <c r="AC546">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="547" spans="1:29" x14ac:dyDescent="0.25">
@@ -40944,7 +40938,7 @@
         <v>33</v>
       </c>
       <c r="C547">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D547" t="s">
         <v>29</v>
@@ -40953,10 +40947,10 @@
         <v>100</v>
       </c>
       <c r="F547">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="G547">
-        <v>65.7</v>
+        <v>70.3</v>
       </c>
       <c r="H547">
         <v>100</v>
@@ -40965,40 +40959,46 @@
         <v>100</v>
       </c>
       <c r="J547">
-        <v>66.3</v>
+        <v>62.2</v>
       </c>
       <c r="K547">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L547">
-        <v>68.599999999999994</v>
+        <v>62.2</v>
       </c>
       <c r="M547">
         <v>11</v>
       </c>
       <c r="T547">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="U547">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V547">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="W547">
         <v>69</v>
       </c>
       <c r="X547">
-        <v>59.9</v>
+        <v>54.2</v>
       </c>
       <c r="Y547">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="Z547">
-        <v>68.599999999999994</v>
+        <v>61.4</v>
       </c>
       <c r="AA547">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="AB547">
+        <v>60</v>
+      </c>
+      <c r="AC547">
+        <v>16</v>
       </c>
     </row>
     <row r="548" spans="1:29" x14ac:dyDescent="0.25">
@@ -41009,19 +41009,19 @@
         <v>33</v>
       </c>
       <c r="C548">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D548" t="s">
         <v>30</v>
       </c>
       <c r="E548">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="F548">
-        <v>57.7</v>
+        <v>53.9</v>
       </c>
       <c r="G548">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="H548">
         <v>100</v>
@@ -41030,153 +41030,153 @@
         <v>100</v>
       </c>
       <c r="J548">
-        <v>78.8</v>
+        <v>87.1</v>
       </c>
       <c r="K548">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L548">
-        <v>77.2</v>
+        <v>61.5</v>
       </c>
       <c r="M548">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N548">
-        <v>69.8</v>
+        <v>60.4</v>
       </c>
       <c r="O548">
+        <v>21</v>
+      </c>
+      <c r="P548">
+        <v>54.5</v>
+      </c>
+      <c r="Q548">
+        <v>10</v>
+      </c>
+      <c r="R548">
+        <v>53.9</v>
+      </c>
+      <c r="S548">
+        <v>10</v>
+      </c>
+      <c r="T548">
+        <v>51.6</v>
+      </c>
+      <c r="U548">
+        <v>89</v>
+      </c>
+      <c r="V548">
+        <v>50.8</v>
+      </c>
+      <c r="W548">
+        <v>73</v>
+      </c>
+      <c r="X548">
+        <v>56</v>
+      </c>
+      <c r="Y548">
+        <v>52</v>
+      </c>
+      <c r="Z548">
+        <v>62.4</v>
+      </c>
+      <c r="AA548">
+        <v>14</v>
+      </c>
+      <c r="AB548">
+        <v>74.7</v>
+      </c>
+      <c r="AC548">
         <v>11</v>
-      </c>
-      <c r="P548">
-        <v>60.6</v>
-      </c>
-      <c r="Q548">
-        <v>13</v>
-      </c>
-      <c r="R548">
-        <v>60.2</v>
-      </c>
-      <c r="S548">
-        <v>12</v>
-      </c>
-      <c r="T548">
-        <v>54.2</v>
-      </c>
-      <c r="U548">
-        <v>75</v>
-      </c>
-      <c r="V548">
-        <v>60.9</v>
-      </c>
-      <c r="W548">
-        <v>31</v>
-      </c>
-      <c r="X548">
-        <v>69.7</v>
-      </c>
-      <c r="Y548">
-        <v>18</v>
-      </c>
-      <c r="Z548">
-        <v>75.8</v>
-      </c>
-      <c r="AA548">
-        <v>12</v>
-      </c>
-      <c r="AB548">
-        <v>76.3</v>
-      </c>
-      <c r="AC548">
-        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>55</v>
       </c>
-      <c r="B549" s="3" t="s">
-        <v>34</v>
+      <c r="B549" t="s">
+        <v>33</v>
       </c>
       <c r="C549">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D549" t="s">
         <v>26</v>
       </c>
       <c r="E549">
-        <v>97.5</v>
+        <v>99.9</v>
       </c>
       <c r="F549">
-        <v>60.7</v>
+        <v>55.4</v>
       </c>
       <c r="G549">
         <v>100</v>
       </c>
       <c r="H549">
-        <v>97.6</v>
+        <v>100</v>
       </c>
       <c r="I549">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="J549">
-        <v>76</v>
+        <v>70.3</v>
       </c>
       <c r="K549">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L549">
-        <v>77.2</v>
+        <v>64.5</v>
       </c>
       <c r="M549">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N549">
-        <v>74.7</v>
+        <v>64.5</v>
       </c>
       <c r="O549">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P549">
-        <v>77.900000000000006</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="Q549">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R549">
-        <v>77.599999999999994</v>
+        <v>69.2</v>
       </c>
       <c r="S549">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T549">
-        <v>58.5</v>
+        <v>56.2</v>
       </c>
       <c r="U549">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="V549">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="W549">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="X549">
-        <v>63.3</v>
+        <v>54.2</v>
       </c>
       <c r="Y549">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Z549">
-        <v>67</v>
+        <v>56.9</v>
       </c>
       <c r="AA549">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AB549">
-        <v>69.3</v>
+        <v>55.5</v>
       </c>
       <c r="AC549">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="550" spans="1:29" x14ac:dyDescent="0.25">
@@ -41184,10 +41184,10 @@
         <v>55</v>
       </c>
       <c r="B550" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C550">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D550" t="s">
         <v>29</v>
@@ -41196,10 +41196,10 @@
         <v>100</v>
       </c>
       <c r="F550">
-        <v>55.3</v>
+        <v>53.5</v>
       </c>
       <c r="G550">
-        <v>70</v>
+        <v>66.3</v>
       </c>
       <c r="H550">
         <v>100</v>
@@ -41208,52 +41208,46 @@
         <v>100</v>
       </c>
       <c r="J550">
-        <v>63.2</v>
+        <v>62.6</v>
       </c>
       <c r="K550">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L550">
-        <v>68.099999999999994</v>
+        <v>59.6</v>
       </c>
       <c r="M550">
-        <v>21</v>
-      </c>
-      <c r="N550">
-        <v>72</v>
-      </c>
-      <c r="O550">
-        <v>10</v>
-      </c>
-      <c r="P550">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="Q550">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T550">
-        <v>51.9</v>
+        <v>50.6</v>
       </c>
       <c r="U550">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V550">
-        <v>52.7</v>
+        <v>51.3</v>
       </c>
       <c r="W550">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X550">
-        <v>64</v>
+        <v>56.2</v>
       </c>
       <c r="Y550">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Z550">
-        <v>58</v>
+        <v>62.3</v>
       </c>
       <c r="AA550">
         <v>21</v>
+      </c>
+      <c r="AB550">
+        <v>53.4</v>
+      </c>
+      <c r="AC550">
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:29" x14ac:dyDescent="0.25">
@@ -41261,82 +41255,88 @@
         <v>55</v>
       </c>
       <c r="B551" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C551">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D551" t="s">
         <v>30</v>
       </c>
       <c r="E551">
-        <v>97.6</v>
+        <v>100</v>
       </c>
       <c r="F551">
-        <v>61.1</v>
+        <v>53.2</v>
       </c>
       <c r="G551">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="H551">
         <v>100</v>
       </c>
       <c r="I551">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="J551">
-        <v>76.900000000000006</v>
+        <v>72.5</v>
       </c>
       <c r="K551">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L551">
-        <v>76.7</v>
+        <v>70.7</v>
       </c>
       <c r="M551">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N551">
-        <v>75.2</v>
+        <v>59.1</v>
       </c>
       <c r="O551">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P551">
-        <v>73.7</v>
+        <v>63.6</v>
       </c>
       <c r="Q551">
         <v>10</v>
       </c>
+      <c r="R551">
+        <v>59.7</v>
+      </c>
+      <c r="S551">
+        <v>10</v>
+      </c>
       <c r="T551">
-        <v>58.7</v>
+        <v>55.4</v>
       </c>
       <c r="U551">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="V551">
-        <v>69.2</v>
+        <v>55.1</v>
       </c>
       <c r="W551">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="X551">
-        <v>68.7</v>
+        <v>58.6</v>
       </c>
       <c r="Y551">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z551">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="AA551">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB551">
-        <v>69.900000000000006</v>
+        <v>72</v>
       </c>
       <c r="AC551">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552" spans="1:29" x14ac:dyDescent="0.25">
@@ -41344,88 +41344,88 @@
         <v>55</v>
       </c>
       <c r="B552" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C552">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D552" t="s">
         <v>26</v>
       </c>
       <c r="E552">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="F552">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="G552">
         <v>100</v>
       </c>
       <c r="H552">
-        <v>99.4</v>
+        <v>99.9</v>
       </c>
       <c r="I552">
-        <v>99.4</v>
+        <v>99.7</v>
       </c>
       <c r="J552">
-        <v>69.8</v>
+        <v>80.3</v>
       </c>
       <c r="K552">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L552">
-        <v>67.400000000000006</v>
+        <v>80.7</v>
       </c>
       <c r="M552">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N552">
-        <v>68.599999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="O552">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P552">
-        <v>68.3</v>
+        <v>81.7</v>
       </c>
       <c r="Q552">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R552">
-        <v>70.3</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="S552">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T552">
-        <v>55.3</v>
+        <v>53.7</v>
       </c>
       <c r="U552">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="V552">
-        <v>56.7</v>
+        <v>53.6</v>
       </c>
       <c r="W552">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X552">
-        <v>57.1</v>
+        <v>53.5</v>
       </c>
       <c r="Y552">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="Z552">
-        <v>57.2</v>
+        <v>53.6</v>
       </c>
       <c r="AA552">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB552">
-        <v>58.5</v>
+        <v>54.9</v>
       </c>
       <c r="AC552">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="553" spans="1:29" x14ac:dyDescent="0.25">
@@ -41433,10 +41433,10 @@
         <v>55</v>
       </c>
       <c r="B553" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C553">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D553" t="s">
         <v>29</v>
@@ -41445,10 +41445,10 @@
         <v>100</v>
       </c>
       <c r="F553">
-        <v>55.5</v>
+        <v>54.1</v>
       </c>
       <c r="G553">
-        <v>64.900000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="H553">
         <v>100</v>
@@ -41457,46 +41457,40 @@
         <v>100</v>
       </c>
       <c r="J553">
-        <v>63.6</v>
+        <v>66.3</v>
       </c>
       <c r="K553">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L553">
-        <v>63.4</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M553">
-        <v>22</v>
-      </c>
-      <c r="N553">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="O553">
-        <v>13</v>
-      </c>
-      <c r="P553">
-        <v>62.7</v>
-      </c>
-      <c r="Q553">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T553">
-        <v>52.1</v>
+        <v>51</v>
       </c>
       <c r="U553">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="V553">
-        <v>52.7</v>
+        <v>51.6</v>
       </c>
       <c r="W553">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="X553">
-        <v>60.2</v>
+        <v>59.9</v>
       </c>
       <c r="Y553">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="Z553">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AA553">
+        <v>21</v>
       </c>
     </row>
     <row r="554" spans="1:29" x14ac:dyDescent="0.25">
@@ -41504,22 +41498,22 @@
         <v>55</v>
       </c>
       <c r="B554" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C554">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D554" t="s">
         <v>30</v>
       </c>
       <c r="E554">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F554">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="G554">
-        <v>98.9</v>
+        <v>99.9</v>
       </c>
       <c r="H554">
         <v>100</v>
@@ -41528,153 +41522,153 @@
         <v>100</v>
       </c>
       <c r="J554">
-        <v>79.8</v>
+        <v>78.8</v>
       </c>
       <c r="K554">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L554">
-        <v>79.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="M554">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N554">
-        <v>79.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="O554">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P554">
-        <v>80.8</v>
+        <v>60.6</v>
       </c>
       <c r="Q554">
         <v>13</v>
       </c>
       <c r="R554">
-        <v>81.599999999999994</v>
+        <v>60.2</v>
       </c>
       <c r="S554">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T554">
-        <v>55</v>
+        <v>54.2</v>
       </c>
       <c r="U554">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="V554">
-        <v>60</v>
+        <v>60.9</v>
       </c>
       <c r="W554">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="X554">
-        <v>67.099999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="Y554">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z554">
-        <v>64.400000000000006</v>
+        <v>75.8</v>
       </c>
       <c r="AA554">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AB554">
-        <v>64.7</v>
+        <v>76.3</v>
       </c>
       <c r="AC554">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>55</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C555">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D555" t="s">
         <v>26</v>
       </c>
       <c r="E555">
-        <v>98.9</v>
+        <v>97.3</v>
       </c>
       <c r="F555">
-        <v>57.5</v>
+        <v>64</v>
       </c>
       <c r="G555">
         <v>100</v>
       </c>
       <c r="H555">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="I555">
-        <v>98.7</v>
+        <v>97.4</v>
       </c>
       <c r="J555">
-        <v>65.900000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="K555">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L555">
-        <v>66.2</v>
+        <v>76.5</v>
       </c>
       <c r="M555">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N555">
-        <v>67.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="O555">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P555">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
       <c r="Q555">
+        <v>15</v>
+      </c>
+      <c r="R555">
+        <v>82.8</v>
+      </c>
+      <c r="S555">
         <v>11</v>
       </c>
-      <c r="R555">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="S555">
-        <v>19</v>
-      </c>
       <c r="T555">
-        <v>74.099999999999994</v>
+        <v>59.2</v>
       </c>
       <c r="U555">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="V555">
-        <v>52.8</v>
+        <v>57.9</v>
       </c>
       <c r="W555">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="X555">
-        <v>54.7</v>
+        <v>59.6</v>
       </c>
       <c r="Y555">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z555">
-        <v>53</v>
+        <v>64.2</v>
       </c>
       <c r="AA555">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AB555">
-        <v>53.3</v>
+        <v>66</v>
       </c>
       <c r="AC555">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="556" spans="1:29" x14ac:dyDescent="0.25">
@@ -41685,7 +41679,7 @@
         <v>34</v>
       </c>
       <c r="C556">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D556" t="s">
         <v>29</v>
@@ -41694,10 +41688,10 @@
         <v>100</v>
       </c>
       <c r="F556">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="G556">
-        <v>61</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H556">
         <v>100</v>
@@ -41706,28 +41700,34 @@
         <v>100</v>
       </c>
       <c r="J556">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="K556">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L556">
-        <v>62.9</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="M556">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N556">
-        <v>66.7</v>
+        <v>68.3</v>
       </c>
       <c r="O556">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="P556">
+        <v>67.2</v>
+      </c>
+      <c r="Q556">
+        <v>16</v>
       </c>
       <c r="T556">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="U556">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V556">
         <v>52.3</v>
@@ -41736,16 +41736,16 @@
         <v>66</v>
       </c>
       <c r="X556">
-        <v>58.6</v>
+        <v>62.8</v>
       </c>
       <c r="Y556">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z556">
-        <v>50.6</v>
+        <v>58.9</v>
       </c>
       <c r="AA556">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="557" spans="1:29" x14ac:dyDescent="0.25">
@@ -41756,19 +41756,19 @@
         <v>34</v>
       </c>
       <c r="C557">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D557" t="s">
         <v>30</v>
       </c>
       <c r="E557">
-        <v>100</v>
+        <v>95.4</v>
       </c>
       <c r="F557">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="G557">
-        <v>98.1</v>
+        <v>99.7</v>
       </c>
       <c r="H557">
         <v>100</v>
@@ -41777,153 +41777,153 @@
         <v>100</v>
       </c>
       <c r="J557">
-        <v>70.900000000000006</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K557">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L557">
-        <v>75.900000000000006</v>
+        <v>72</v>
       </c>
       <c r="M557">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N557">
-        <v>74</v>
+        <v>72.5</v>
       </c>
       <c r="O557">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P557">
-        <v>74.099999999999994</v>
+        <v>65.8</v>
       </c>
       <c r="Q557">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="R557">
-        <v>73.099999999999994</v>
+        <v>64.5</v>
       </c>
       <c r="S557">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="T557">
-        <v>54.5</v>
+        <v>58</v>
       </c>
       <c r="U557">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="V557">
-        <v>70.3</v>
+        <v>59.3</v>
       </c>
       <c r="W557">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="X557">
-        <v>69.400000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="Y557">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z557">
-        <v>67.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="AA557">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AB557">
-        <v>65.3</v>
+        <v>70</v>
       </c>
       <c r="AC557">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="558" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>55</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C558">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D558" t="s">
         <v>26</v>
       </c>
       <c r="E558">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="F558">
-        <v>57.9</v>
+        <v>60.7</v>
       </c>
       <c r="G558">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="H558">
-        <v>100</v>
+        <v>97.6</v>
       </c>
       <c r="I558">
-        <v>100</v>
+        <v>97.3</v>
       </c>
       <c r="J558">
-        <v>67.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="K558">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L558">
-        <v>67.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="M558">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N558">
-        <v>67.900000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="O558">
+        <v>10</v>
+      </c>
+      <c r="P558">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Q558">
+        <v>12</v>
+      </c>
+      <c r="R558">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="S558">
+        <v>11</v>
+      </c>
+      <c r="T558">
+        <v>58.5</v>
+      </c>
+      <c r="U558">
+        <v>37</v>
+      </c>
+      <c r="V558">
+        <v>59</v>
+      </c>
+      <c r="W558">
+        <v>53</v>
+      </c>
+      <c r="X558">
+        <v>63.3</v>
+      </c>
+      <c r="Y558">
+        <v>40</v>
+      </c>
+      <c r="Z558">
+        <v>67</v>
+      </c>
+      <c r="AA558">
+        <v>23</v>
+      </c>
+      <c r="AB558">
+        <v>69.3</v>
+      </c>
+      <c r="AC558">
         <v>14</v>
-      </c>
-      <c r="P558">
-        <v>67.5</v>
-      </c>
-      <c r="Q558">
-        <v>27</v>
-      </c>
-      <c r="R558">
-        <v>68</v>
-      </c>
-      <c r="S558">
-        <v>13</v>
-      </c>
-      <c r="T558">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="U558">
-        <v>11</v>
-      </c>
-      <c r="V558">
-        <v>66.3</v>
-      </c>
-      <c r="W558">
-        <v>11</v>
-      </c>
-      <c r="X558">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="Y558">
-        <v>10</v>
-      </c>
-      <c r="Z558">
-        <v>58.9</v>
-      </c>
-      <c r="AA558">
-        <v>16</v>
-      </c>
-      <c r="AB558">
-        <v>59.3</v>
-      </c>
-      <c r="AC558">
-        <v>18</v>
       </c>
     </row>
     <row r="559" spans="1:29" x14ac:dyDescent="0.25">
@@ -41934,7 +41934,7 @@
         <v>34</v>
       </c>
       <c r="C559">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D559" t="s">
         <v>29</v>
@@ -41943,10 +41943,10 @@
         <v>100</v>
       </c>
       <c r="F559">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="G559">
-        <v>56.7</v>
+        <v>70</v>
       </c>
       <c r="H559">
         <v>100</v>
@@ -41961,40 +41961,46 @@
         <v>30</v>
       </c>
       <c r="L559">
-        <v>63.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M559">
         <v>21</v>
       </c>
       <c r="N559">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O559">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P559">
-        <v>60.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="Q559">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T559">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="U559">
         <v>70</v>
       </c>
       <c r="V559">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="W559">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X559">
-        <v>60.8</v>
+        <v>64</v>
       </c>
       <c r="Y559">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="Z559">
+        <v>58</v>
+      </c>
+      <c r="AA559">
+        <v>21</v>
       </c>
     </row>
     <row r="560" spans="1:29" x14ac:dyDescent="0.25">
@@ -42005,84 +42011,825 @@
         <v>34</v>
       </c>
       <c r="C560">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D560" t="s">
         <v>30</v>
       </c>
       <c r="E560">
-        <v>100</v>
+        <v>97.6</v>
       </c>
       <c r="F560">
+        <v>61.1</v>
+      </c>
+      <c r="G560">
+        <v>100</v>
+      </c>
+      <c r="H560">
+        <v>100</v>
+      </c>
+      <c r="I560">
+        <v>98.5</v>
+      </c>
+      <c r="J560">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K560">
+        <v>19</v>
+      </c>
+      <c r="L560">
+        <v>76.7</v>
+      </c>
+      <c r="M560">
+        <v>13</v>
+      </c>
+      <c r="N560">
+        <v>75.2</v>
+      </c>
+      <c r="O560">
+        <v>14</v>
+      </c>
+      <c r="P560">
+        <v>73.7</v>
+      </c>
+      <c r="Q560">
+        <v>10</v>
+      </c>
+      <c r="T560">
         <v>58.7</v>
       </c>
-      <c r="G560">
+      <c r="U560">
+        <v>50</v>
+      </c>
+      <c r="V560">
+        <v>69.2</v>
+      </c>
+      <c r="W560">
+        <v>18</v>
+      </c>
+      <c r="X560">
+        <v>68.7</v>
+      </c>
+      <c r="Y560">
+        <v>25</v>
+      </c>
+      <c r="Z560">
+        <v>68</v>
+      </c>
+      <c r="AA560">
+        <v>12</v>
+      </c>
+      <c r="AB560">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AC560">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>55</v>
+      </c>
+      <c r="B561" t="s">
+        <v>34</v>
+      </c>
+      <c r="C561">
+        <v>25</v>
+      </c>
+      <c r="D561" t="s">
+        <v>26</v>
+      </c>
+      <c r="E561">
+        <v>99.3</v>
+      </c>
+      <c r="F561">
+        <v>58.6</v>
+      </c>
+      <c r="G561">
+        <v>100</v>
+      </c>
+      <c r="H561">
+        <v>99.4</v>
+      </c>
+      <c r="I561">
+        <v>99.4</v>
+      </c>
+      <c r="J561">
+        <v>69.8</v>
+      </c>
+      <c r="K561">
+        <v>11</v>
+      </c>
+      <c r="L561">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M561">
+        <v>23</v>
+      </c>
+      <c r="N561">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O561">
+        <v>15</v>
+      </c>
+      <c r="P561">
+        <v>68.3</v>
+      </c>
+      <c r="Q561">
+        <v>15</v>
+      </c>
+      <c r="R561">
+        <v>70.3</v>
+      </c>
+      <c r="S561">
+        <v>20</v>
+      </c>
+      <c r="T561">
+        <v>55.3</v>
+      </c>
+      <c r="U561">
+        <v>46</v>
+      </c>
+      <c r="V561">
+        <v>56.7</v>
+      </c>
+      <c r="W561">
+        <v>40</v>
+      </c>
+      <c r="X561">
+        <v>57.1</v>
+      </c>
+      <c r="Y561">
+        <v>33</v>
+      </c>
+      <c r="Z561">
+        <v>57.2</v>
+      </c>
+      <c r="AA561">
+        <v>45</v>
+      </c>
+      <c r="AB561">
+        <v>58.5</v>
+      </c>
+      <c r="AC561">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>55</v>
+      </c>
+      <c r="B562" t="s">
+        <v>34</v>
+      </c>
+      <c r="C562">
+        <v>25</v>
+      </c>
+      <c r="D562" t="s">
+        <v>29</v>
+      </c>
+      <c r="E562">
+        <v>100</v>
+      </c>
+      <c r="F562">
+        <v>55.5</v>
+      </c>
+      <c r="G562">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H562">
+        <v>100</v>
+      </c>
+      <c r="I562">
+        <v>100</v>
+      </c>
+      <c r="J562">
+        <v>63.6</v>
+      </c>
+      <c r="K562">
+        <v>30</v>
+      </c>
+      <c r="L562">
+        <v>63.4</v>
+      </c>
+      <c r="M562">
+        <v>22</v>
+      </c>
+      <c r="N562">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O562">
+        <v>13</v>
+      </c>
+      <c r="P562">
+        <v>62.7</v>
+      </c>
+      <c r="Q562">
+        <v>10</v>
+      </c>
+      <c r="T562">
+        <v>52.1</v>
+      </c>
+      <c r="U562">
+        <v>70</v>
+      </c>
+      <c r="V562">
+        <v>52.7</v>
+      </c>
+      <c r="W562">
+        <v>59</v>
+      </c>
+      <c r="X562">
+        <v>60.2</v>
+      </c>
+      <c r="Y562">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="563" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>55</v>
+      </c>
+      <c r="B563" t="s">
+        <v>34</v>
+      </c>
+      <c r="C563">
+        <v>25</v>
+      </c>
+      <c r="D563" t="s">
+        <v>30</v>
+      </c>
+      <c r="E563">
+        <v>99.8</v>
+      </c>
+      <c r="F563">
+        <v>58.8</v>
+      </c>
+      <c r="G563">
+        <v>98.9</v>
+      </c>
+      <c r="H563">
+        <v>100</v>
+      </c>
+      <c r="I563">
+        <v>100</v>
+      </c>
+      <c r="J563">
+        <v>79.8</v>
+      </c>
+      <c r="K563">
+        <v>15</v>
+      </c>
+      <c r="L563">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="M563">
+        <v>14</v>
+      </c>
+      <c r="N563">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="O563">
+        <v>14</v>
+      </c>
+      <c r="P563">
+        <v>80.8</v>
+      </c>
+      <c r="Q563">
+        <v>13</v>
+      </c>
+      <c r="R563">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="S563">
+        <v>11</v>
+      </c>
+      <c r="T563">
+        <v>55</v>
+      </c>
+      <c r="U563">
+        <v>67</v>
+      </c>
+      <c r="V563">
+        <v>60</v>
+      </c>
+      <c r="W563">
+        <v>11</v>
+      </c>
+      <c r="X563">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="Y563">
+        <v>10</v>
+      </c>
+      <c r="Z563">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AA563">
+        <v>32</v>
+      </c>
+      <c r="AB563">
+        <v>64.7</v>
+      </c>
+      <c r="AC563">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>55</v>
+      </c>
+      <c r="B564" t="s">
+        <v>34</v>
+      </c>
+      <c r="C564">
+        <v>35</v>
+      </c>
+      <c r="D564" t="s">
+        <v>26</v>
+      </c>
+      <c r="E564">
+        <v>98.9</v>
+      </c>
+      <c r="F564">
+        <v>57.5</v>
+      </c>
+      <c r="G564">
+        <v>100</v>
+      </c>
+      <c r="H564">
         <v>99</v>
       </c>
-      <c r="H560">
-        <v>100</v>
-      </c>
-      <c r="I560">
-        <v>100</v>
-      </c>
-      <c r="J560">
+      <c r="I564">
+        <v>98.7</v>
+      </c>
+      <c r="J564">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K564">
+        <v>22</v>
+      </c>
+      <c r="L564">
+        <v>66.2</v>
+      </c>
+      <c r="M564">
+        <v>19</v>
+      </c>
+      <c r="N564">
+        <v>67.3</v>
+      </c>
+      <c r="O564">
+        <v>14</v>
+      </c>
+      <c r="P564">
+        <v>66.7</v>
+      </c>
+      <c r="Q564">
+        <v>11</v>
+      </c>
+      <c r="R564">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="S564">
+        <v>19</v>
+      </c>
+      <c r="T564">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="U564">
+        <v>10</v>
+      </c>
+      <c r="V564">
+        <v>52.8</v>
+      </c>
+      <c r="W564">
+        <v>56</v>
+      </c>
+      <c r="X564">
+        <v>54.7</v>
+      </c>
+      <c r="Y564">
+        <v>44</v>
+      </c>
+      <c r="Z564">
+        <v>53</v>
+      </c>
+      <c r="AA564">
+        <v>27</v>
+      </c>
+      <c r="AB564">
+        <v>53.3</v>
+      </c>
+      <c r="AC564">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>55</v>
+      </c>
+      <c r="B565" t="s">
+        <v>34</v>
+      </c>
+      <c r="C565">
+        <v>35</v>
+      </c>
+      <c r="D565" t="s">
+        <v>29</v>
+      </c>
+      <c r="E565">
+        <v>100</v>
+      </c>
+      <c r="F565">
+        <v>55.3</v>
+      </c>
+      <c r="G565">
+        <v>61</v>
+      </c>
+      <c r="H565">
+        <v>100</v>
+      </c>
+      <c r="I565">
+        <v>100</v>
+      </c>
+      <c r="J565">
+        <v>64</v>
+      </c>
+      <c r="K565">
+        <v>28</v>
+      </c>
+      <c r="L565">
+        <v>62.9</v>
+      </c>
+      <c r="M565">
+        <v>21</v>
+      </c>
+      <c r="N565">
+        <v>66.7</v>
+      </c>
+      <c r="O565">
+        <v>14</v>
+      </c>
+      <c r="T565">
+        <v>51.9</v>
+      </c>
+      <c r="U565">
+        <v>72</v>
+      </c>
+      <c r="V565">
+        <v>52.3</v>
+      </c>
+      <c r="W565">
+        <v>66</v>
+      </c>
+      <c r="X565">
+        <v>58.6</v>
+      </c>
+      <c r="Y565">
+        <v>24</v>
+      </c>
+      <c r="Z565">
+        <v>50.6</v>
+      </c>
+      <c r="AA565">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>55</v>
+      </c>
+      <c r="B566" t="s">
+        <v>34</v>
+      </c>
+      <c r="C566">
+        <v>35</v>
+      </c>
+      <c r="D566" t="s">
+        <v>30</v>
+      </c>
+      <c r="E566">
+        <v>100</v>
+      </c>
+      <c r="F566">
+        <v>57</v>
+      </c>
+      <c r="G566">
+        <v>98.1</v>
+      </c>
+      <c r="H566">
+        <v>100</v>
+      </c>
+      <c r="I566">
+        <v>100</v>
+      </c>
+      <c r="J566">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K566">
+        <v>20</v>
+      </c>
+      <c r="L566">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M566">
+        <v>15</v>
+      </c>
+      <c r="N566">
+        <v>74</v>
+      </c>
+      <c r="O566">
+        <v>13</v>
+      </c>
+      <c r="P566">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Q566">
+        <v>14</v>
+      </c>
+      <c r="R566">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="S566">
+        <v>10</v>
+      </c>
+      <c r="T566">
+        <v>54.5</v>
+      </c>
+      <c r="U566">
+        <v>30</v>
+      </c>
+      <c r="V566">
+        <v>70.3</v>
+      </c>
+      <c r="W566">
+        <v>12</v>
+      </c>
+      <c r="X566">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Y566">
+        <v>11</v>
+      </c>
+      <c r="Z566">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AA566">
+        <v>10</v>
+      </c>
+      <c r="AB566">
+        <v>65.3</v>
+      </c>
+      <c r="AC566">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>55</v>
+      </c>
+      <c r="B567" t="s">
+        <v>34</v>
+      </c>
+      <c r="C567">
+        <v>45</v>
+      </c>
+      <c r="D567" t="s">
+        <v>26</v>
+      </c>
+      <c r="E567">
+        <v>100</v>
+      </c>
+      <c r="F567">
+        <v>57.9</v>
+      </c>
+      <c r="G567">
+        <v>99.6</v>
+      </c>
+      <c r="H567">
+        <v>100</v>
+      </c>
+      <c r="I567">
+        <v>100</v>
+      </c>
+      <c r="J567">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K567">
+        <v>27</v>
+      </c>
+      <c r="L567">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M567">
+        <v>27</v>
+      </c>
+      <c r="N567">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="O567">
+        <v>14</v>
+      </c>
+      <c r="P567">
+        <v>67.5</v>
+      </c>
+      <c r="Q567">
+        <v>27</v>
+      </c>
+      <c r="R567">
+        <v>68</v>
+      </c>
+      <c r="S567">
+        <v>13</v>
+      </c>
+      <c r="T567">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="U567">
+        <v>11</v>
+      </c>
+      <c r="V567">
+        <v>66.3</v>
+      </c>
+      <c r="W567">
+        <v>11</v>
+      </c>
+      <c r="X567">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Y567">
+        <v>10</v>
+      </c>
+      <c r="Z567">
+        <v>58.9</v>
+      </c>
+      <c r="AA567">
+        <v>16</v>
+      </c>
+      <c r="AB567">
+        <v>59.3</v>
+      </c>
+      <c r="AC567">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>55</v>
+      </c>
+      <c r="B568" t="s">
+        <v>34</v>
+      </c>
+      <c r="C568">
+        <v>45</v>
+      </c>
+      <c r="D568" t="s">
+        <v>29</v>
+      </c>
+      <c r="E568">
+        <v>100</v>
+      </c>
+      <c r="F568">
+        <v>55.4</v>
+      </c>
+      <c r="G568">
+        <v>56.7</v>
+      </c>
+      <c r="H568">
+        <v>100</v>
+      </c>
+      <c r="I568">
+        <v>100</v>
+      </c>
+      <c r="J568">
+        <v>63.2</v>
+      </c>
+      <c r="K568">
+        <v>30</v>
+      </c>
+      <c r="L568">
+        <v>63.7</v>
+      </c>
+      <c r="M568">
+        <v>21</v>
+      </c>
+      <c r="N568">
+        <v>66</v>
+      </c>
+      <c r="O568">
+        <v>13</v>
+      </c>
+      <c r="P568">
+        <v>60.2</v>
+      </c>
+      <c r="Q568">
+        <v>11</v>
+      </c>
+      <c r="T568">
+        <v>52</v>
+      </c>
+      <c r="U568">
+        <v>70</v>
+      </c>
+      <c r="V568">
+        <v>52.5</v>
+      </c>
+      <c r="W568">
+        <v>66</v>
+      </c>
+      <c r="X568">
+        <v>60.8</v>
+      </c>
+      <c r="Y568">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>55</v>
+      </c>
+      <c r="B569" t="s">
+        <v>34</v>
+      </c>
+      <c r="C569">
+        <v>45</v>
+      </c>
+      <c r="D569" t="s">
+        <v>30</v>
+      </c>
+      <c r="E569">
+        <v>100</v>
+      </c>
+      <c r="F569">
+        <v>58.7</v>
+      </c>
+      <c r="G569">
+        <v>99</v>
+      </c>
+      <c r="H569">
+        <v>100</v>
+      </c>
+      <c r="I569">
+        <v>100</v>
+      </c>
+      <c r="J569">
         <v>70.599999999999994</v>
       </c>
-      <c r="K560">
+      <c r="K569">
         <v>18</v>
       </c>
-      <c r="L560">
+      <c r="L569">
         <v>70.7</v>
       </c>
-      <c r="M560">
+      <c r="M569">
         <v>21</v>
       </c>
-      <c r="N560">
+      <c r="N569">
         <v>69.8</v>
       </c>
-      <c r="O560">
+      <c r="O569">
         <v>18</v>
       </c>
-      <c r="P560">
+      <c r="P569">
         <v>72.099999999999994</v>
       </c>
-      <c r="Q560">
+      <c r="Q569">
         <v>16</v>
       </c>
-      <c r="R560">
+      <c r="R569">
         <v>64</v>
       </c>
-      <c r="S560">
+      <c r="S569">
         <v>14</v>
       </c>
-      <c r="T560">
+      <c r="T569">
         <v>63.1</v>
       </c>
-      <c r="U560">
+      <c r="U569">
         <v>11</v>
       </c>
-      <c r="V560">
+      <c r="V569">
         <v>63.4</v>
       </c>
-      <c r="W560">
+      <c r="W569">
         <v>12</v>
       </c>
-      <c r="X560">
+      <c r="X569">
         <v>62.9</v>
       </c>
-      <c r="Y560">
+      <c r="Y569">
         <v>11</v>
       </c>
-      <c r="Z560">
+      <c r="Z569">
         <v>69.2</v>
       </c>
-      <c r="AA560">
-        <v>10</v>
-      </c>
-      <c r="AB560">
+      <c r="AA569">
+        <v>10</v>
+      </c>
+      <c r="AB569">
         <v>72.2</v>
       </c>
-      <c r="AC560">
+      <c r="AC569">
         <v>10</v>
       </c>
     </row>
@@ -42096,7 +42843,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AB1:AB533 Z1:Z533 X1:X533 V1:V533 T1:T533 R1:R533 P1:P533 N1:N533 L1:L533 E1:J533 E537:J1048576 L537:L1048576 N537:N1048576 P537:P1048576 R537:R1048576 T537:T1048576 V537:V1048576 X537:X1048576 Z537:Z1048576 AB537:AB1048576">
+  <conditionalFormatting sqref="E543:J1048576 AB1:AB536 Z1:Z536 X1:X536 V1:V536 T1:T536 R1:R536 P1:P536 N1:N536 L1:L536 E1:J536 L543:L1048576 N543:N1048576 P543:P1048576 R543:R1048576 T543:T1048576 V543:V1048576 X543:X1048576 Z543:Z1048576 AB543:AB1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -42108,7 +42855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB534:AB536 Z534:Z536 X534:X536 V534:V536 T534:T536 R534:R536 P534:P536 N534:N536 L534:L536 E534:J536">
+  <conditionalFormatting sqref="AB537:AB542 Z537:Z542 X537:X542 V537:V542 T537:T542 R537:R542 P537:P542 N537:N542 L537:L542 E537:J542">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68048CC-2C2F-4CCC-966A-DF2405998F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C5AA1-884A-45C6-883F-4BFBAA2D060D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="690" yWindow="2640" windowWidth="26010" windowHeight="11385" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="80">
   <si>
     <t>Te_cal</t>
   </si>
@@ -250,6 +250,33 @@
   </si>
   <si>
     <t>test20_16c</t>
+  </si>
+  <si>
+    <t>test21_10c</t>
+  </si>
+  <si>
+    <t>test21_14c</t>
+  </si>
+  <si>
+    <t>test21_16c</t>
+  </si>
+  <si>
+    <t>test22_10c</t>
+  </si>
+  <si>
+    <t>test22_14c</t>
+  </si>
+  <si>
+    <t>test22_16c</t>
+  </si>
+  <si>
+    <t>test23_10c</t>
+  </si>
+  <si>
+    <t>test23_14c</t>
+  </si>
+  <si>
+    <t>test23_16c</t>
   </si>
 </sst>
 </file>
@@ -659,13 +686,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC1109"/>
+  <dimension ref="A1:AC1127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1070" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1110" sqref="E1110"/>
+      <selection pane="bottomRight" activeCell="M1134" sqref="M1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85931,9 +85958,1402 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1110">
+        <v>100</v>
+      </c>
+      <c r="F1110">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G1110">
+        <v>85.4</v>
+      </c>
+      <c r="H1110">
+        <v>0</v>
+      </c>
+      <c r="I1110">
+        <v>0</v>
+      </c>
+      <c r="J1110">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="K1110">
+        <v>43</v>
+      </c>
+      <c r="L1110">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="M1110">
+        <v>12</v>
+      </c>
+      <c r="N1110">
+        <v>84.8</v>
+      </c>
+      <c r="O1110">
+        <v>11</v>
+      </c>
+      <c r="P1110">
+        <v>83.9</v>
+      </c>
+      <c r="Q1110">
+        <v>10</v>
+      </c>
+      <c r="R1110">
+        <v>87.9</v>
+      </c>
+      <c r="S1110">
+        <v>11</v>
+      </c>
+      <c r="T1110">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="U1110">
+        <v>27</v>
+      </c>
+      <c r="V1110">
+        <v>80.5</v>
+      </c>
+      <c r="W1110">
+        <v>13</v>
+      </c>
+      <c r="X1110">
+        <v>87.1</v>
+      </c>
+      <c r="Y1110">
+        <v>10</v>
+      </c>
+      <c r="Z1110">
+        <v>84.4</v>
+      </c>
+      <c r="AA1110">
+        <v>10</v>
+      </c>
+      <c r="AB1110">
+        <v>84.4</v>
+      </c>
+      <c r="AC1110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1111">
+        <v>100</v>
+      </c>
+      <c r="F1111">
+        <v>61.8</v>
+      </c>
+      <c r="G1111">
+        <v>25.5</v>
+      </c>
+      <c r="H1111">
+        <v>100</v>
+      </c>
+      <c r="I1111">
+        <v>100</v>
+      </c>
+      <c r="J1111">
+        <v>74</v>
+      </c>
+      <c r="K1111">
+        <v>16</v>
+      </c>
+      <c r="L1111">
+        <v>72</v>
+      </c>
+      <c r="M1111">
+        <v>16</v>
+      </c>
+      <c r="N1111">
+        <v>81.8</v>
+      </c>
+      <c r="O1111">
+        <v>11</v>
+      </c>
+      <c r="S1111"/>
+      <c r="T1111">
+        <v>61.3</v>
+      </c>
+      <c r="U1111">
+        <v>45</v>
+      </c>
+      <c r="V1111">
+        <v>76.3</v>
+      </c>
+      <c r="W1111">
+        <v>19</v>
+      </c>
+      <c r="X1111">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="Y1111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1112">
+        <v>100</v>
+      </c>
+      <c r="F1112">
+        <v>67.8</v>
+      </c>
+      <c r="G1112">
+        <v>79.8</v>
+      </c>
+      <c r="H1112">
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <v>0</v>
+      </c>
+      <c r="J1112">
+        <v>66</v>
+      </c>
+      <c r="K1112">
+        <v>54</v>
+      </c>
+      <c r="L1112">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M1112">
+        <v>33</v>
+      </c>
+      <c r="N1112">
+        <v>77</v>
+      </c>
+      <c r="O1112">
+        <v>23</v>
+      </c>
+      <c r="P1112">
+        <v>85.7</v>
+      </c>
+      <c r="Q1112">
+        <v>10</v>
+      </c>
+      <c r="R1112">
+        <v>88.5</v>
+      </c>
+      <c r="S1112">
+        <v>10</v>
+      </c>
+      <c r="T1112">
+        <v>76.7</v>
+      </c>
+      <c r="U1112">
+        <v>22</v>
+      </c>
+      <c r="V1112">
+        <v>87.1</v>
+      </c>
+      <c r="W1112">
+        <v>12</v>
+      </c>
+      <c r="X1112">
+        <v>89.3</v>
+      </c>
+      <c r="Y1112">
+        <v>10</v>
+      </c>
+      <c r="Z1112">
+        <v>82.1</v>
+      </c>
+      <c r="AA1112">
+        <v>10</v>
+      </c>
+      <c r="AB1112">
+        <v>83.9</v>
+      </c>
+      <c r="AC1112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1113">
+        <v>100</v>
+      </c>
+      <c r="F1113">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="G1113">
+        <v>27</v>
+      </c>
+      <c r="H1113">
+        <v>100</v>
+      </c>
+      <c r="I1113">
+        <v>100</v>
+      </c>
+      <c r="J1113">
+        <v>66.3</v>
+      </c>
+      <c r="K1113">
+        <v>37</v>
+      </c>
+      <c r="L1113">
+        <v>71.8</v>
+      </c>
+      <c r="M1113">
+        <v>32</v>
+      </c>
+      <c r="N1113">
+        <v>85.7</v>
+      </c>
+      <c r="O1113">
+        <v>13</v>
+      </c>
+      <c r="S1113"/>
+      <c r="T1113">
+        <v>69.3</v>
+      </c>
+      <c r="U1113">
+        <v>38</v>
+      </c>
+      <c r="V1113">
+        <v>83.8</v>
+      </c>
+      <c r="W1113">
+        <v>14</v>
+      </c>
+      <c r="X1113">
+        <v>66.7</v>
+      </c>
+      <c r="Y1113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1114">
+        <v>99.2</v>
+      </c>
+      <c r="F1114">
+        <v>66.7</v>
+      </c>
+      <c r="G1114">
+        <v>80.2</v>
+      </c>
+      <c r="H1114">
+        <v>0</v>
+      </c>
+      <c r="I1114">
+        <v>0</v>
+      </c>
+      <c r="J1114">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K1114">
+        <v>38</v>
+      </c>
+      <c r="L1114">
+        <v>78.3</v>
+      </c>
+      <c r="M1114">
+        <v>27</v>
+      </c>
+      <c r="N1114">
+        <v>90.9</v>
+      </c>
+      <c r="O1114">
+        <v>11</v>
+      </c>
+      <c r="P1114">
+        <v>88.6</v>
+      </c>
+      <c r="Q1114">
+        <v>12</v>
+      </c>
+      <c r="R1114">
+        <v>90</v>
+      </c>
+      <c r="S1114">
+        <v>10</v>
+      </c>
+      <c r="T1114">
+        <v>75</v>
+      </c>
+      <c r="U1114">
+        <v>13</v>
+      </c>
+      <c r="V1114">
+        <v>86.7</v>
+      </c>
+      <c r="W1114">
+        <v>10</v>
+      </c>
+      <c r="X1114">
+        <v>85.7</v>
+      </c>
+      <c r="Y1114">
+        <v>16</v>
+      </c>
+      <c r="Z1114">
+        <v>87.1</v>
+      </c>
+      <c r="AA1114">
+        <v>10</v>
+      </c>
+      <c r="AB1114">
+        <v>86.8</v>
+      </c>
+      <c r="AC1114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1115">
+        <v>100</v>
+      </c>
+      <c r="F1115">
+        <v>64.7</v>
+      </c>
+      <c r="G1115">
+        <v>60.7</v>
+      </c>
+      <c r="H1115">
+        <v>100</v>
+      </c>
+      <c r="I1115">
+        <v>100</v>
+      </c>
+      <c r="J1115">
+        <v>68</v>
+      </c>
+      <c r="K1115">
+        <v>40</v>
+      </c>
+      <c r="L1115">
+        <v>86.7</v>
+      </c>
+      <c r="M1115">
+        <v>20</v>
+      </c>
+      <c r="N1115">
+        <v>82.8</v>
+      </c>
+      <c r="O1115">
+        <v>10</v>
+      </c>
+      <c r="P1115">
+        <v>67.3</v>
+      </c>
+      <c r="Q1115">
+        <v>17</v>
+      </c>
+      <c r="S1115"/>
+      <c r="T1115">
+        <v>65.5</v>
+      </c>
+      <c r="U1115">
+        <v>36</v>
+      </c>
+      <c r="V1115">
+        <v>76.7</v>
+      </c>
+      <c r="W1115">
+        <v>10</v>
+      </c>
+      <c r="X1115">
+        <v>79.5</v>
+      </c>
+      <c r="Y1115">
+        <v>13</v>
+      </c>
+      <c r="Z1115">
+        <v>78.8</v>
+      </c>
+      <c r="AA1115">
+        <v>11</v>
+      </c>
+      <c r="AB1115">
+        <v>66.7</v>
+      </c>
+      <c r="AC1115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1116">
+        <v>100</v>
+      </c>
+      <c r="F1116">
+        <v>77.8</v>
+      </c>
+      <c r="G1116">
+        <v>98.6</v>
+      </c>
+      <c r="H1116">
+        <v>0</v>
+      </c>
+      <c r="I1116">
+        <v>0</v>
+      </c>
+      <c r="J1116">
+        <v>88.2</v>
+      </c>
+      <c r="K1116">
+        <v>24</v>
+      </c>
+      <c r="L1116">
+        <v>92.9</v>
+      </c>
+      <c r="M1116">
+        <v>19</v>
+      </c>
+      <c r="N1116">
+        <v>91.7</v>
+      </c>
+      <c r="O1116">
+        <v>17</v>
+      </c>
+      <c r="P1116">
+        <v>92.9</v>
+      </c>
+      <c r="Q1116">
+        <v>19</v>
+      </c>
+      <c r="R1116">
+        <v>94.7</v>
+      </c>
+      <c r="S1116">
+        <v>26</v>
+      </c>
+      <c r="T1116">
+        <v>91.7</v>
+      </c>
+      <c r="U1116">
+        <v>17</v>
+      </c>
+      <c r="V1116">
+        <v>100</v>
+      </c>
+      <c r="W1116">
+        <v>10</v>
+      </c>
+      <c r="X1116">
+        <v>100</v>
+      </c>
+      <c r="Y1116">
+        <v>14</v>
+      </c>
+      <c r="Z1116">
+        <v>100</v>
+      </c>
+      <c r="AA1116">
+        <v>10</v>
+      </c>
+      <c r="AB1116">
+        <v>100</v>
+      </c>
+      <c r="AC1116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1117">
+        <v>100</v>
+      </c>
+      <c r="F1117">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G1117">
+        <v>4.2</v>
+      </c>
+      <c r="H1117">
+        <v>100</v>
+      </c>
+      <c r="I1117">
+        <v>100</v>
+      </c>
+      <c r="J1117">
+        <v>100</v>
+      </c>
+      <c r="K1117">
+        <v>10</v>
+      </c>
+      <c r="L1117">
+        <v>100</v>
+      </c>
+      <c r="M1117">
+        <v>11</v>
+      </c>
+      <c r="S1117"/>
+      <c r="T1117">
+        <v>72</v>
+      </c>
+      <c r="U1117">
+        <v>35</v>
+      </c>
+      <c r="V1117">
+        <v>87.5</v>
+      </c>
+      <c r="W1117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1118">
+        <v>100</v>
+      </c>
+      <c r="F1118">
+        <v>83.3</v>
+      </c>
+      <c r="G1118">
+        <v>98.3</v>
+      </c>
+      <c r="H1118">
+        <v>0</v>
+      </c>
+      <c r="I1118">
+        <v>0</v>
+      </c>
+      <c r="J1118">
+        <v>100</v>
+      </c>
+      <c r="K1118">
+        <v>17</v>
+      </c>
+      <c r="L1118">
+        <v>100</v>
+      </c>
+      <c r="M1118">
+        <v>17</v>
+      </c>
+      <c r="N1118">
+        <v>100</v>
+      </c>
+      <c r="O1118">
+        <v>17</v>
+      </c>
+      <c r="P1118">
+        <v>100</v>
+      </c>
+      <c r="Q1118">
+        <v>17</v>
+      </c>
+      <c r="R1118">
+        <v>100</v>
+      </c>
+      <c r="S1118">
+        <v>17</v>
+      </c>
+      <c r="T1118">
+        <v>88.2</v>
+      </c>
+      <c r="U1118">
+        <v>28</v>
+      </c>
+      <c r="V1118">
+        <v>92.3</v>
+      </c>
+      <c r="W1118">
+        <v>22</v>
+      </c>
+      <c r="X1118">
+        <v>100</v>
+      </c>
+      <c r="Y1118">
+        <v>10</v>
+      </c>
+      <c r="Z1118">
+        <v>90.9</v>
+      </c>
+      <c r="AA1118">
+        <v>18</v>
+      </c>
+      <c r="AB1118">
+        <v>92.9</v>
+      </c>
+      <c r="AC1118">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1119">
+        <v>100</v>
+      </c>
+      <c r="F1119">
+        <v>76.7</v>
+      </c>
+      <c r="G1119">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H1119">
+        <v>100</v>
+      </c>
+      <c r="I1119">
+        <v>100</v>
+      </c>
+      <c r="J1119">
+        <v>77.3</v>
+      </c>
+      <c r="K1119">
+        <v>37</v>
+      </c>
+      <c r="L1119">
+        <v>100</v>
+      </c>
+      <c r="M1119">
+        <v>10</v>
+      </c>
+      <c r="N1119">
+        <v>100</v>
+      </c>
+      <c r="O1119">
+        <v>13</v>
+      </c>
+      <c r="S1119"/>
+      <c r="T1119">
+        <v>87.5</v>
+      </c>
+      <c r="U1119">
+        <v>40</v>
+      </c>
+      <c r="V1119">
+        <v>91.7</v>
+      </c>
+      <c r="W1119">
+        <v>20</v>
+      </c>
+      <c r="X1119">
+        <v>87.5</v>
+      </c>
+      <c r="Y1119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1120">
+        <v>98.4</v>
+      </c>
+      <c r="F1120">
+        <v>80.3</v>
+      </c>
+      <c r="G1120">
+        <v>97</v>
+      </c>
+      <c r="H1120">
+        <v>0</v>
+      </c>
+      <c r="I1120">
+        <v>0</v>
+      </c>
+      <c r="J1120">
+        <v>100</v>
+      </c>
+      <c r="K1120">
+        <v>24</v>
+      </c>
+      <c r="L1120">
+        <v>100</v>
+      </c>
+      <c r="M1120">
+        <v>23</v>
+      </c>
+      <c r="N1120">
+        <v>100</v>
+      </c>
+      <c r="O1120">
+        <v>20</v>
+      </c>
+      <c r="P1120">
+        <v>100</v>
+      </c>
+      <c r="Q1120">
+        <v>14</v>
+      </c>
+      <c r="R1120">
+        <v>100</v>
+      </c>
+      <c r="S1120">
+        <v>14</v>
+      </c>
+      <c r="T1120">
+        <v>85.7</v>
+      </c>
+      <c r="U1120">
+        <v>21</v>
+      </c>
+      <c r="V1120">
+        <v>87.5</v>
+      </c>
+      <c r="W1120">
+        <v>12</v>
+      </c>
+      <c r="X1120">
+        <v>87.5</v>
+      </c>
+      <c r="Y1120">
+        <v>12</v>
+      </c>
+      <c r="Z1120">
+        <v>90</v>
+      </c>
+      <c r="AA1120">
+        <v>15</v>
+      </c>
+      <c r="AB1120">
+        <v>100</v>
+      </c>
+      <c r="AC1120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1121">
+        <v>100</v>
+      </c>
+      <c r="F1121">
+        <v>77.3</v>
+      </c>
+      <c r="G1121">
+        <v>69.7</v>
+      </c>
+      <c r="H1121">
+        <v>100</v>
+      </c>
+      <c r="I1121">
+        <v>100</v>
+      </c>
+      <c r="J1121">
+        <v>100</v>
+      </c>
+      <c r="K1121">
+        <v>12</v>
+      </c>
+      <c r="L1121">
+        <v>100</v>
+      </c>
+      <c r="M1121">
+        <v>24</v>
+      </c>
+      <c r="N1121">
+        <v>100</v>
+      </c>
+      <c r="O1121">
+        <v>11</v>
+      </c>
+      <c r="P1121">
+        <v>100</v>
+      </c>
+      <c r="Q1121">
+        <v>11</v>
+      </c>
+      <c r="R1121">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="S1121">
+        <v>11</v>
+      </c>
+      <c r="T1121">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="U1121">
+        <v>21</v>
+      </c>
+      <c r="V1121">
+        <v>80</v>
+      </c>
+      <c r="W1121">
+        <v>23</v>
+      </c>
+      <c r="X1121">
+        <v>88.9</v>
+      </c>
+      <c r="Y1121">
+        <v>14</v>
+      </c>
+      <c r="Z1121">
+        <v>88.9</v>
+      </c>
+      <c r="AA1121">
+        <v>14</v>
+      </c>
+      <c r="AB1121">
+        <v>85.7</v>
+      </c>
+      <c r="AC1121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1122">
+        <v>100</v>
+      </c>
+      <c r="F1122">
+        <v>61.4</v>
+      </c>
+      <c r="G1122">
+        <v>82.2</v>
+      </c>
+      <c r="H1122">
+        <v>0</v>
+      </c>
+      <c r="I1122">
+        <v>0</v>
+      </c>
+      <c r="J1122">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K1122">
+        <v>19</v>
+      </c>
+      <c r="L1122">
+        <v>74.5</v>
+      </c>
+      <c r="M1122">
+        <v>10</v>
+      </c>
+      <c r="N1122">
+        <v>73.8</v>
+      </c>
+      <c r="O1122">
+        <v>16</v>
+      </c>
+      <c r="P1122">
+        <v>78.8</v>
+      </c>
+      <c r="Q1122">
+        <v>11</v>
+      </c>
+      <c r="R1122">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="S1122">
+        <v>11</v>
+      </c>
+      <c r="T1122">
+        <v>69.2</v>
+      </c>
+      <c r="U1122">
+        <v>16</v>
+      </c>
+      <c r="V1122">
+        <v>74.5</v>
+      </c>
+      <c r="W1122">
+        <v>11</v>
+      </c>
+      <c r="X1122">
+        <v>78</v>
+      </c>
+      <c r="Y1122">
+        <v>12</v>
+      </c>
+      <c r="Z1122">
+        <v>78.2</v>
+      </c>
+      <c r="AA1122">
+        <v>11</v>
+      </c>
+      <c r="AB1122">
+        <v>75</v>
+      </c>
+      <c r="AC1122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1123">
+        <v>100</v>
+      </c>
+      <c r="F1123">
+        <v>60.8</v>
+      </c>
+      <c r="G1123">
+        <v>24.8</v>
+      </c>
+      <c r="H1123">
+        <v>100</v>
+      </c>
+      <c r="I1123">
+        <v>100</v>
+      </c>
+      <c r="J1123">
+        <v>71.2</v>
+      </c>
+      <c r="K1123">
+        <v>11</v>
+      </c>
+      <c r="L1123">
+        <v>72.7</v>
+      </c>
+      <c r="M1123">
+        <v>13</v>
+      </c>
+      <c r="N1123">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O1123">
+        <v>19</v>
+      </c>
+      <c r="S1123"/>
+      <c r="T1123">
+        <v>58.7</v>
+      </c>
+      <c r="U1123">
+        <v>43</v>
+      </c>
+      <c r="V1123">
+        <v>69.3</v>
+      </c>
+      <c r="W1123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1124">
+        <v>100</v>
+      </c>
+      <c r="F1124">
+        <v>66.3</v>
+      </c>
+      <c r="G1124">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H1124">
+        <v>0</v>
+      </c>
+      <c r="I1124">
+        <v>0</v>
+      </c>
+      <c r="J1124">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K1124">
+        <v>32</v>
+      </c>
+      <c r="L1124">
+        <v>67.8</v>
+      </c>
+      <c r="M1124">
+        <v>43</v>
+      </c>
+      <c r="N1124">
+        <v>81</v>
+      </c>
+      <c r="O1124">
+        <v>10</v>
+      </c>
+      <c r="P1124">
+        <v>74.2</v>
+      </c>
+      <c r="Q1124">
+        <v>16</v>
+      </c>
+      <c r="R1124">
+        <v>78.3</v>
+      </c>
+      <c r="S1124">
+        <v>11</v>
+      </c>
+      <c r="T1124">
+        <v>73.3</v>
+      </c>
+      <c r="U1124">
+        <v>24</v>
+      </c>
+      <c r="V1124">
+        <v>79.3</v>
+      </c>
+      <c r="W1124">
+        <v>14</v>
+      </c>
+      <c r="X1124">
+        <v>87.2</v>
+      </c>
+      <c r="Y1124">
+        <v>11</v>
+      </c>
+      <c r="Z1124">
+        <v>83.7</v>
+      </c>
+      <c r="AA1124">
+        <v>10</v>
+      </c>
+      <c r="AB1124">
+        <v>84.4</v>
+      </c>
+      <c r="AC1124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1125">
+        <v>100</v>
+      </c>
+      <c r="F1125">
+        <v>62.5</v>
+      </c>
+      <c r="G1125">
+        <v>49.8</v>
+      </c>
+      <c r="H1125">
+        <v>100</v>
+      </c>
+      <c r="I1125">
+        <v>100</v>
+      </c>
+      <c r="J1125">
+        <v>62.5</v>
+      </c>
+      <c r="K1125">
+        <v>52</v>
+      </c>
+      <c r="L1125">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="M1125">
+        <v>35</v>
+      </c>
+      <c r="N1125">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="O1125">
+        <v>13</v>
+      </c>
+      <c r="P1125">
+        <v>65.8</v>
+      </c>
+      <c r="Q1125">
+        <v>18</v>
+      </c>
+      <c r="S1125"/>
+      <c r="T1125">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="U1125">
+        <v>33</v>
+      </c>
+      <c r="V1125">
+        <v>83.7</v>
+      </c>
+      <c r="W1125">
+        <v>12</v>
+      </c>
+      <c r="X1125">
+        <v>81</v>
+      </c>
+      <c r="Y1125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1126">
+        <v>99</v>
+      </c>
+      <c r="F1126">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G1126">
+        <v>86.3</v>
+      </c>
+      <c r="H1126">
+        <v>0</v>
+      </c>
+      <c r="I1126">
+        <v>0</v>
+      </c>
+      <c r="J1126">
+        <v>68.7</v>
+      </c>
+      <c r="K1126">
+        <v>32</v>
+      </c>
+      <c r="L1126">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="M1126">
+        <v>41</v>
+      </c>
+      <c r="N1126">
+        <v>77.2</v>
+      </c>
+      <c r="O1126">
+        <v>12</v>
+      </c>
+      <c r="P1126">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q1126">
+        <v>34</v>
+      </c>
+      <c r="R1126">
+        <v>86.5</v>
+      </c>
+      <c r="S1126">
+        <v>16</v>
+      </c>
+      <c r="T1126">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="U1126">
+        <v>14</v>
+      </c>
+      <c r="V1126">
+        <v>82.4</v>
+      </c>
+      <c r="W1126">
+        <v>18</v>
+      </c>
+      <c r="X1126">
+        <v>84.9</v>
+      </c>
+      <c r="Y1126">
+        <v>11</v>
+      </c>
+      <c r="Z1126">
+        <v>85.7</v>
+      </c>
+      <c r="AA1126">
+        <v>12</v>
+      </c>
+      <c r="AB1126">
+        <v>83.3</v>
+      </c>
+      <c r="AC1126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1127">
+        <v>100</v>
+      </c>
+      <c r="F1127">
+        <v>66.7</v>
+      </c>
+      <c r="G1127">
+        <v>100</v>
+      </c>
+      <c r="H1127">
+        <v>100</v>
+      </c>
+      <c r="I1127">
+        <v>100</v>
+      </c>
+      <c r="J1127">
+        <v>65.3</v>
+      </c>
+      <c r="K1127">
+        <v>61</v>
+      </c>
+      <c r="L1127">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M1127">
+        <v>40</v>
+      </c>
+      <c r="N1127">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="O1127">
+        <v>14</v>
+      </c>
+      <c r="P1127">
+        <v>61.7</v>
+      </c>
+      <c r="Q1127">
+        <v>13</v>
+      </c>
+      <c r="R1127">
+        <v>63.4</v>
+      </c>
+      <c r="S1127">
+        <v>17</v>
+      </c>
+      <c r="T1127">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U1127">
+        <v>39</v>
+      </c>
+      <c r="V1127">
+        <v>73.7</v>
+      </c>
+      <c r="W1127">
+        <v>21</v>
+      </c>
+      <c r="X1127">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Y1127">
+        <v>10</v>
+      </c>
+      <c r="Z1127">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AA1127">
+        <v>12</v>
+      </c>
+      <c r="AB1127">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AC1127">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC1103" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC1103">
+  <autoFilter ref="A1:AC1109" xr:uid="{3CACE78E-09B0-4A51-A9AF-2F3B2E4BAEFC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC1109">
       <sortCondition ref="A2:A97"/>
       <sortCondition ref="B2:B97"/>
       <sortCondition ref="C2:C97"/>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C5AA1-884A-45C6-883F-4BFBAA2D060D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD58872-367D-4081-9570-1E922D2E8FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="690" yWindow="2640" windowWidth="26010" windowHeight="11385" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="240" yWindow="2745" windowWidth="28470" windowHeight="11340" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="84">
   <si>
     <t>Te_cal</t>
   </si>
@@ -278,6 +278,18 @@
   <si>
     <t>test23_16c</t>
   </si>
+  <si>
+    <t>test24_10c</t>
+  </si>
+  <si>
+    <t>test24_14c</t>
+  </si>
+  <si>
+    <t>test24_16c</t>
+  </si>
+  <si>
+    <t>test25_16c</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -351,11 +363,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,6 +426,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,13 +752,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC1127"/>
+  <dimension ref="A1:AC1135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1134" sqref="M1134"/>
+      <selection pane="bottomRight" activeCell="J1119" sqref="J1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85958,1397 +86024,1989 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1110" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1110" t="s">
+    <row r="1110" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1110" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1110" s="10">
+        <v>100</v>
+      </c>
+      <c r="F1110" s="10">
+        <v>77.8</v>
+      </c>
+      <c r="G1110" s="10">
+        <v>98.6</v>
+      </c>
+      <c r="H1110" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1110" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1110" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="K1110" s="10">
+        <v>24</v>
+      </c>
+      <c r="L1110" s="10">
+        <v>92.9</v>
+      </c>
+      <c r="M1110" s="10">
+        <v>19</v>
+      </c>
+      <c r="N1110" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="O1110" s="10">
+        <v>17</v>
+      </c>
+      <c r="P1110" s="10">
+        <v>92.9</v>
+      </c>
+      <c r="Q1110" s="10">
+        <v>19</v>
+      </c>
+      <c r="R1110" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="S1110" s="10">
+        <v>26</v>
+      </c>
+      <c r="T1110" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="U1110" s="10">
+        <v>17</v>
+      </c>
+      <c r="V1110" s="10">
+        <v>100</v>
+      </c>
+      <c r="W1110" s="10">
+        <v>10</v>
+      </c>
+      <c r="X1110" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y1110" s="10">
+        <v>14</v>
+      </c>
+      <c r="Z1110" s="10">
+        <v>100</v>
+      </c>
+      <c r="AA1110" s="10">
+        <v>10</v>
+      </c>
+      <c r="AB1110" s="10">
+        <v>100</v>
+      </c>
+      <c r="AC1110" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1111" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1111" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1111" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G1111" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="H1111" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1111" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1111" s="7">
+        <v>100</v>
+      </c>
+      <c r="K1111" s="7">
+        <v>10</v>
+      </c>
+      <c r="L1111" s="7">
+        <v>100</v>
+      </c>
+      <c r="M1111" s="7">
+        <v>11</v>
+      </c>
+      <c r="T1111" s="7">
+        <v>72</v>
+      </c>
+      <c r="U1111" s="7">
+        <v>35</v>
+      </c>
+      <c r="V1111" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="W1111" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1112" s="7">
+        <v>83.3</v>
+      </c>
+      <c r="G1112" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="H1112" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1112" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="K1112" s="7">
+        <v>17</v>
+      </c>
+      <c r="L1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="M1112" s="7">
+        <v>17</v>
+      </c>
+      <c r="N1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="O1112" s="7">
+        <v>17</v>
+      </c>
+      <c r="P1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q1112" s="7">
+        <v>17</v>
+      </c>
+      <c r="R1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="S1112" s="7">
+        <v>17</v>
+      </c>
+      <c r="T1112" s="7">
+        <v>88.2</v>
+      </c>
+      <c r="U1112" s="7">
+        <v>28</v>
+      </c>
+      <c r="V1112" s="7">
+        <v>92.3</v>
+      </c>
+      <c r="W1112" s="7">
+        <v>22</v>
+      </c>
+      <c r="X1112" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y1112" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z1112" s="7">
+        <v>90.9</v>
+      </c>
+      <c r="AA1112" s="7">
+        <v>18</v>
+      </c>
+      <c r="AB1112" s="7">
+        <v>92.9</v>
+      </c>
+      <c r="AC1112" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1113" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1113" s="7">
+        <v>76.7</v>
+      </c>
+      <c r="G1113" s="7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H1113" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1113" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1113" s="7">
+        <v>77.3</v>
+      </c>
+      <c r="K1113" s="7">
+        <v>37</v>
+      </c>
+      <c r="L1113" s="7">
+        <v>100</v>
+      </c>
+      <c r="M1113" s="7">
+        <v>10</v>
+      </c>
+      <c r="N1113" s="7">
+        <v>100</v>
+      </c>
+      <c r="O1113" s="7">
+        <v>13</v>
+      </c>
+      <c r="T1113" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="U1113" s="7">
+        <v>40</v>
+      </c>
+      <c r="V1113" s="7">
+        <v>91.7</v>
+      </c>
+      <c r="W1113" s="7">
+        <v>20</v>
+      </c>
+      <c r="X1113" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="Y1113" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1114" s="7">
+        <v>98.4</v>
+      </c>
+      <c r="F1114" s="7">
+        <v>80.3</v>
+      </c>
+      <c r="G1114" s="7">
+        <v>97</v>
+      </c>
+      <c r="H1114" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="K1114" s="7">
+        <v>24</v>
+      </c>
+      <c r="L1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="M1114" s="7">
+        <v>23</v>
+      </c>
+      <c r="N1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="O1114" s="7">
+        <v>20</v>
+      </c>
+      <c r="P1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q1114" s="7">
+        <v>14</v>
+      </c>
+      <c r="R1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="S1114" s="7">
+        <v>14</v>
+      </c>
+      <c r="T1114" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="U1114" s="7">
+        <v>21</v>
+      </c>
+      <c r="V1114" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="W1114" s="7">
+        <v>12</v>
+      </c>
+      <c r="X1114" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="Y1114" s="7">
+        <v>12</v>
+      </c>
+      <c r="Z1114" s="7">
+        <v>90</v>
+      </c>
+      <c r="AA1114" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB1114" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC1114" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1115" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1115" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="F1115" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="G1115" s="13">
+        <v>69.7</v>
+      </c>
+      <c r="H1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="I1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="J1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="K1115" s="13">
+        <v>12</v>
+      </c>
+      <c r="L1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="M1115" s="13">
+        <v>24</v>
+      </c>
+      <c r="N1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="O1115" s="13">
+        <v>11</v>
+      </c>
+      <c r="P1115" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q1115" s="13">
+        <v>11</v>
+      </c>
+      <c r="R1115" s="13">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="S1115" s="13">
+        <v>11</v>
+      </c>
+      <c r="T1115" s="13">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="U1115" s="13">
+        <v>21</v>
+      </c>
+      <c r="V1115" s="13">
+        <v>80</v>
+      </c>
+      <c r="W1115" s="13">
+        <v>23</v>
+      </c>
+      <c r="X1115" s="13">
+        <v>88.9</v>
+      </c>
+      <c r="Y1115" s="13">
+        <v>14</v>
+      </c>
+      <c r="Z1115" s="13">
+        <v>88.9</v>
+      </c>
+      <c r="AA1115" s="13">
+        <v>14</v>
+      </c>
+      <c r="AB1115" s="13">
+        <v>85.7</v>
+      </c>
+      <c r="AC1115" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B1110" t="s">
+      <c r="B1116" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1110" t="s">
+      <c r="D1116" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1110">
-        <v>100</v>
-      </c>
-      <c r="F1110">
+      <c r="E1116" s="10">
+        <v>100</v>
+      </c>
+      <c r="F1116" s="10">
         <v>65.599999999999994</v>
       </c>
-      <c r="G1110">
+      <c r="G1116" s="10">
         <v>85.4</v>
       </c>
-      <c r="H1110">
+      <c r="H1116" s="10">
         <v>0</v>
       </c>
-      <c r="I1110">
+      <c r="I1116" s="10">
         <v>0</v>
       </c>
-      <c r="J1110">
+      <c r="J1116" s="10">
         <v>67.400000000000006</v>
       </c>
-      <c r="K1110">
+      <c r="K1116" s="10">
         <v>43</v>
       </c>
-      <c r="L1110">
+      <c r="L1116" s="10">
         <v>78.900000000000006</v>
       </c>
-      <c r="M1110">
+      <c r="M1116" s="10">
         <v>12</v>
       </c>
-      <c r="N1110">
+      <c r="N1116" s="10">
         <v>84.8</v>
       </c>
-      <c r="O1110">
+      <c r="O1116" s="10">
         <v>11</v>
       </c>
-      <c r="P1110">
+      <c r="P1116" s="10">
         <v>83.9</v>
       </c>
-      <c r="Q1110">
-        <v>10</v>
-      </c>
-      <c r="R1110">
+      <c r="Q1116" s="10">
+        <v>10</v>
+      </c>
+      <c r="R1116" s="10">
         <v>87.9</v>
       </c>
-      <c r="S1110">
+      <c r="S1116" s="10">
         <v>11</v>
       </c>
-      <c r="T1110">
+      <c r="T1116" s="10">
         <v>75.599999999999994</v>
       </c>
-      <c r="U1110">
+      <c r="U1116" s="10">
         <v>27</v>
       </c>
-      <c r="V1110">
+      <c r="V1116" s="10">
         <v>80.5</v>
       </c>
-      <c r="W1110">
+      <c r="W1116" s="10">
         <v>13</v>
       </c>
-      <c r="X1110">
+      <c r="X1116" s="10">
         <v>87.1</v>
       </c>
-      <c r="Y1110">
-        <v>10</v>
-      </c>
-      <c r="Z1110">
+      <c r="Y1116" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z1116" s="10">
         <v>84.4</v>
       </c>
-      <c r="AA1110">
-        <v>10</v>
-      </c>
-      <c r="AB1110">
+      <c r="AA1116" s="10">
+        <v>10</v>
+      </c>
+      <c r="AB1116" s="10">
         <v>84.4</v>
       </c>
-      <c r="AC1110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1111" t="s">
+      <c r="AC1116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B1111" t="s">
+      <c r="B1117" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1111" t="s">
+      <c r="D1117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1111">
-        <v>100</v>
-      </c>
-      <c r="F1111">
+      <c r="E1117" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1117" s="7">
         <v>61.8</v>
       </c>
-      <c r="G1111">
+      <c r="G1117" s="7">
         <v>25.5</v>
       </c>
-      <c r="H1111">
-        <v>100</v>
-      </c>
-      <c r="I1111">
-        <v>100</v>
-      </c>
-      <c r="J1111">
+      <c r="H1117" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1117" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1117" s="7">
         <v>74</v>
       </c>
-      <c r="K1111">
+      <c r="K1117" s="7">
         <v>16</v>
       </c>
-      <c r="L1111">
+      <c r="L1117" s="7">
         <v>72</v>
       </c>
-      <c r="M1111">
+      <c r="M1117" s="7">
         <v>16</v>
       </c>
-      <c r="N1111">
+      <c r="N1117" s="7">
         <v>81.8</v>
       </c>
-      <c r="O1111">
+      <c r="O1117" s="7">
         <v>11</v>
       </c>
-      <c r="S1111"/>
-      <c r="T1111">
+      <c r="T1117" s="7">
         <v>61.3</v>
       </c>
-      <c r="U1111">
+      <c r="U1117" s="7">
         <v>45</v>
       </c>
-      <c r="V1111">
+      <c r="V1117" s="7">
         <v>76.3</v>
       </c>
-      <c r="W1111">
+      <c r="W1117" s="7">
         <v>19</v>
       </c>
-      <c r="X1111">
+      <c r="X1117" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="Y1111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1112" t="s">
+      <c r="Y1117" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1112" t="s">
+      <c r="B1118" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1112" t="s">
+      <c r="D1118" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1112">
-        <v>100</v>
-      </c>
-      <c r="F1112">
+      <c r="E1118" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1118" s="7">
         <v>67.8</v>
       </c>
-      <c r="G1112">
+      <c r="G1118" s="7">
         <v>79.8</v>
       </c>
-      <c r="H1112">
+      <c r="H1118" s="7">
         <v>0</v>
       </c>
-      <c r="I1112">
+      <c r="I1118" s="7">
         <v>0</v>
       </c>
-      <c r="J1112">
+      <c r="J1118" s="7">
         <v>66</v>
       </c>
-      <c r="K1112">
+      <c r="K1118" s="7">
         <v>54</v>
       </c>
-      <c r="L1112">
+      <c r="L1118" s="7">
         <v>71.900000000000006</v>
       </c>
-      <c r="M1112">
+      <c r="M1118" s="7">
         <v>33</v>
       </c>
-      <c r="N1112">
+      <c r="N1118" s="7">
         <v>77</v>
       </c>
-      <c r="O1112">
+      <c r="O1118" s="7">
         <v>23</v>
       </c>
-      <c r="P1112">
+      <c r="P1118" s="7">
         <v>85.7</v>
       </c>
-      <c r="Q1112">
-        <v>10</v>
-      </c>
-      <c r="R1112">
+      <c r="Q1118" s="7">
+        <v>10</v>
+      </c>
+      <c r="R1118" s="7">
         <v>88.5</v>
       </c>
-      <c r="S1112">
-        <v>10</v>
-      </c>
-      <c r="T1112">
+      <c r="S1118" s="7">
+        <v>10</v>
+      </c>
+      <c r="T1118" s="7">
         <v>76.7</v>
       </c>
-      <c r="U1112">
+      <c r="U1118" s="7">
         <v>22</v>
       </c>
-      <c r="V1112">
+      <c r="V1118" s="7">
         <v>87.1</v>
       </c>
-      <c r="W1112">
+      <c r="W1118" s="7">
         <v>12</v>
       </c>
-      <c r="X1112">
+      <c r="X1118" s="7">
         <v>89.3</v>
       </c>
-      <c r="Y1112">
-        <v>10</v>
-      </c>
-      <c r="Z1112">
+      <c r="Y1118" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z1118" s="7">
         <v>82.1</v>
       </c>
-      <c r="AA1112">
-        <v>10</v>
-      </c>
-      <c r="AB1112">
+      <c r="AA1118" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB1118" s="7">
         <v>83.9</v>
       </c>
-      <c r="AC1112">
+      <c r="AC1118" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="1113" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
+    <row r="1119" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1113" t="s">
+      <c r="B1119" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1113" t="s">
+      <c r="D1119" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1113">
-        <v>100</v>
-      </c>
-      <c r="F1113">
+      <c r="E1119" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1119" s="7">
         <v>65.900000000000006</v>
       </c>
-      <c r="G1113">
+      <c r="G1119" s="7">
         <v>27</v>
       </c>
-      <c r="H1113">
-        <v>100</v>
-      </c>
-      <c r="I1113">
-        <v>100</v>
-      </c>
-      <c r="J1113">
+      <c r="H1119" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1119" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1119" s="7">
         <v>66.3</v>
       </c>
-      <c r="K1113">
+      <c r="K1119" s="7">
         <v>37</v>
       </c>
-      <c r="L1113">
+      <c r="L1119" s="7">
         <v>71.8</v>
       </c>
-      <c r="M1113">
+      <c r="M1119" s="7">
         <v>32</v>
       </c>
-      <c r="N1113">
+      <c r="N1119" s="7">
         <v>85.7</v>
       </c>
-      <c r="O1113">
+      <c r="O1119" s="7">
         <v>13</v>
       </c>
-      <c r="S1113"/>
-      <c r="T1113">
+      <c r="T1119" s="7">
         <v>69.3</v>
       </c>
-      <c r="U1113">
+      <c r="U1119" s="7">
         <v>38</v>
       </c>
-      <c r="V1113">
+      <c r="V1119" s="7">
         <v>83.8</v>
       </c>
-      <c r="W1113">
+      <c r="W1119" s="7">
         <v>14</v>
       </c>
-      <c r="X1113">
+      <c r="X1119" s="7">
         <v>66.7</v>
       </c>
-      <c r="Y1113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
+      <c r="Y1119" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B1114" t="s">
+      <c r="B1120" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1114" t="s">
+      <c r="D1120" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1114">
+      <c r="E1120" s="7">
         <v>99.2</v>
       </c>
-      <c r="F1114">
+      <c r="F1120" s="7">
         <v>66.7</v>
       </c>
-      <c r="G1114">
+      <c r="G1120" s="7">
         <v>80.2</v>
       </c>
-      <c r="H1114">
+      <c r="H1120" s="7">
         <v>0</v>
       </c>
-      <c r="I1114">
+      <c r="I1120" s="7">
         <v>0</v>
       </c>
-      <c r="J1114">
+      <c r="J1120" s="7">
         <v>72.400000000000006</v>
       </c>
-      <c r="K1114">
+      <c r="K1120" s="7">
         <v>38</v>
       </c>
-      <c r="L1114">
+      <c r="L1120" s="7">
         <v>78.3</v>
       </c>
-      <c r="M1114">
+      <c r="M1120" s="7">
         <v>27</v>
       </c>
-      <c r="N1114">
+      <c r="N1120" s="7">
         <v>90.9</v>
       </c>
-      <c r="O1114">
+      <c r="O1120" s="7">
         <v>11</v>
       </c>
-      <c r="P1114">
+      <c r="P1120" s="7">
         <v>88.6</v>
       </c>
-      <c r="Q1114">
+      <c r="Q1120" s="7">
         <v>12</v>
       </c>
-      <c r="R1114">
+      <c r="R1120" s="7">
         <v>90</v>
       </c>
-      <c r="S1114">
-        <v>10</v>
-      </c>
-      <c r="T1114">
+      <c r="S1120" s="7">
+        <v>10</v>
+      </c>
+      <c r="T1120" s="7">
         <v>75</v>
       </c>
-      <c r="U1114">
+      <c r="U1120" s="7">
         <v>13</v>
       </c>
-      <c r="V1114">
+      <c r="V1120" s="7">
         <v>86.7</v>
       </c>
-      <c r="W1114">
-        <v>10</v>
-      </c>
-      <c r="X1114">
+      <c r="W1120" s="7">
+        <v>10</v>
+      </c>
+      <c r="X1120" s="7">
         <v>85.7</v>
       </c>
-      <c r="Y1114">
+      <c r="Y1120" s="7">
         <v>16</v>
       </c>
-      <c r="Z1114">
+      <c r="Z1120" s="7">
         <v>87.1</v>
       </c>
-      <c r="AA1114">
-        <v>10</v>
-      </c>
-      <c r="AB1114">
+      <c r="AA1120" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB1120" s="7">
         <v>86.8</v>
       </c>
-      <c r="AC1114">
+      <c r="AC1120" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="1115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1115" t="s">
+    <row r="1121" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1115" t="s">
+      <c r="B1121" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1115" t="s">
+      <c r="D1121" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1115">
-        <v>100</v>
-      </c>
-      <c r="F1115">
+      <c r="E1121" s="13">
+        <v>100</v>
+      </c>
+      <c r="F1121" s="13">
         <v>64.7</v>
       </c>
-      <c r="G1115">
+      <c r="G1121" s="13">
         <v>60.7</v>
       </c>
-      <c r="H1115">
-        <v>100</v>
-      </c>
-      <c r="I1115">
-        <v>100</v>
-      </c>
-      <c r="J1115">
+      <c r="H1121" s="13">
+        <v>100</v>
+      </c>
+      <c r="I1121" s="13">
+        <v>100</v>
+      </c>
+      <c r="J1121" s="13">
         <v>68</v>
       </c>
-      <c r="K1115">
+      <c r="K1121" s="13">
         <v>40</v>
       </c>
-      <c r="L1115">
+      <c r="L1121" s="13">
         <v>86.7</v>
       </c>
-      <c r="M1115">
+      <c r="M1121" s="13">
         <v>20</v>
       </c>
-      <c r="N1115">
+      <c r="N1121" s="13">
         <v>82.8</v>
       </c>
-      <c r="O1115">
-        <v>10</v>
-      </c>
-      <c r="P1115">
+      <c r="O1121" s="13">
+        <v>10</v>
+      </c>
+      <c r="P1121" s="13">
         <v>67.3</v>
       </c>
-      <c r="Q1115">
+      <c r="Q1121" s="13">
         <v>17</v>
       </c>
-      <c r="S1115"/>
-      <c r="T1115">
+      <c r="T1121" s="13">
         <v>65.5</v>
       </c>
-      <c r="U1115">
+      <c r="U1121" s="13">
         <v>36</v>
       </c>
-      <c r="V1115">
+      <c r="V1121" s="13">
         <v>76.7</v>
       </c>
-      <c r="W1115">
-        <v>10</v>
-      </c>
-      <c r="X1115">
+      <c r="W1121" s="13">
+        <v>10</v>
+      </c>
+      <c r="X1121" s="13">
         <v>79.5</v>
       </c>
-      <c r="Y1115">
+      <c r="Y1121" s="13">
         <v>13</v>
       </c>
-      <c r="Z1115">
+      <c r="Z1121" s="13">
         <v>78.8</v>
       </c>
-      <c r="AA1115">
+      <c r="AA1121" s="13">
         <v>11</v>
       </c>
-      <c r="AB1115">
+      <c r="AB1121" s="13">
         <v>66.7</v>
       </c>
-      <c r="AC1115">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1116" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1116" t="s">
+      <c r="AC1121" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1122" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1116" t="s">
+      <c r="D1122" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1116">
-        <v>100</v>
-      </c>
-      <c r="F1116">
-        <v>77.8</v>
-      </c>
-      <c r="G1116">
-        <v>98.6</v>
-      </c>
-      <c r="H1116">
+      <c r="E1122" s="10">
+        <v>100</v>
+      </c>
+      <c r="F1122" s="10">
+        <v>61.4</v>
+      </c>
+      <c r="G1122" s="10">
+        <v>82.2</v>
+      </c>
+      <c r="H1122" s="10">
         <v>0</v>
       </c>
-      <c r="I1116">
+      <c r="I1122" s="10">
         <v>0</v>
       </c>
-      <c r="J1116">
-        <v>88.2</v>
-      </c>
-      <c r="K1116">
+      <c r="J1122" s="10">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K1122" s="10">
+        <v>19</v>
+      </c>
+      <c r="L1122" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="M1122" s="10">
+        <v>10</v>
+      </c>
+      <c r="N1122" s="10">
+        <v>73.8</v>
+      </c>
+      <c r="O1122" s="10">
+        <v>16</v>
+      </c>
+      <c r="P1122" s="10">
+        <v>78.8</v>
+      </c>
+      <c r="Q1122" s="10">
+        <v>11</v>
+      </c>
+      <c r="R1122" s="10">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="S1122" s="10">
+        <v>11</v>
+      </c>
+      <c r="T1122" s="10">
+        <v>69.2</v>
+      </c>
+      <c r="U1122" s="10">
+        <v>16</v>
+      </c>
+      <c r="V1122" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="W1122" s="10">
+        <v>11</v>
+      </c>
+      <c r="X1122" s="10">
+        <v>78</v>
+      </c>
+      <c r="Y1122" s="10">
+        <v>12</v>
+      </c>
+      <c r="Z1122" s="10">
+        <v>78.2</v>
+      </c>
+      <c r="AA1122" s="10">
+        <v>11</v>
+      </c>
+      <c r="AB1122" s="10">
+        <v>75</v>
+      </c>
+      <c r="AC1122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1123" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1123" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1123" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1123" s="7">
+        <v>60.8</v>
+      </c>
+      <c r="G1123" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="H1123" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1123" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1123" s="7">
+        <v>71.2</v>
+      </c>
+      <c r="K1123" s="7">
+        <v>11</v>
+      </c>
+      <c r="L1123" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="M1123" s="7">
+        <v>13</v>
+      </c>
+      <c r="N1123" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O1123" s="7">
+        <v>19</v>
+      </c>
+      <c r="T1123" s="7">
+        <v>58.7</v>
+      </c>
+      <c r="U1123" s="7">
+        <v>43</v>
+      </c>
+      <c r="V1123" s="7">
+        <v>69.3</v>
+      </c>
+      <c r="W1123" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1124" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1124" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1124" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1124" s="7">
+        <v>66.3</v>
+      </c>
+      <c r="G1124" s="7">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H1124" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1124" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1124" s="7">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K1124" s="7">
+        <v>32</v>
+      </c>
+      <c r="L1124" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="M1124" s="7">
+        <v>43</v>
+      </c>
+      <c r="N1124" s="7">
+        <v>81</v>
+      </c>
+      <c r="O1124" s="7">
+        <v>10</v>
+      </c>
+      <c r="P1124" s="7">
+        <v>74.2</v>
+      </c>
+      <c r="Q1124" s="7">
+        <v>16</v>
+      </c>
+      <c r="R1124" s="7">
+        <v>78.3</v>
+      </c>
+      <c r="S1124" s="7">
+        <v>11</v>
+      </c>
+      <c r="T1124" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="U1124" s="7">
         <v>24</v>
       </c>
-      <c r="L1116">
+      <c r="V1124" s="7">
+        <v>79.3</v>
+      </c>
+      <c r="W1124" s="7">
+        <v>14</v>
+      </c>
+      <c r="X1124" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="Y1124" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z1124" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="AA1124" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB1124" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="AC1124" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1125" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1125" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1125" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1125" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="G1125" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="H1125" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1125" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1125" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="K1125" s="7">
+        <v>52</v>
+      </c>
+      <c r="L1125" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="M1125" s="7">
+        <v>35</v>
+      </c>
+      <c r="N1125" s="7">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="O1125" s="7">
+        <v>13</v>
+      </c>
+      <c r="P1125" s="7">
+        <v>65.8</v>
+      </c>
+      <c r="Q1125" s="7">
+        <v>18</v>
+      </c>
+      <c r="T1125" s="7">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="U1125" s="7">
+        <v>33</v>
+      </c>
+      <c r="V1125" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="W1125" s="7">
+        <v>12</v>
+      </c>
+      <c r="X1125" s="7">
+        <v>81</v>
+      </c>
+      <c r="Y1125" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1126" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1126" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1126" s="7">
+        <v>99</v>
+      </c>
+      <c r="F1126" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G1126" s="7">
+        <v>86.3</v>
+      </c>
+      <c r="H1126" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1126" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1126" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="K1126" s="7">
+        <v>32</v>
+      </c>
+      <c r="L1126" s="7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="M1126" s="7">
+        <v>41</v>
+      </c>
+      <c r="N1126" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="O1126" s="7">
+        <v>12</v>
+      </c>
+      <c r="P1126" s="7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q1126" s="7">
+        <v>34</v>
+      </c>
+      <c r="R1126" s="7">
+        <v>86.5</v>
+      </c>
+      <c r="S1126" s="7">
+        <v>16</v>
+      </c>
+      <c r="T1126" s="7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="U1126" s="7">
+        <v>14</v>
+      </c>
+      <c r="V1126" s="7">
+        <v>82.4</v>
+      </c>
+      <c r="W1126" s="7">
+        <v>18</v>
+      </c>
+      <c r="X1126" s="7">
+        <v>84.9</v>
+      </c>
+      <c r="Y1126" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z1126" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="AA1126" s="7">
+        <v>12</v>
+      </c>
+      <c r="AB1126" s="7">
+        <v>83.3</v>
+      </c>
+      <c r="AC1126" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1127" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1127" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1127" s="13">
+        <v>100</v>
+      </c>
+      <c r="F1127" s="13">
+        <v>66.7</v>
+      </c>
+      <c r="G1127" s="13">
+        <v>100</v>
+      </c>
+      <c r="H1127" s="13">
+        <v>100</v>
+      </c>
+      <c r="I1127" s="13">
+        <v>100</v>
+      </c>
+      <c r="J1127" s="13">
+        <v>65.3</v>
+      </c>
+      <c r="K1127" s="13">
+        <v>61</v>
+      </c>
+      <c r="L1127" s="13">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="M1127" s="13">
+        <v>40</v>
+      </c>
+      <c r="N1127" s="13">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="O1127" s="13">
+        <v>14</v>
+      </c>
+      <c r="P1127" s="13">
+        <v>61.7</v>
+      </c>
+      <c r="Q1127" s="13">
+        <v>13</v>
+      </c>
+      <c r="R1127" s="13">
+        <v>63.4</v>
+      </c>
+      <c r="S1127" s="13">
+        <v>17</v>
+      </c>
+      <c r="T1127" s="13">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U1127" s="13">
+        <v>39</v>
+      </c>
+      <c r="V1127" s="13">
+        <v>73.7</v>
+      </c>
+      <c r="W1127" s="13">
+        <v>21</v>
+      </c>
+      <c r="X1127" s="13">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Y1127" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z1127" s="13">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AA1127" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB1127" s="13">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AC1127" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1128" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1128" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1128" s="10">
+        <v>100</v>
+      </c>
+      <c r="F1128" s="10">
+        <v>69.2</v>
+      </c>
+      <c r="G1128" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="H1128" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1128" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1128" s="10">
+        <v>81.8</v>
+      </c>
+      <c r="K1128" s="10">
+        <v>17</v>
+      </c>
+      <c r="L1128" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="M1128" s="10">
+        <v>24</v>
+      </c>
+      <c r="N1128" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="O1128" s="10">
+        <v>12</v>
+      </c>
+      <c r="P1128" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="Q1128" s="10">
+        <v>14</v>
+      </c>
+      <c r="R1128" s="10">
+        <v>96</v>
+      </c>
+      <c r="S1128" s="10">
+        <v>10</v>
+      </c>
+      <c r="T1128" s="10">
+        <v>67.8</v>
+      </c>
+      <c r="U1128" s="10">
+        <v>34</v>
+      </c>
+      <c r="V1128" s="10">
+        <v>78.8</v>
+      </c>
+      <c r="W1128" s="10">
+        <v>13</v>
+      </c>
+      <c r="X1128" s="10">
+        <v>82.1</v>
+      </c>
+      <c r="Y1128" s="10">
+        <v>11</v>
+      </c>
+      <c r="Z1128" s="10">
+        <v>92</v>
+      </c>
+      <c r="AA1128" s="10">
+        <v>10</v>
+      </c>
+      <c r="AB1128" s="10">
+        <v>84.6</v>
+      </c>
+      <c r="AC1128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1129" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1129" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1129" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1129" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="G1129" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="H1129" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1129" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1129" s="7">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K1129" s="7">
+        <v>12</v>
+      </c>
+      <c r="L1129" s="7">
+        <v>92</v>
+      </c>
+      <c r="M1129" s="7">
+        <v>10</v>
+      </c>
+      <c r="T1129" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="U1129" s="7">
+        <v>56</v>
+      </c>
+      <c r="V1129" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="W1129" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1130" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1130" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1130" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1130" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G1130" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="H1130" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1130" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1130" s="7">
+        <v>76.7</v>
+      </c>
+      <c r="K1130" s="7">
+        <v>27</v>
+      </c>
+      <c r="L1130" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="M1130" s="7">
+        <v>18</v>
+      </c>
+      <c r="N1130" s="7">
+        <v>95</v>
+      </c>
+      <c r="O1130" s="7">
+        <v>18</v>
+      </c>
+      <c r="P1130" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q1130" s="7">
+        <v>10</v>
+      </c>
+      <c r="R1130" s="7">
+        <v>100</v>
+      </c>
+      <c r="S1130" s="7">
+        <v>10</v>
+      </c>
+      <c r="T1130" s="7">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="U1130" s="7">
+        <v>13</v>
+      </c>
+      <c r="V1130" s="7">
+        <v>81</v>
+      </c>
+      <c r="W1130" s="7">
+        <v>10</v>
+      </c>
+      <c r="X1130" s="7">
+        <v>91.3</v>
+      </c>
+      <c r="Y1130" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z1130" s="7">
+        <v>85.2</v>
+      </c>
+      <c r="AA1130" s="7">
+        <v>12</v>
+      </c>
+      <c r="AB1130" s="7">
+        <v>85.7</v>
+      </c>
+      <c r="AC1130" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1131" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1131" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1131" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1131" s="7">
+        <v>63.3</v>
+      </c>
+      <c r="G1131" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="H1131" s="7">
+        <v>100</v>
+      </c>
+      <c r="I1131" s="7">
+        <v>100</v>
+      </c>
+      <c r="J1131" s="7">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K1131" s="7">
+        <v>31</v>
+      </c>
+      <c r="L1131" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="M1131" s="7">
+        <v>10</v>
+      </c>
+      <c r="N1131" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="O1131" s="7">
+        <v>11</v>
+      </c>
+      <c r="T1131" s="7">
+        <v>60</v>
+      </c>
+      <c r="U1131" s="7">
+        <v>57</v>
+      </c>
+      <c r="V1131" s="7">
+        <v>76.5</v>
+      </c>
+      <c r="W1131" s="7">
+        <v>15</v>
+      </c>
+      <c r="X1131" s="7">
+        <v>81</v>
+      </c>
+      <c r="Y1131" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1132" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1132" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1132" s="7">
+        <v>98.9</v>
+      </c>
+      <c r="F1132" s="7">
+        <v>70.2</v>
+      </c>
+      <c r="G1132" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="H1132" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1132" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1132" s="7">
+        <v>75</v>
+      </c>
+      <c r="K1132" s="7">
+        <v>43</v>
+      </c>
+      <c r="L1132" s="7">
+        <v>89.3</v>
+      </c>
+      <c r="M1132" s="7">
+        <v>11</v>
+      </c>
+      <c r="N1132" s="7">
+        <v>91.2</v>
+      </c>
+      <c r="O1132" s="7">
+        <v>13</v>
+      </c>
+      <c r="P1132" s="7">
+        <v>96.8</v>
+      </c>
+      <c r="Q1132" s="7">
+        <v>12</v>
+      </c>
+      <c r="R1132" s="7">
+        <v>100</v>
+      </c>
+      <c r="S1132" s="7">
+        <v>10</v>
+      </c>
+      <c r="T1132" s="7">
+        <v>87.1</v>
+      </c>
+      <c r="U1132" s="7">
+        <v>12</v>
+      </c>
+      <c r="V1132" s="7">
+        <v>89.3</v>
+      </c>
+      <c r="W1132" s="7">
+        <v>11</v>
+      </c>
+      <c r="X1132" s="7">
+        <v>93.3</v>
+      </c>
+      <c r="Y1132" s="7">
+        <v>12</v>
+      </c>
+      <c r="Z1132" s="7">
         <v>92.9</v>
       </c>
-      <c r="M1116">
+      <c r="AA1132" s="7">
+        <v>11</v>
+      </c>
+      <c r="AB1132" s="7">
+        <v>88.5</v>
+      </c>
+      <c r="AC1132" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1133" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1133" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1133" s="13">
+        <v>100</v>
+      </c>
+      <c r="F1133" s="13">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G1133" s="13">
+        <v>29</v>
+      </c>
+      <c r="H1133" s="13">
+        <v>100</v>
+      </c>
+      <c r="I1133" s="13">
+        <v>100</v>
+      </c>
+      <c r="J1133" s="13">
+        <v>73.8</v>
+      </c>
+      <c r="K1133" s="13">
+        <v>24</v>
+      </c>
+      <c r="L1133" s="13">
+        <v>89.3</v>
+      </c>
+      <c r="M1133" s="13">
+        <v>11</v>
+      </c>
+      <c r="N1133" s="13">
+        <v>94.3</v>
+      </c>
+      <c r="O1133" s="13">
+        <v>14</v>
+      </c>
+      <c r="P1133" s="13">
+        <v>75</v>
+      </c>
+      <c r="Q1133" s="13">
+        <v>10</v>
+      </c>
+      <c r="T1133" s="13">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="U1133" s="13">
+        <v>17</v>
+      </c>
+      <c r="V1133" s="13">
+        <v>94.7</v>
+      </c>
+      <c r="W1133" s="13">
+        <v>15</v>
+      </c>
+      <c r="X1133" s="13">
+        <v>79.2</v>
+      </c>
+      <c r="Y1133" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1134">
+        <v>97</v>
+      </c>
+      <c r="F1134">
+        <v>74.5</v>
+      </c>
+      <c r="G1134">
+        <v>79.2</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+      <c r="I1134">
+        <v>0</v>
+      </c>
+      <c r="J1134">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K1134">
+        <v>32</v>
+      </c>
+      <c r="L1134">
+        <v>85.5</v>
+      </c>
+      <c r="M1134">
+        <v>27</v>
+      </c>
+      <c r="N1134">
+        <v>96.1</v>
+      </c>
+      <c r="O1134">
+        <v>12</v>
+      </c>
+      <c r="P1134">
+        <v>98</v>
+      </c>
+      <c r="Q1134">
+        <v>12</v>
+      </c>
+      <c r="R1134">
+        <v>97.6</v>
+      </c>
+      <c r="S1134">
+        <v>10</v>
+      </c>
+      <c r="T1134">
+        <v>81.7</v>
+      </c>
+      <c r="U1134">
+        <v>29</v>
+      </c>
+      <c r="V1134">
+        <v>86.4</v>
+      </c>
+      <c r="W1134">
+        <v>14</v>
+      </c>
+      <c r="X1134">
+        <v>93</v>
+      </c>
+      <c r="Y1134">
+        <v>13</v>
+      </c>
+      <c r="Z1134">
+        <v>95.7</v>
+      </c>
+      <c r="AA1134">
+        <v>11</v>
+      </c>
+      <c r="AB1134">
+        <v>95.9</v>
+      </c>
+      <c r="AC1134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1135">
+        <v>100</v>
+      </c>
+      <c r="F1135">
+        <v>72.7</v>
+      </c>
+      <c r="G1135">
+        <v>54.4</v>
+      </c>
+      <c r="H1135">
+        <v>100</v>
+      </c>
+      <c r="I1135">
+        <v>100</v>
+      </c>
+      <c r="J1135">
+        <v>84.4</v>
+      </c>
+      <c r="K1135">
+        <v>18</v>
+      </c>
+      <c r="L1135">
+        <v>82.9</v>
+      </c>
+      <c r="M1135">
+        <v>10</v>
+      </c>
+      <c r="N1135">
+        <v>87.5</v>
+      </c>
+      <c r="O1135">
+        <v>15</v>
+      </c>
+      <c r="P1135">
+        <v>93.3</v>
+      </c>
+      <c r="Q1135">
+        <v>11</v>
+      </c>
+      <c r="S1135"/>
+      <c r="T1135">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="U1135">
+        <v>33</v>
+      </c>
+      <c r="V1135">
+        <v>85.5</v>
+      </c>
+      <c r="W1135">
         <v>19</v>
       </c>
-      <c r="N1116">
-        <v>91.7</v>
-      </c>
-      <c r="O1116">
-        <v>17</v>
-      </c>
-      <c r="P1116">
-        <v>92.9</v>
-      </c>
-      <c r="Q1116">
-        <v>19</v>
-      </c>
-      <c r="R1116">
-        <v>94.7</v>
-      </c>
-      <c r="S1116">
-        <v>26</v>
-      </c>
-      <c r="T1116">
-        <v>91.7</v>
-      </c>
-      <c r="U1116">
-        <v>17</v>
-      </c>
-      <c r="V1116">
-        <v>100</v>
-      </c>
-      <c r="W1116">
-        <v>10</v>
-      </c>
-      <c r="X1116">
-        <v>100</v>
-      </c>
-      <c r="Y1116">
-        <v>14</v>
-      </c>
-      <c r="Z1116">
-        <v>100</v>
-      </c>
-      <c r="AA1116">
-        <v>10</v>
-      </c>
-      <c r="AB1116">
-        <v>100</v>
-      </c>
-      <c r="AC1116">
+      <c r="X1135">
+        <v>88.9</v>
+      </c>
+      <c r="Y1135">
         <v>11</v>
       </c>
-    </row>
-    <row r="1117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1117">
-        <v>100</v>
-      </c>
-      <c r="F1117">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G1117">
-        <v>4.2</v>
-      </c>
-      <c r="H1117">
-        <v>100</v>
-      </c>
-      <c r="I1117">
-        <v>100</v>
-      </c>
-      <c r="J1117">
-        <v>100</v>
-      </c>
-      <c r="K1117">
-        <v>10</v>
-      </c>
-      <c r="L1117">
-        <v>100</v>
-      </c>
-      <c r="M1117">
-        <v>11</v>
-      </c>
-      <c r="S1117"/>
-      <c r="T1117">
-        <v>72</v>
-      </c>
-      <c r="U1117">
-        <v>35</v>
-      </c>
-      <c r="V1117">
-        <v>87.5</v>
-      </c>
-      <c r="W1117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1118" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1118">
-        <v>100</v>
-      </c>
-      <c r="F1118">
-        <v>83.3</v>
-      </c>
-      <c r="G1118">
-        <v>98.3</v>
-      </c>
-      <c r="H1118">
-        <v>0</v>
-      </c>
-      <c r="I1118">
-        <v>0</v>
-      </c>
-      <c r="J1118">
-        <v>100</v>
-      </c>
-      <c r="K1118">
-        <v>17</v>
-      </c>
-      <c r="L1118">
-        <v>100</v>
-      </c>
-      <c r="M1118">
-        <v>17</v>
-      </c>
-      <c r="N1118">
-        <v>100</v>
-      </c>
-      <c r="O1118">
-        <v>17</v>
-      </c>
-      <c r="P1118">
-        <v>100</v>
-      </c>
-      <c r="Q1118">
-        <v>17</v>
-      </c>
-      <c r="R1118">
-        <v>100</v>
-      </c>
-      <c r="S1118">
-        <v>17</v>
-      </c>
-      <c r="T1118">
-        <v>88.2</v>
-      </c>
-      <c r="U1118">
-        <v>28</v>
-      </c>
-      <c r="V1118">
-        <v>92.3</v>
-      </c>
-      <c r="W1118">
-        <v>22</v>
-      </c>
-      <c r="X1118">
-        <v>100</v>
-      </c>
-      <c r="Y1118">
-        <v>10</v>
-      </c>
-      <c r="Z1118">
-        <v>90.9</v>
-      </c>
-      <c r="AA1118">
-        <v>18</v>
-      </c>
-      <c r="AB1118">
-        <v>92.9</v>
-      </c>
-      <c r="AC1118">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1119">
-        <v>100</v>
-      </c>
-      <c r="F1119">
-        <v>76.7</v>
-      </c>
-      <c r="G1119">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H1119">
-        <v>100</v>
-      </c>
-      <c r="I1119">
-        <v>100</v>
-      </c>
-      <c r="J1119">
-        <v>77.3</v>
-      </c>
-      <c r="K1119">
-        <v>37</v>
-      </c>
-      <c r="L1119">
-        <v>100</v>
-      </c>
-      <c r="M1119">
-        <v>10</v>
-      </c>
-      <c r="N1119">
-        <v>100</v>
-      </c>
-      <c r="O1119">
-        <v>13</v>
-      </c>
-      <c r="S1119"/>
-      <c r="T1119">
-        <v>87.5</v>
-      </c>
-      <c r="U1119">
-        <v>40</v>
-      </c>
-      <c r="V1119">
-        <v>91.7</v>
-      </c>
-      <c r="W1119">
-        <v>20</v>
-      </c>
-      <c r="X1119">
-        <v>87.5</v>
-      </c>
-      <c r="Y1119">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1120">
-        <v>98.4</v>
-      </c>
-      <c r="F1120">
-        <v>80.3</v>
-      </c>
-      <c r="G1120">
-        <v>97</v>
-      </c>
-      <c r="H1120">
-        <v>0</v>
-      </c>
-      <c r="I1120">
-        <v>0</v>
-      </c>
-      <c r="J1120">
-        <v>100</v>
-      </c>
-      <c r="K1120">
-        <v>24</v>
-      </c>
-      <c r="L1120">
-        <v>100</v>
-      </c>
-      <c r="M1120">
-        <v>23</v>
-      </c>
-      <c r="N1120">
-        <v>100</v>
-      </c>
-      <c r="O1120">
-        <v>20</v>
-      </c>
-      <c r="P1120">
-        <v>100</v>
-      </c>
-      <c r="Q1120">
-        <v>14</v>
-      </c>
-      <c r="R1120">
-        <v>100</v>
-      </c>
-      <c r="S1120">
-        <v>14</v>
-      </c>
-      <c r="T1120">
-        <v>85.7</v>
-      </c>
-      <c r="U1120">
-        <v>21</v>
-      </c>
-      <c r="V1120">
-        <v>87.5</v>
-      </c>
-      <c r="W1120">
+      <c r="Z1135">
+        <v>90.2</v>
+      </c>
+      <c r="AA1135">
         <v>12</v>
-      </c>
-      <c r="X1120">
-        <v>87.5</v>
-      </c>
-      <c r="Y1120">
-        <v>12</v>
-      </c>
-      <c r="Z1120">
-        <v>90</v>
-      </c>
-      <c r="AA1120">
-        <v>15</v>
-      </c>
-      <c r="AB1120">
-        <v>100</v>
-      </c>
-      <c r="AC1120">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1121">
-        <v>100</v>
-      </c>
-      <c r="F1121">
-        <v>77.3</v>
-      </c>
-      <c r="G1121">
-        <v>69.7</v>
-      </c>
-      <c r="H1121">
-        <v>100</v>
-      </c>
-      <c r="I1121">
-        <v>100</v>
-      </c>
-      <c r="J1121">
-        <v>100</v>
-      </c>
-      <c r="K1121">
-        <v>12</v>
-      </c>
-      <c r="L1121">
-        <v>100</v>
-      </c>
-      <c r="M1121">
-        <v>24</v>
-      </c>
-      <c r="N1121">
-        <v>100</v>
-      </c>
-      <c r="O1121">
-        <v>11</v>
-      </c>
-      <c r="P1121">
-        <v>100</v>
-      </c>
-      <c r="Q1121">
-        <v>11</v>
-      </c>
-      <c r="R1121">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="S1121">
-        <v>11</v>
-      </c>
-      <c r="T1121">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="U1121">
-        <v>21</v>
-      </c>
-      <c r="V1121">
-        <v>80</v>
-      </c>
-      <c r="W1121">
-        <v>23</v>
-      </c>
-      <c r="X1121">
-        <v>88.9</v>
-      </c>
-      <c r="Y1121">
-        <v>14</v>
-      </c>
-      <c r="Z1121">
-        <v>88.9</v>
-      </c>
-      <c r="AA1121">
-        <v>14</v>
-      </c>
-      <c r="AB1121">
-        <v>85.7</v>
-      </c>
-      <c r="AC1121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1122">
-        <v>100</v>
-      </c>
-      <c r="F1122">
-        <v>61.4</v>
-      </c>
-      <c r="G1122">
-        <v>82.2</v>
-      </c>
-      <c r="H1122">
-        <v>0</v>
-      </c>
-      <c r="I1122">
-        <v>0</v>
-      </c>
-      <c r="J1122">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="K1122">
-        <v>19</v>
-      </c>
-      <c r="L1122">
-        <v>74.5</v>
-      </c>
-      <c r="M1122">
-        <v>10</v>
-      </c>
-      <c r="N1122">
-        <v>73.8</v>
-      </c>
-      <c r="O1122">
-        <v>16</v>
-      </c>
-      <c r="P1122">
-        <v>78.8</v>
-      </c>
-      <c r="Q1122">
-        <v>11</v>
-      </c>
-      <c r="R1122">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="S1122">
-        <v>11</v>
-      </c>
-      <c r="T1122">
-        <v>69.2</v>
-      </c>
-      <c r="U1122">
-        <v>16</v>
-      </c>
-      <c r="V1122">
-        <v>74.5</v>
-      </c>
-      <c r="W1122">
-        <v>11</v>
-      </c>
-      <c r="X1122">
-        <v>78</v>
-      </c>
-      <c r="Y1122">
-        <v>12</v>
-      </c>
-      <c r="Z1122">
-        <v>78.2</v>
-      </c>
-      <c r="AA1122">
-        <v>11</v>
-      </c>
-      <c r="AB1122">
-        <v>75</v>
-      </c>
-      <c r="AC1122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1123">
-        <v>100</v>
-      </c>
-      <c r="F1123">
-        <v>60.8</v>
-      </c>
-      <c r="G1123">
-        <v>24.8</v>
-      </c>
-      <c r="H1123">
-        <v>100</v>
-      </c>
-      <c r="I1123">
-        <v>100</v>
-      </c>
-      <c r="J1123">
-        <v>71.2</v>
-      </c>
-      <c r="K1123">
-        <v>11</v>
-      </c>
-      <c r="L1123">
-        <v>72.7</v>
-      </c>
-      <c r="M1123">
-        <v>13</v>
-      </c>
-      <c r="N1123">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="O1123">
-        <v>19</v>
-      </c>
-      <c r="S1123"/>
-      <c r="T1123">
-        <v>58.7</v>
-      </c>
-      <c r="U1123">
-        <v>43</v>
-      </c>
-      <c r="V1123">
-        <v>69.3</v>
-      </c>
-      <c r="W1123">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1124">
-        <v>100</v>
-      </c>
-      <c r="F1124">
-        <v>66.3</v>
-      </c>
-      <c r="G1124">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="H1124">
-        <v>0</v>
-      </c>
-      <c r="I1124">
-        <v>0</v>
-      </c>
-      <c r="J1124">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="K1124">
-        <v>32</v>
-      </c>
-      <c r="L1124">
-        <v>67.8</v>
-      </c>
-      <c r="M1124">
-        <v>43</v>
-      </c>
-      <c r="N1124">
-        <v>81</v>
-      </c>
-      <c r="O1124">
-        <v>10</v>
-      </c>
-      <c r="P1124">
-        <v>74.2</v>
-      </c>
-      <c r="Q1124">
-        <v>16</v>
-      </c>
-      <c r="R1124">
-        <v>78.3</v>
-      </c>
-      <c r="S1124">
-        <v>11</v>
-      </c>
-      <c r="T1124">
-        <v>73.3</v>
-      </c>
-      <c r="U1124">
-        <v>24</v>
-      </c>
-      <c r="V1124">
-        <v>79.3</v>
-      </c>
-      <c r="W1124">
-        <v>14</v>
-      </c>
-      <c r="X1124">
-        <v>87.2</v>
-      </c>
-      <c r="Y1124">
-        <v>11</v>
-      </c>
-      <c r="Z1124">
-        <v>83.7</v>
-      </c>
-      <c r="AA1124">
-        <v>10</v>
-      </c>
-      <c r="AB1124">
-        <v>84.4</v>
-      </c>
-      <c r="AC1124">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1125">
-        <v>100</v>
-      </c>
-      <c r="F1125">
-        <v>62.5</v>
-      </c>
-      <c r="G1125">
-        <v>49.8</v>
-      </c>
-      <c r="H1125">
-        <v>100</v>
-      </c>
-      <c r="I1125">
-        <v>100</v>
-      </c>
-      <c r="J1125">
-        <v>62.5</v>
-      </c>
-      <c r="K1125">
-        <v>52</v>
-      </c>
-      <c r="L1125">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="M1125">
-        <v>35</v>
-      </c>
-      <c r="N1125">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="O1125">
-        <v>13</v>
-      </c>
-      <c r="P1125">
-        <v>65.8</v>
-      </c>
-      <c r="Q1125">
-        <v>18</v>
-      </c>
-      <c r="S1125"/>
-      <c r="T1125">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="U1125">
-        <v>33</v>
-      </c>
-      <c r="V1125">
-        <v>83.7</v>
-      </c>
-      <c r="W1125">
-        <v>12</v>
-      </c>
-      <c r="X1125">
-        <v>81</v>
-      </c>
-      <c r="Y1125">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1126">
-        <v>99</v>
-      </c>
-      <c r="F1126">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="G1126">
-        <v>86.3</v>
-      </c>
-      <c r="H1126">
-        <v>0</v>
-      </c>
-      <c r="I1126">
-        <v>0</v>
-      </c>
-      <c r="J1126">
-        <v>68.7</v>
-      </c>
-      <c r="K1126">
-        <v>32</v>
-      </c>
-      <c r="L1126">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="M1126">
-        <v>41</v>
-      </c>
-      <c r="N1126">
-        <v>77.2</v>
-      </c>
-      <c r="O1126">
-        <v>12</v>
-      </c>
-      <c r="P1126">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="Q1126">
-        <v>34</v>
-      </c>
-      <c r="R1126">
-        <v>86.5</v>
-      </c>
-      <c r="S1126">
-        <v>16</v>
-      </c>
-      <c r="T1126">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="U1126">
-        <v>14</v>
-      </c>
-      <c r="V1126">
-        <v>82.4</v>
-      </c>
-      <c r="W1126">
-        <v>18</v>
-      </c>
-      <c r="X1126">
-        <v>84.9</v>
-      </c>
-      <c r="Y1126">
-        <v>11</v>
-      </c>
-      <c r="Z1126">
-        <v>85.7</v>
-      </c>
-      <c r="AA1126">
-        <v>12</v>
-      </c>
-      <c r="AB1126">
-        <v>83.3</v>
-      </c>
-      <c r="AC1126">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1127">
-        <v>100</v>
-      </c>
-      <c r="F1127">
-        <v>66.7</v>
-      </c>
-      <c r="G1127">
-        <v>100</v>
-      </c>
-      <c r="H1127">
-        <v>100</v>
-      </c>
-      <c r="I1127">
-        <v>100</v>
-      </c>
-      <c r="J1127">
-        <v>65.3</v>
-      </c>
-      <c r="K1127">
-        <v>61</v>
-      </c>
-      <c r="L1127">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="M1127">
-        <v>40</v>
-      </c>
-      <c r="N1127">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="O1127">
-        <v>14</v>
-      </c>
-      <c r="P1127">
-        <v>61.7</v>
-      </c>
-      <c r="Q1127">
-        <v>13</v>
-      </c>
-      <c r="R1127">
-        <v>63.4</v>
-      </c>
-      <c r="S1127">
-        <v>17</v>
-      </c>
-      <c r="T1127">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="U1127">
-        <v>39</v>
-      </c>
-      <c r="V1127">
-        <v>73.7</v>
-      </c>
-      <c r="W1127">
-        <v>21</v>
-      </c>
-      <c r="X1127">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="Y1127">
-        <v>10</v>
-      </c>
-      <c r="Z1127">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="AA1127">
-        <v>12</v>
-      </c>
-      <c r="AB1127">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="AC1127">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD58872-367D-4081-9570-1E922D2E8FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3ABC8-25AA-418F-B054-7AD5F6F1B73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2745" windowWidth="28470" windowHeight="11340" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="330" yWindow="780" windowWidth="28470" windowHeight="11340" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="85">
   <si>
     <t>Te_cal</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>test25_16c</t>
+  </si>
+  <si>
+    <t>test26_16c</t>
   </si>
 </sst>
 </file>
@@ -752,13 +755,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC1135"/>
+  <dimension ref="A1:AC1137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1119" sqref="J1119"/>
+      <selection pane="bottomRight" activeCell="E1138" sqref="E1138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88007,6 +88010,173 @@
       </c>
       <c r="AA1135">
         <v>12</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1136">
+        <v>97.2</v>
+      </c>
+      <c r="F1136">
+        <v>86.7</v>
+      </c>
+      <c r="G1136">
+        <v>84.7</v>
+      </c>
+      <c r="H1136">
+        <v>0</v>
+      </c>
+      <c r="I1136">
+        <v>0</v>
+      </c>
+      <c r="J1136">
+        <v>99.4</v>
+      </c>
+      <c r="K1136">
+        <v>37</v>
+      </c>
+      <c r="L1136">
+        <v>99.6</v>
+      </c>
+      <c r="M1136">
+        <v>22</v>
+      </c>
+      <c r="N1136">
+        <v>99.9</v>
+      </c>
+      <c r="O1136">
+        <v>10</v>
+      </c>
+      <c r="P1136">
+        <v>100</v>
+      </c>
+      <c r="Q1136">
+        <v>11</v>
+      </c>
+      <c r="R1136">
+        <v>100</v>
+      </c>
+      <c r="S1136">
+        <v>13</v>
+      </c>
+      <c r="T1136">
+        <v>11.2</v>
+      </c>
+      <c r="U1136">
+        <v>426</v>
+      </c>
+      <c r="V1136">
+        <v>14.4</v>
+      </c>
+      <c r="W1136">
+        <v>231</v>
+      </c>
+      <c r="X1136">
+        <v>19.8</v>
+      </c>
+      <c r="Y1136">
+        <v>87</v>
+      </c>
+      <c r="Z1136">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AA1136">
+        <v>20</v>
+      </c>
+      <c r="AB1136">
+        <v>40</v>
+      </c>
+      <c r="AC1136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1137">
+        <v>100</v>
+      </c>
+      <c r="F1137">
+        <v>96.9</v>
+      </c>
+      <c r="G1137">
+        <v>60</v>
+      </c>
+      <c r="H1137">
+        <v>100</v>
+      </c>
+      <c r="I1137">
+        <v>100</v>
+      </c>
+      <c r="J1137">
+        <v>99.4</v>
+      </c>
+      <c r="K1137">
+        <v>29</v>
+      </c>
+      <c r="L1137">
+        <v>99.6</v>
+      </c>
+      <c r="M1137">
+        <v>17</v>
+      </c>
+      <c r="N1137">
+        <v>99.9</v>
+      </c>
+      <c r="O1137">
+        <v>10</v>
+      </c>
+      <c r="P1137">
+        <v>99.9</v>
+      </c>
+      <c r="Q1137">
+        <v>11</v>
+      </c>
+      <c r="S1137"/>
+      <c r="T1137">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U1137">
+        <v>124</v>
+      </c>
+      <c r="V1137">
+        <v>15.3</v>
+      </c>
+      <c r="W1137">
+        <v>46</v>
+      </c>
+      <c r="X1137">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y1137">
+        <v>17</v>
+      </c>
+      <c r="Z1137">
+        <v>28.6</v>
+      </c>
+      <c r="AA1137">
+        <v>10</v>
+      </c>
+      <c r="AB1137">
+        <v>29.6</v>
+      </c>
+      <c r="AC1137">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/wm/Results.xlsx
+++ b/wm/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3ABC8-25AA-418F-B054-7AD5F6F1B73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E1D664-8CF1-4FCF-A7BB-384BB6B7D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="780" windowWidth="28470" windowHeight="11340" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{B6B0453F-83A4-43EC-A328-DC10FEB5BD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="90">
   <si>
     <t>Te_cal</t>
   </si>
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>test26_16c</t>
+  </si>
+  <si>
+    <t>test27_16c</t>
+  </si>
+  <si>
+    <t>test28_16c precision</t>
+  </si>
+  <si>
+    <t>test28_16c accuracy</t>
+  </si>
+  <si>
+    <t>test29_16c precision</t>
+  </si>
+  <si>
+    <t>test29_16c accuracy</t>
   </si>
 </sst>
 </file>
@@ -755,13 +770,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA71D6A-A9B1-42AC-9396-7E4A540CDDDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC1137"/>
+  <dimension ref="A1:AC1142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E1112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1138" sqref="E1138"/>
+      <selection pane="bottomRight" activeCell="A1137" sqref="A1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88177,6 +88192,430 @@
       </c>
       <c r="AC1137">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1138">
+        <v>96.9</v>
+      </c>
+      <c r="F1138">
+        <v>92</v>
+      </c>
+      <c r="G1138">
+        <v>94.9</v>
+      </c>
+      <c r="H1138">
+        <v>0</v>
+      </c>
+      <c r="I1138">
+        <v>0</v>
+      </c>
+      <c r="J1138">
+        <v>99.4</v>
+      </c>
+      <c r="K1138">
+        <v>38</v>
+      </c>
+      <c r="L1138">
+        <v>99.8</v>
+      </c>
+      <c r="M1138">
+        <v>24</v>
+      </c>
+      <c r="N1138">
+        <v>99.9</v>
+      </c>
+      <c r="O1138">
+        <v>10</v>
+      </c>
+      <c r="P1138">
+        <v>100</v>
+      </c>
+      <c r="Q1138">
+        <v>17</v>
+      </c>
+      <c r="R1138">
+        <v>100</v>
+      </c>
+      <c r="S1138">
+        <v>10</v>
+      </c>
+      <c r="T1138">
+        <v>12.3</v>
+      </c>
+      <c r="U1138">
+        <v>11</v>
+      </c>
+      <c r="V1138">
+        <v>13.7</v>
+      </c>
+      <c r="W1138">
+        <v>10</v>
+      </c>
+      <c r="X1138">
+        <v>14.4</v>
+      </c>
+      <c r="Y1138">
+        <v>10</v>
+      </c>
+      <c r="Z1138">
+        <v>14.2</v>
+      </c>
+      <c r="AA1138">
+        <v>10</v>
+      </c>
+      <c r="AB1138">
+        <v>10.8</v>
+      </c>
+      <c r="AC1138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1139">
+        <v>99</v>
+      </c>
+      <c r="F1139">
+        <v>95.2</v>
+      </c>
+      <c r="G1139">
+        <v>96.2</v>
+      </c>
+      <c r="H1139">
+        <v>0</v>
+      </c>
+      <c r="I1139">
+        <v>0</v>
+      </c>
+      <c r="J1139">
+        <v>99.3</v>
+      </c>
+      <c r="K1139">
+        <v>34</v>
+      </c>
+      <c r="L1139">
+        <v>99.6</v>
+      </c>
+      <c r="M1139">
+        <v>21</v>
+      </c>
+      <c r="N1139">
+        <v>99.8</v>
+      </c>
+      <c r="O1139">
+        <v>12</v>
+      </c>
+      <c r="P1139">
+        <v>99.8</v>
+      </c>
+      <c r="Q1139">
+        <v>19</v>
+      </c>
+      <c r="R1139">
+        <v>99.6</v>
+      </c>
+      <c r="S1139">
+        <v>10</v>
+      </c>
+      <c r="T1139">
+        <v>12.3</v>
+      </c>
+      <c r="U1139">
+        <v>12</v>
+      </c>
+      <c r="V1139">
+        <v>12.3</v>
+      </c>
+      <c r="W1139">
+        <v>14</v>
+      </c>
+      <c r="X1139">
+        <v>12.1</v>
+      </c>
+      <c r="Y1139">
+        <v>12</v>
+      </c>
+      <c r="Z1139">
+        <v>12</v>
+      </c>
+      <c r="AA1139">
+        <v>11</v>
+      </c>
+      <c r="AB1139">
+        <v>10</v>
+      </c>
+      <c r="AC1139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1140">
+        <v>99</v>
+      </c>
+      <c r="F1140">
+        <v>96</v>
+      </c>
+      <c r="G1140">
+        <v>97.2</v>
+      </c>
+      <c r="H1140">
+        <v>0</v>
+      </c>
+      <c r="I1140">
+        <v>0</v>
+      </c>
+      <c r="J1140">
+        <v>99.5</v>
+      </c>
+      <c r="K1140">
+        <v>28</v>
+      </c>
+      <c r="L1140">
+        <v>99.7</v>
+      </c>
+      <c r="M1140">
+        <v>15</v>
+      </c>
+      <c r="N1140">
+        <v>99.6</v>
+      </c>
+      <c r="O1140">
+        <v>15</v>
+      </c>
+      <c r="P1140">
+        <v>99.6</v>
+      </c>
+      <c r="Q1140">
+        <v>30</v>
+      </c>
+      <c r="R1140">
+        <v>99.8</v>
+      </c>
+      <c r="S1140">
+        <v>13</v>
+      </c>
+      <c r="T1140">
+        <v>12.1</v>
+      </c>
+      <c r="U1140">
+        <v>12</v>
+      </c>
+      <c r="V1140">
+        <v>12.9</v>
+      </c>
+      <c r="W1140">
+        <v>10</v>
+      </c>
+      <c r="X1140">
+        <v>12.7</v>
+      </c>
+      <c r="Y1140">
+        <v>10</v>
+      </c>
+      <c r="Z1140">
+        <v>12.5</v>
+      </c>
+      <c r="AA1140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1141">
+        <v>99.4</v>
+      </c>
+      <c r="F1141">
+        <v>94.9</v>
+      </c>
+      <c r="G1141">
+        <v>97.3</v>
+      </c>
+      <c r="H1141">
+        <v>0</v>
+      </c>
+      <c r="I1141">
+        <v>0</v>
+      </c>
+      <c r="J1141">
+        <v>99.6</v>
+      </c>
+      <c r="K1141">
+        <v>20</v>
+      </c>
+      <c r="L1141">
+        <v>99.7</v>
+      </c>
+      <c r="M1141">
+        <v>10</v>
+      </c>
+      <c r="N1141">
+        <v>99.6</v>
+      </c>
+      <c r="O1141">
+        <v>28</v>
+      </c>
+      <c r="P1141">
+        <v>99.7</v>
+      </c>
+      <c r="Q1141">
+        <v>17</v>
+      </c>
+      <c r="R1141">
+        <v>99.7</v>
+      </c>
+      <c r="S1141">
+        <v>13</v>
+      </c>
+      <c r="T1141">
+        <v>13.1</v>
+      </c>
+      <c r="U1141">
+        <v>10</v>
+      </c>
+      <c r="V1141">
+        <v>13.3</v>
+      </c>
+      <c r="W1141">
+        <v>10</v>
+      </c>
+      <c r="X1141">
+        <v>13.3</v>
+      </c>
+      <c r="Y1141">
+        <v>11</v>
+      </c>
+      <c r="Z1141">
+        <v>13.2</v>
+      </c>
+      <c r="AA1141">
+        <v>10</v>
+      </c>
+      <c r="AB1141">
+        <v>9.5</v>
+      </c>
+      <c r="AC1141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1142">
+        <v>99.5</v>
+      </c>
+      <c r="F1142">
+        <v>95.4</v>
+      </c>
+      <c r="G1142">
+        <v>97.5</v>
+      </c>
+      <c r="H1142">
+        <v>0</v>
+      </c>
+      <c r="I1142">
+        <v>0</v>
+      </c>
+      <c r="J1142">
+        <v>99.8</v>
+      </c>
+      <c r="K1142">
+        <v>16</v>
+      </c>
+      <c r="L1142">
+        <v>99.9</v>
+      </c>
+      <c r="M1142">
+        <v>11</v>
+      </c>
+      <c r="N1142">
+        <v>99.7</v>
+      </c>
+      <c r="O1142">
+        <v>25</v>
+      </c>
+      <c r="P1142">
+        <v>99.9</v>
+      </c>
+      <c r="Q1142">
+        <v>11</v>
+      </c>
+      <c r="R1142">
+        <v>99.8</v>
+      </c>
+      <c r="S1142">
+        <v>15</v>
+      </c>
+      <c r="T1142">
+        <v>13.6</v>
+      </c>
+      <c r="U1142">
+        <v>10</v>
+      </c>
+      <c r="V1142">
+        <v>13.7</v>
+      </c>
+      <c r="W1142">
+        <v>10</v>
+      </c>
+      <c r="X1142">
+        <v>13.1</v>
+      </c>
+      <c r="Y1142">
+        <v>10</v>
+      </c>
+      <c r="Z1142">
+        <v>13.7</v>
+      </c>
+      <c r="AA1142">
+        <v>10</v>
+      </c>
+      <c r="AB1142">
+        <v>12.9</v>
+      </c>
+      <c r="AC1142">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
